--- a/poverty_measurement/doc/lines comparison ppp.xlsx
+++ b/poverty_measurement/doc/lines comparison ppp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb563365\GitHub\VEN\poverty_measurement\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECAE09D-3262-4ECB-A048-49FBB401FDBF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69195DEA-0D8E-429E-A528-0607C3DD8200}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="canastas" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="85">
   <si>
     <t>lp_chi</t>
   </si>
@@ -294,6 +294,9 @@
   <si>
     <t>linea ppp11 mensual imf/ofi</t>
   </si>
+  <si>
+    <t>INFLACION 2018 a feb 2020</t>
+  </si>
 </sst>
 </file>
 
@@ -301,9 +304,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="171" formatCode="0.0000"/>
-    <numFmt numFmtId="174" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -350,7 +353,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,6 +372,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -384,20 +393,20 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -406,7 +415,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -422,9 +431,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1500,7 +1511,7 @@
     <worksheetSource ref="A1:F1054" sheet="infla verdadera"/>
   </cacheSource>
   <cacheFields count="8">
-    <cacheField name="fecha" numFmtId="169">
+    <cacheField name="fecha" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2017-04-22T00:00:00" maxDate="2020-03-10T00:00:00" count="1053">
         <d v="2017-04-22T00:00:00"/>
         <d v="2017-04-23T00:00:00"/>
@@ -11056,10 +11067,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{353E9152-6C64-43AA-B4BB-614E5549065A}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{353E9152-6C64-43AA-B4BB-614E5549065A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H6:I38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
-    <pivotField axis="axisRow" numFmtId="169" showAll="0">
+    <pivotField axis="axisRow" numFmtId="164" showAll="0">
       <items count="15">
         <item x="0"/>
         <item x="1"/>
@@ -11610,7 +11621,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12080,19 +12091,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B20">
-        <f>B18/30.4</f>
+        <f t="shared" ref="B20:E21" si="8">B18/30.4</f>
         <v>45.238315124569027</v>
       </c>
       <c r="C20">
-        <f>C18/30.4</f>
+        <f t="shared" si="8"/>
         <v>42.134637079893267</v>
       </c>
       <c r="D20">
-        <f>D18/30.4</f>
+        <f t="shared" si="8"/>
         <v>17.556098783288864</v>
       </c>
       <c r="E20">
-        <f>E18/30.4</f>
+        <f t="shared" si="8"/>
         <v>18.849306305274734</v>
       </c>
       <c r="F20" t="s">
@@ -12101,19 +12112,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B21">
-        <f>B19/30.4</f>
+        <f t="shared" si="8"/>
         <v>0.33889847423714348</v>
       </c>
       <c r="C21">
-        <f>C19/30.4</f>
+        <f t="shared" si="8"/>
         <v>0.29399184631146069</v>
       </c>
       <c r="D21">
-        <f>D19/30.4</f>
+        <f t="shared" si="8"/>
         <v>5.1040251095739696E-2</v>
       </c>
       <c r="E21">
-        <f>E19/30.4</f>
+        <f t="shared" si="8"/>
         <v>5.8836592710862404E-2</v>
       </c>
     </row>
@@ -12127,8 +12138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF1B70E-0803-43A5-B667-03EABF6A210D}">
   <dimension ref="A1:L1054"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12323,6 +12334,9 @@
       <c r="I8" s="6">
         <v>15222.797369863001</v>
       </c>
+      <c r="K8" s="26" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
@@ -12354,7 +12368,7 @@
         <f>AVERAGE(I9:I20)</f>
         <v>15124.625497951871</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="26">
         <f>(J36/J9-1)</f>
         <v>1914.1229394276063</v>
       </c>
@@ -12749,7 +12763,7 @@
         <v>169340.82142857142</v>
       </c>
       <c r="K23">
-        <f>I23/I22</f>
+        <f t="shared" ref="K23:K33" si="1">I23/I22</f>
         <v>1.7778676523277666</v>
       </c>
     </row>
@@ -12780,7 +12794,7 @@
         <v>317481.25806451612</v>
       </c>
       <c r="K24">
-        <f>I24/I23</f>
+        <f t="shared" si="1"/>
         <v>1.874806413398856</v>
       </c>
     </row>
@@ -12811,7 +12825,7 @@
         <v>430295.13333333336</v>
       </c>
       <c r="K25">
-        <f>I25/I24</f>
+        <f t="shared" si="1"/>
         <v>1.3553402678210758</v>
       </c>
     </row>
@@ -12842,7 +12856,7 @@
         <v>517040.93548387097</v>
       </c>
       <c r="K26">
-        <f>I26/I25</f>
+        <f t="shared" si="1"/>
         <v>1.2015960568239541</v>
       </c>
     </row>
@@ -12873,7 +12887,7 @@
         <v>735854.9</v>
       </c>
       <c r="K27">
-        <f>I27/I26</f>
+        <f t="shared" si="1"/>
         <v>1.4232043335434412</v>
       </c>
     </row>
@@ -12904,7 +12918,7 @@
         <v>1029113.7096774194</v>
       </c>
       <c r="K28">
-        <f>I28/I27</f>
+        <f t="shared" si="1"/>
         <v>1.3985280381735847</v>
       </c>
     </row>
@@ -12935,7 +12949,7 @@
         <v>1670967.7419354839</v>
       </c>
       <c r="K29">
-        <f>I29/I28</f>
+        <f t="shared" si="1"/>
         <v>1.6236959300243476</v>
       </c>
     </row>
@@ -12966,7 +12980,7 @@
         <v>2563333.3333333335</v>
       </c>
       <c r="K30">
-        <f>I30/I29</f>
+        <f t="shared" si="1"/>
         <v>1.5340411840411841</v>
       </c>
     </row>
@@ -12997,7 +13011,7 @@
         <v>4016129.0322580645</v>
       </c>
       <c r="K31">
-        <f>I31/I30</f>
+        <f t="shared" si="1"/>
         <v>1.5667603506858507</v>
       </c>
     </row>
@@ -13028,7 +13042,7 @@
         <v>5640000</v>
       </c>
       <c r="K32">
-        <f>I32/I31</f>
+        <f t="shared" si="1"/>
         <v>1.4043373493975904</v>
       </c>
     </row>
@@ -13059,7 +13073,7 @@
         <v>8009677.4193548383</v>
       </c>
       <c r="K33">
-        <f>I33/I32</f>
+        <f t="shared" si="1"/>
         <v>1.4201555708075955</v>
       </c>
     </row>
@@ -13804,7 +13818,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
-        <f t="shared" ref="A67:A130" si="1">DATE(D67,C67,B67)</f>
+        <f t="shared" ref="A67:A130" si="2">DATE(D67,C67,B67)</f>
         <v>42912</v>
       </c>
       <c r="B67">
@@ -13825,7 +13839,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42913</v>
       </c>
       <c r="B68">
@@ -13846,7 +13860,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42914</v>
       </c>
       <c r="B69">
@@ -13867,7 +13881,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42915</v>
       </c>
       <c r="B70">
@@ -13888,7 +13902,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42916</v>
       </c>
       <c r="B71">
@@ -13909,7 +13923,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42917</v>
       </c>
       <c r="B72">
@@ -13930,7 +13944,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42918</v>
       </c>
       <c r="B73">
@@ -13951,7 +13965,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42919</v>
       </c>
       <c r="B74">
@@ -13972,7 +13986,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42920</v>
       </c>
       <c r="B75">
@@ -13993,7 +14007,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42921</v>
       </c>
       <c r="B76">
@@ -14014,7 +14028,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42922</v>
       </c>
       <c r="B77">
@@ -14035,7 +14049,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42923</v>
       </c>
       <c r="B78">
@@ -14056,7 +14070,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42924</v>
       </c>
       <c r="B79">
@@ -14077,7 +14091,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42925</v>
       </c>
       <c r="B80">
@@ -14098,7 +14112,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42926</v>
       </c>
       <c r="B81">
@@ -14119,7 +14133,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42927</v>
       </c>
       <c r="B82">
@@ -14140,7 +14154,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42928</v>
       </c>
       <c r="B83">
@@ -14161,7 +14175,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42929</v>
       </c>
       <c r="B84">
@@ -14182,7 +14196,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42930</v>
       </c>
       <c r="B85">
@@ -14203,7 +14217,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42931</v>
       </c>
       <c r="B86">
@@ -14224,7 +14238,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42932</v>
       </c>
       <c r="B87">
@@ -14245,7 +14259,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42933</v>
       </c>
       <c r="B88">
@@ -14266,7 +14280,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42934</v>
       </c>
       <c r="B89">
@@ -14287,7 +14301,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42935</v>
       </c>
       <c r="B90">
@@ -14308,7 +14322,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42936</v>
       </c>
       <c r="B91">
@@ -14329,7 +14343,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42937</v>
       </c>
       <c r="B92">
@@ -14350,7 +14364,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42938</v>
       </c>
       <c r="B93">
@@ -14371,7 +14385,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42939</v>
       </c>
       <c r="B94">
@@ -14392,7 +14406,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42940</v>
       </c>
       <c r="B95">
@@ -14413,7 +14427,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42941</v>
       </c>
       <c r="B96">
@@ -14434,7 +14448,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42942</v>
       </c>
       <c r="B97">
@@ -14455,7 +14469,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42943</v>
       </c>
       <c r="B98">
@@ -14476,7 +14490,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42944</v>
       </c>
       <c r="B99">
@@ -14497,7 +14511,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42945</v>
       </c>
       <c r="B100">
@@ -14518,7 +14532,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42946</v>
       </c>
       <c r="B101">
@@ -14539,7 +14553,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42947</v>
       </c>
       <c r="B102">
@@ -14560,7 +14574,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42948</v>
       </c>
       <c r="B103">
@@ -14581,7 +14595,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42949</v>
       </c>
       <c r="B104">
@@ -14602,7 +14616,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42950</v>
       </c>
       <c r="B105">
@@ -14623,7 +14637,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42951</v>
       </c>
       <c r="B106">
@@ -14644,7 +14658,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42952</v>
       </c>
       <c r="B107">
@@ -14665,7 +14679,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42953</v>
       </c>
       <c r="B108">
@@ -14686,7 +14700,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42954</v>
       </c>
       <c r="B109">
@@ -14707,7 +14721,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42955</v>
       </c>
       <c r="B110">
@@ -14728,7 +14742,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42956</v>
       </c>
       <c r="B111">
@@ -14749,7 +14763,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42957</v>
       </c>
       <c r="B112">
@@ -14770,7 +14784,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42958</v>
       </c>
       <c r="B113">
@@ -14791,7 +14805,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42959</v>
       </c>
       <c r="B114">
@@ -14812,7 +14826,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42960</v>
       </c>
       <c r="B115">
@@ -14833,7 +14847,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42961</v>
       </c>
       <c r="B116">
@@ -14854,7 +14868,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42962</v>
       </c>
       <c r="B117">
@@ -14875,7 +14889,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42963</v>
       </c>
       <c r="B118">
@@ -14896,7 +14910,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42964</v>
       </c>
       <c r="B119">
@@ -14917,7 +14931,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42965</v>
       </c>
       <c r="B120">
@@ -14938,7 +14952,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42966</v>
       </c>
       <c r="B121">
@@ -14959,7 +14973,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42967</v>
       </c>
       <c r="B122">
@@ -14980,7 +14994,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42968</v>
       </c>
       <c r="B123">
@@ -15001,7 +15015,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42969</v>
       </c>
       <c r="B124">
@@ -15022,7 +15036,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42970</v>
       </c>
       <c r="B125">
@@ -15043,7 +15057,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42971</v>
       </c>
       <c r="B126">
@@ -15064,7 +15078,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42972</v>
       </c>
       <c r="B127">
@@ -15085,7 +15099,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42973</v>
       </c>
       <c r="B128">
@@ -15106,7 +15120,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42974</v>
       </c>
       <c r="B129">
@@ -15127,7 +15141,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42975</v>
       </c>
       <c r="B130">
@@ -15148,7 +15162,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
-        <f t="shared" ref="A131:A194" si="2">DATE(D131,C131,B131)</f>
+        <f t="shared" ref="A131:A194" si="3">DATE(D131,C131,B131)</f>
         <v>42976</v>
       </c>
       <c r="B131">
@@ -15169,7 +15183,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42977</v>
       </c>
       <c r="B132">
@@ -15190,7 +15204,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42978</v>
       </c>
       <c r="B133">
@@ -15211,7 +15225,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42979</v>
       </c>
       <c r="B134">
@@ -15232,7 +15246,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42980</v>
       </c>
       <c r="B135">
@@ -15253,7 +15267,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42981</v>
       </c>
       <c r="B136">
@@ -15274,7 +15288,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42982</v>
       </c>
       <c r="B137">
@@ -15295,7 +15309,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42983</v>
       </c>
       <c r="B138">
@@ -15316,7 +15330,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42984</v>
       </c>
       <c r="B139">
@@ -15337,7 +15351,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42985</v>
       </c>
       <c r="B140">
@@ -15358,7 +15372,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42986</v>
       </c>
       <c r="B141">
@@ -15379,7 +15393,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42987</v>
       </c>
       <c r="B142">
@@ -15400,7 +15414,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42988</v>
       </c>
       <c r="B143">
@@ -15421,7 +15435,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42989</v>
       </c>
       <c r="B144">
@@ -15442,7 +15456,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42990</v>
       </c>
       <c r="B145">
@@ -15463,7 +15477,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42991</v>
       </c>
       <c r="B146">
@@ -15484,7 +15498,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42992</v>
       </c>
       <c r="B147">
@@ -15505,7 +15519,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42993</v>
       </c>
       <c r="B148">
@@ -15526,7 +15540,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42994</v>
       </c>
       <c r="B149">
@@ -15547,7 +15561,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42995</v>
       </c>
       <c r="B150">
@@ -15568,7 +15582,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42996</v>
       </c>
       <c r="B151">
@@ -15589,7 +15603,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42997</v>
       </c>
       <c r="B152">
@@ -15610,7 +15624,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42998</v>
       </c>
       <c r="B153">
@@ -15631,7 +15645,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42999</v>
       </c>
       <c r="B154">
@@ -15652,7 +15666,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43000</v>
       </c>
       <c r="B155">
@@ -15673,7 +15687,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43001</v>
       </c>
       <c r="B156">
@@ -15694,7 +15708,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43002</v>
       </c>
       <c r="B157">
@@ -15715,7 +15729,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43003</v>
       </c>
       <c r="B158">
@@ -15736,7 +15750,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43004</v>
       </c>
       <c r="B159">
@@ -15757,7 +15771,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43005</v>
       </c>
       <c r="B160">
@@ -15778,7 +15792,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43006</v>
       </c>
       <c r="B161">
@@ -15799,7 +15813,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43007</v>
       </c>
       <c r="B162">
@@ -15820,7 +15834,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43008</v>
       </c>
       <c r="B163">
@@ -15841,7 +15855,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43009</v>
       </c>
       <c r="B164">
@@ -15862,7 +15876,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43010</v>
       </c>
       <c r="B165">
@@ -15883,7 +15897,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43011</v>
       </c>
       <c r="B166">
@@ -15904,7 +15918,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43012</v>
       </c>
       <c r="B167">
@@ -15925,7 +15939,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43013</v>
       </c>
       <c r="B168">
@@ -15946,7 +15960,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43014</v>
       </c>
       <c r="B169">
@@ -15967,7 +15981,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43015</v>
       </c>
       <c r="B170">
@@ -15988,7 +16002,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43016</v>
       </c>
       <c r="B171">
@@ -16009,7 +16023,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43017</v>
       </c>
       <c r="B172">
@@ -16030,7 +16044,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43018</v>
       </c>
       <c r="B173">
@@ -16051,7 +16065,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43019</v>
       </c>
       <c r="B174">
@@ -16072,7 +16086,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43020</v>
       </c>
       <c r="B175">
@@ -16093,7 +16107,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43021</v>
       </c>
       <c r="B176">
@@ -16114,7 +16128,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43022</v>
       </c>
       <c r="B177">
@@ -16135,7 +16149,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43023</v>
       </c>
       <c r="B178">
@@ -16156,7 +16170,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43024</v>
       </c>
       <c r="B179">
@@ -16177,7 +16191,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43025</v>
       </c>
       <c r="B180">
@@ -16198,7 +16212,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43026</v>
       </c>
       <c r="B181">
@@ -16219,7 +16233,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43027</v>
       </c>
       <c r="B182">
@@ -16240,7 +16254,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43028</v>
       </c>
       <c r="B183">
@@ -16261,7 +16275,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43029</v>
       </c>
       <c r="B184">
@@ -16282,7 +16296,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43030</v>
       </c>
       <c r="B185">
@@ -16303,7 +16317,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43031</v>
       </c>
       <c r="B186">
@@ -16324,7 +16338,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43032</v>
       </c>
       <c r="B187">
@@ -16345,7 +16359,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43033</v>
       </c>
       <c r="B188">
@@ -16366,7 +16380,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43034</v>
       </c>
       <c r="B189">
@@ -16387,7 +16401,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43035</v>
       </c>
       <c r="B190">
@@ -16408,7 +16422,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43036</v>
       </c>
       <c r="B191">
@@ -16429,7 +16443,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43037</v>
       </c>
       <c r="B192">
@@ -16450,7 +16464,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43038</v>
       </c>
       <c r="B193">
@@ -16471,7 +16485,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43039</v>
       </c>
       <c r="B194">
@@ -16492,7 +16506,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="3">
-        <f t="shared" ref="A195:A258" si="3">DATE(D195,C195,B195)</f>
+        <f t="shared" ref="A195:A258" si="4">DATE(D195,C195,B195)</f>
         <v>43040</v>
       </c>
       <c r="B195">
@@ -16513,7 +16527,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43041</v>
       </c>
       <c r="B196">
@@ -16534,7 +16548,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43042</v>
       </c>
       <c r="B197">
@@ -16555,7 +16569,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43043</v>
       </c>
       <c r="B198">
@@ -16576,7 +16590,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43044</v>
       </c>
       <c r="B199">
@@ -16597,7 +16611,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43045</v>
       </c>
       <c r="B200">
@@ -16618,7 +16632,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43046</v>
       </c>
       <c r="B201">
@@ -16639,7 +16653,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43047</v>
       </c>
       <c r="B202">
@@ -16660,7 +16674,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43048</v>
       </c>
       <c r="B203">
@@ -16681,7 +16695,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43049</v>
       </c>
       <c r="B204">
@@ -16702,7 +16716,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43050</v>
       </c>
       <c r="B205">
@@ -16723,7 +16737,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43051</v>
       </c>
       <c r="B206">
@@ -16744,7 +16758,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43052</v>
       </c>
       <c r="B207">
@@ -16765,7 +16779,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43053</v>
       </c>
       <c r="B208">
@@ -16786,7 +16800,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43054</v>
       </c>
       <c r="B209">
@@ -16807,7 +16821,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43055</v>
       </c>
       <c r="B210">
@@ -16828,7 +16842,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43056</v>
       </c>
       <c r="B211">
@@ -16849,7 +16863,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43057</v>
       </c>
       <c r="B212">
@@ -16870,7 +16884,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43058</v>
       </c>
       <c r="B213">
@@ -16891,7 +16905,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43059</v>
       </c>
       <c r="B214">
@@ -16912,7 +16926,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43060</v>
       </c>
       <c r="B215">
@@ -16933,7 +16947,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43061</v>
       </c>
       <c r="B216">
@@ -16954,7 +16968,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43062</v>
       </c>
       <c r="B217">
@@ -16975,7 +16989,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43063</v>
       </c>
       <c r="B218">
@@ -16996,7 +17010,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43064</v>
       </c>
       <c r="B219">
@@ -17017,7 +17031,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43065</v>
       </c>
       <c r="B220">
@@ -17038,7 +17052,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43066</v>
       </c>
       <c r="B221">
@@ -17059,7 +17073,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43067</v>
       </c>
       <c r="B222">
@@ -17080,7 +17094,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43068</v>
       </c>
       <c r="B223">
@@ -17101,7 +17115,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43069</v>
       </c>
       <c r="B224">
@@ -17122,7 +17136,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43070</v>
       </c>
       <c r="B225">
@@ -17143,7 +17157,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43071</v>
       </c>
       <c r="B226">
@@ -17164,7 +17178,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43072</v>
       </c>
       <c r="B227">
@@ -17185,7 +17199,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43073</v>
       </c>
       <c r="B228">
@@ -17206,7 +17220,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43074</v>
       </c>
       <c r="B229">
@@ -17227,7 +17241,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43075</v>
       </c>
       <c r="B230">
@@ -17248,7 +17262,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43076</v>
       </c>
       <c r="B231">
@@ -17269,7 +17283,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43077</v>
       </c>
       <c r="B232">
@@ -17290,7 +17304,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43078</v>
       </c>
       <c r="B233">
@@ -17311,7 +17325,7 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43079</v>
       </c>
       <c r="B234">
@@ -17332,7 +17346,7 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43080</v>
       </c>
       <c r="B235">
@@ -17353,7 +17367,7 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43081</v>
       </c>
       <c r="B236">
@@ -17374,7 +17388,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43082</v>
       </c>
       <c r="B237">
@@ -17395,7 +17409,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43083</v>
       </c>
       <c r="B238">
@@ -17416,7 +17430,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43084</v>
       </c>
       <c r="B239">
@@ -17437,7 +17451,7 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43085</v>
       </c>
       <c r="B240">
@@ -17458,7 +17472,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43086</v>
       </c>
       <c r="B241">
@@ -17479,7 +17493,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43087</v>
       </c>
       <c r="B242">
@@ -17500,7 +17514,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43088</v>
       </c>
       <c r="B243">
@@ -17521,7 +17535,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43089</v>
       </c>
       <c r="B244">
@@ -17542,7 +17556,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43090</v>
       </c>
       <c r="B245">
@@ -17563,7 +17577,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43091</v>
       </c>
       <c r="B246">
@@ -17584,7 +17598,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43092</v>
       </c>
       <c r="B247">
@@ -17605,7 +17619,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43093</v>
       </c>
       <c r="B248">
@@ -17626,7 +17640,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43094</v>
       </c>
       <c r="B249">
@@ -17647,7 +17661,7 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43095</v>
       </c>
       <c r="B250">
@@ -17668,7 +17682,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43096</v>
       </c>
       <c r="B251">
@@ -17689,7 +17703,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43097</v>
       </c>
       <c r="B252">
@@ -17710,7 +17724,7 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43098</v>
       </c>
       <c r="B253">
@@ -17731,7 +17745,7 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43099</v>
       </c>
       <c r="B254">
@@ -17752,7 +17766,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43100</v>
       </c>
       <c r="B255">
@@ -17773,7 +17787,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43101</v>
       </c>
       <c r="B256">
@@ -17794,7 +17808,7 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43102</v>
       </c>
       <c r="B257">
@@ -17815,7 +17829,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43103</v>
       </c>
       <c r="B258">
@@ -17836,7 +17850,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" s="3">
-        <f t="shared" ref="A259:A322" si="4">DATE(D259,C259,B259)</f>
+        <f t="shared" ref="A259:A322" si="5">DATE(D259,C259,B259)</f>
         <v>43104</v>
       </c>
       <c r="B259">
@@ -17857,7 +17871,7 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43105</v>
       </c>
       <c r="B260">
@@ -17878,7 +17892,7 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43106</v>
       </c>
       <c r="B261">
@@ -17899,7 +17913,7 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43107</v>
       </c>
       <c r="B262">
@@ -17920,7 +17934,7 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43108</v>
       </c>
       <c r="B263">
@@ -17941,7 +17955,7 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43109</v>
       </c>
       <c r="B264">
@@ -17962,7 +17976,7 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43110</v>
       </c>
       <c r="B265">
@@ -17983,7 +17997,7 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43111</v>
       </c>
       <c r="B266">
@@ -18004,7 +18018,7 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43112</v>
       </c>
       <c r="B267">
@@ -18025,7 +18039,7 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43113</v>
       </c>
       <c r="B268">
@@ -18046,7 +18060,7 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43114</v>
       </c>
       <c r="B269">
@@ -18067,7 +18081,7 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43115</v>
       </c>
       <c r="B270">
@@ -18088,7 +18102,7 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43116</v>
       </c>
       <c r="B271">
@@ -18109,7 +18123,7 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43117</v>
       </c>
       <c r="B272">
@@ -18130,7 +18144,7 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43118</v>
       </c>
       <c r="B273">
@@ -18151,7 +18165,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43119</v>
       </c>
       <c r="B274">
@@ -18172,7 +18186,7 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43120</v>
       </c>
       <c r="B275">
@@ -18193,7 +18207,7 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43121</v>
       </c>
       <c r="B276">
@@ -18214,7 +18228,7 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43122</v>
       </c>
       <c r="B277">
@@ -18235,7 +18249,7 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43123</v>
       </c>
       <c r="B278">
@@ -18256,7 +18270,7 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43124</v>
       </c>
       <c r="B279">
@@ -18277,7 +18291,7 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43125</v>
       </c>
       <c r="B280">
@@ -18298,7 +18312,7 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43126</v>
       </c>
       <c r="B281">
@@ -18319,7 +18333,7 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43127</v>
       </c>
       <c r="B282">
@@ -18340,7 +18354,7 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43128</v>
       </c>
       <c r="B283">
@@ -18361,7 +18375,7 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43129</v>
       </c>
       <c r="B284">
@@ -18382,7 +18396,7 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43130</v>
       </c>
       <c r="B285">
@@ -18403,7 +18417,7 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43131</v>
       </c>
       <c r="B286">
@@ -18424,7 +18438,7 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43132</v>
       </c>
       <c r="B287">
@@ -18445,7 +18459,7 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43133</v>
       </c>
       <c r="B288">
@@ -18466,7 +18480,7 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43134</v>
       </c>
       <c r="B289">
@@ -18487,7 +18501,7 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43135</v>
       </c>
       <c r="B290">
@@ -18508,7 +18522,7 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43136</v>
       </c>
       <c r="B291">
@@ -18529,7 +18543,7 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43137</v>
       </c>
       <c r="B292">
@@ -18550,7 +18564,7 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43138</v>
       </c>
       <c r="B293">
@@ -18571,7 +18585,7 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43139</v>
       </c>
       <c r="B294">
@@ -18592,7 +18606,7 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43140</v>
       </c>
       <c r="B295">
@@ -18613,7 +18627,7 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43141</v>
       </c>
       <c r="B296">
@@ -18634,7 +18648,7 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43142</v>
       </c>
       <c r="B297">
@@ -18655,7 +18669,7 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43143</v>
       </c>
       <c r="B298">
@@ -18676,7 +18690,7 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43144</v>
       </c>
       <c r="B299">
@@ -18697,7 +18711,7 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43145</v>
       </c>
       <c r="B300">
@@ -18718,7 +18732,7 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43146</v>
       </c>
       <c r="B301">
@@ -18739,7 +18753,7 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43147</v>
       </c>
       <c r="B302">
@@ -18760,7 +18774,7 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43148</v>
       </c>
       <c r="B303">
@@ -18781,7 +18795,7 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43149</v>
       </c>
       <c r="B304">
@@ -18802,7 +18816,7 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43150</v>
       </c>
       <c r="B305">
@@ -18823,7 +18837,7 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43151</v>
       </c>
       <c r="B306">
@@ -18844,7 +18858,7 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43152</v>
       </c>
       <c r="B307">
@@ -18865,7 +18879,7 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43153</v>
       </c>
       <c r="B308">
@@ -18886,7 +18900,7 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43154</v>
       </c>
       <c r="B309">
@@ -18907,7 +18921,7 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43155</v>
       </c>
       <c r="B310">
@@ -18928,7 +18942,7 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43156</v>
       </c>
       <c r="B311">
@@ -18949,7 +18963,7 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43157</v>
       </c>
       <c r="B312">
@@ -18970,7 +18984,7 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43158</v>
       </c>
       <c r="B313">
@@ -18991,7 +19005,7 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43159</v>
       </c>
       <c r="B314">
@@ -19012,7 +19026,7 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43160</v>
       </c>
       <c r="B315">
@@ -19033,7 +19047,7 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43161</v>
       </c>
       <c r="B316">
@@ -19054,7 +19068,7 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43162</v>
       </c>
       <c r="B317">
@@ -19075,7 +19089,7 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43163</v>
       </c>
       <c r="B318">
@@ -19096,7 +19110,7 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43164</v>
       </c>
       <c r="B319">
@@ -19117,7 +19131,7 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43165</v>
       </c>
       <c r="B320">
@@ -19138,7 +19152,7 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43166</v>
       </c>
       <c r="B321">
@@ -19159,7 +19173,7 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43167</v>
       </c>
       <c r="B322">
@@ -19180,7 +19194,7 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" s="3">
-        <f t="shared" ref="A323:A386" si="5">DATE(D323,C323,B323)</f>
+        <f t="shared" ref="A323:A386" si="6">DATE(D323,C323,B323)</f>
         <v>43168</v>
       </c>
       <c r="B323">
@@ -19201,7 +19215,7 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43169</v>
       </c>
       <c r="B324">
@@ -19222,7 +19236,7 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43170</v>
       </c>
       <c r="B325">
@@ -19243,7 +19257,7 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43171</v>
       </c>
       <c r="B326">
@@ -19264,7 +19278,7 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43172</v>
       </c>
       <c r="B327">
@@ -19285,7 +19299,7 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43173</v>
       </c>
       <c r="B328">
@@ -19306,7 +19320,7 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43174</v>
       </c>
       <c r="B329">
@@ -19327,7 +19341,7 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43175</v>
       </c>
       <c r="B330">
@@ -19348,7 +19362,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43176</v>
       </c>
       <c r="B331">
@@ -19369,7 +19383,7 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43177</v>
       </c>
       <c r="B332">
@@ -19390,7 +19404,7 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43178</v>
       </c>
       <c r="B333">
@@ -19411,7 +19425,7 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43179</v>
       </c>
       <c r="B334">
@@ -19432,7 +19446,7 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43180</v>
       </c>
       <c r="B335">
@@ -19453,7 +19467,7 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43181</v>
       </c>
       <c r="B336">
@@ -19474,7 +19488,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43182</v>
       </c>
       <c r="B337">
@@ -19495,7 +19509,7 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43183</v>
       </c>
       <c r="B338">
@@ -19516,7 +19530,7 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43184</v>
       </c>
       <c r="B339">
@@ -19537,7 +19551,7 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43185</v>
       </c>
       <c r="B340">
@@ -19558,7 +19572,7 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43186</v>
       </c>
       <c r="B341">
@@ -19579,7 +19593,7 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43187</v>
       </c>
       <c r="B342">
@@ -19600,7 +19614,7 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43188</v>
       </c>
       <c r="B343">
@@ -19621,7 +19635,7 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43189</v>
       </c>
       <c r="B344">
@@ -19642,7 +19656,7 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43190</v>
       </c>
       <c r="B345">
@@ -19663,7 +19677,7 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43191</v>
       </c>
       <c r="B346">
@@ -19684,7 +19698,7 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43192</v>
       </c>
       <c r="B347">
@@ -19705,7 +19719,7 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43193</v>
       </c>
       <c r="B348">
@@ -19726,7 +19740,7 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43194</v>
       </c>
       <c r="B349">
@@ -19747,7 +19761,7 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43195</v>
       </c>
       <c r="B350">
@@ -19768,7 +19782,7 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43196</v>
       </c>
       <c r="B351">
@@ -19789,7 +19803,7 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43197</v>
       </c>
       <c r="B352">
@@ -19810,7 +19824,7 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43198</v>
       </c>
       <c r="B353">
@@ -19831,7 +19845,7 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43199</v>
       </c>
       <c r="B354">
@@ -19852,7 +19866,7 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43200</v>
       </c>
       <c r="B355">
@@ -19873,7 +19887,7 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43201</v>
       </c>
       <c r="B356">
@@ -19894,7 +19908,7 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43202</v>
       </c>
       <c r="B357">
@@ -19915,7 +19929,7 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A358" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43203</v>
       </c>
       <c r="B358">
@@ -19936,7 +19950,7 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A359" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43204</v>
       </c>
       <c r="B359">
@@ -19957,7 +19971,7 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A360" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43205</v>
       </c>
       <c r="B360">
@@ -19978,7 +19992,7 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A361" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43206</v>
       </c>
       <c r="B361">
@@ -19999,7 +20013,7 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A362" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43207</v>
       </c>
       <c r="B362">
@@ -20020,7 +20034,7 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A363" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43208</v>
       </c>
       <c r="B363">
@@ -20041,7 +20055,7 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A364" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43209</v>
       </c>
       <c r="B364">
@@ -20062,7 +20076,7 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A365" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43210</v>
       </c>
       <c r="B365">
@@ -20083,7 +20097,7 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A366" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43211</v>
       </c>
       <c r="B366">
@@ -20104,7 +20118,7 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A367" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43212</v>
       </c>
       <c r="B367">
@@ -20125,7 +20139,7 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A368" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43213</v>
       </c>
       <c r="B368">
@@ -20146,7 +20160,7 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A369" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43214</v>
       </c>
       <c r="B369">
@@ -20167,7 +20181,7 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43215</v>
       </c>
       <c r="B370">
@@ -20188,7 +20202,7 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43216</v>
       </c>
       <c r="B371">
@@ -20209,7 +20223,7 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A372" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43217</v>
       </c>
       <c r="B372">
@@ -20230,7 +20244,7 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43218</v>
       </c>
       <c r="B373">
@@ -20251,7 +20265,7 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43219</v>
       </c>
       <c r="B374">
@@ -20272,7 +20286,7 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43220</v>
       </c>
       <c r="B375">
@@ -20293,7 +20307,7 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A376" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43221</v>
       </c>
       <c r="B376">
@@ -20314,7 +20328,7 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43222</v>
       </c>
       <c r="B377">
@@ -20335,7 +20349,7 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43223</v>
       </c>
       <c r="B378">
@@ -20356,7 +20370,7 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43224</v>
       </c>
       <c r="B379">
@@ -20377,7 +20391,7 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43225</v>
       </c>
       <c r="B380">
@@ -20398,7 +20412,7 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A381" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43226</v>
       </c>
       <c r="B381">
@@ -20419,7 +20433,7 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A382" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43227</v>
       </c>
       <c r="B382">
@@ -20440,7 +20454,7 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A383" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43228</v>
       </c>
       <c r="B383">
@@ -20461,7 +20475,7 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A384" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43229</v>
       </c>
       <c r="B384">
@@ -20482,7 +20496,7 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A385" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43230</v>
       </c>
       <c r="B385">
@@ -20503,7 +20517,7 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A386" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43231</v>
       </c>
       <c r="B386">
@@ -20524,7 +20538,7 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A387" s="3">
-        <f t="shared" ref="A387:A450" si="6">DATE(D387,C387,B387)</f>
+        <f t="shared" ref="A387:A450" si="7">DATE(D387,C387,B387)</f>
         <v>43232</v>
       </c>
       <c r="B387">
@@ -20545,7 +20559,7 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A388" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43233</v>
       </c>
       <c r="B388">
@@ -20566,7 +20580,7 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A389" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43234</v>
       </c>
       <c r="B389">
@@ -20587,7 +20601,7 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A390" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43235</v>
       </c>
       <c r="B390">
@@ -20608,7 +20622,7 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A391" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43236</v>
       </c>
       <c r="B391">
@@ -20629,7 +20643,7 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A392" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43237</v>
       </c>
       <c r="B392">
@@ -20650,7 +20664,7 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A393" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43238</v>
       </c>
       <c r="B393">
@@ -20671,7 +20685,7 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A394" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43239</v>
       </c>
       <c r="B394">
@@ -20692,7 +20706,7 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A395" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43240</v>
       </c>
       <c r="B395">
@@ -20713,7 +20727,7 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A396" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43241</v>
       </c>
       <c r="B396">
@@ -20734,7 +20748,7 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A397" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43242</v>
       </c>
       <c r="B397">
@@ -20755,7 +20769,7 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A398" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43243</v>
       </c>
       <c r="B398">
@@ -20776,7 +20790,7 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A399" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43244</v>
       </c>
       <c r="B399">
@@ -20797,7 +20811,7 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A400" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43245</v>
       </c>
       <c r="B400">
@@ -20818,7 +20832,7 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A401" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43246</v>
       </c>
       <c r="B401">
@@ -20839,7 +20853,7 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A402" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43247</v>
       </c>
       <c r="B402">
@@ -20860,7 +20874,7 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A403" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43248</v>
       </c>
       <c r="B403">
@@ -20881,7 +20895,7 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A404" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43249</v>
       </c>
       <c r="B404">
@@ -20902,7 +20916,7 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A405" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43250</v>
       </c>
       <c r="B405">
@@ -20923,7 +20937,7 @@
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A406" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43251</v>
       </c>
       <c r="B406">
@@ -20944,7 +20958,7 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A407" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43252</v>
       </c>
       <c r="B407">
@@ -20965,7 +20979,7 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A408" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43253</v>
       </c>
       <c r="B408">
@@ -20986,7 +21000,7 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A409" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43254</v>
       </c>
       <c r="B409">
@@ -21007,7 +21021,7 @@
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A410" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43255</v>
       </c>
       <c r="B410">
@@ -21028,7 +21042,7 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A411" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43256</v>
       </c>
       <c r="B411">
@@ -21049,7 +21063,7 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A412" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43257</v>
       </c>
       <c r="B412">
@@ -21070,7 +21084,7 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A413" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43258</v>
       </c>
       <c r="B413">
@@ -21091,7 +21105,7 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A414" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43259</v>
       </c>
       <c r="B414">
@@ -21112,7 +21126,7 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A415" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43260</v>
       </c>
       <c r="B415">
@@ -21133,7 +21147,7 @@
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A416" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43261</v>
       </c>
       <c r="B416">
@@ -21154,7 +21168,7 @@
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A417" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43262</v>
       </c>
       <c r="B417">
@@ -21175,7 +21189,7 @@
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A418" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43263</v>
       </c>
       <c r="B418">
@@ -21196,7 +21210,7 @@
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A419" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43264</v>
       </c>
       <c r="B419">
@@ -21217,7 +21231,7 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A420" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43265</v>
       </c>
       <c r="B420">
@@ -21238,7 +21252,7 @@
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A421" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43266</v>
       </c>
       <c r="B421">
@@ -21259,7 +21273,7 @@
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A422" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43267</v>
       </c>
       <c r="B422">
@@ -21280,7 +21294,7 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A423" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43268</v>
       </c>
       <c r="B423">
@@ -21301,7 +21315,7 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A424" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43269</v>
       </c>
       <c r="B424">
@@ -21322,7 +21336,7 @@
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A425" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43270</v>
       </c>
       <c r="B425">
@@ -21343,7 +21357,7 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A426" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43271</v>
       </c>
       <c r="B426">
@@ -21364,7 +21378,7 @@
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A427" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43272</v>
       </c>
       <c r="B427">
@@ -21385,7 +21399,7 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A428" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43273</v>
       </c>
       <c r="B428">
@@ -21406,7 +21420,7 @@
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A429" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43274</v>
       </c>
       <c r="B429">
@@ -21427,7 +21441,7 @@
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A430" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43275</v>
       </c>
       <c r="B430">
@@ -21448,7 +21462,7 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A431" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43276</v>
       </c>
       <c r="B431">
@@ -21469,7 +21483,7 @@
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A432" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43277</v>
       </c>
       <c r="B432">
@@ -21490,7 +21504,7 @@
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A433" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43278</v>
       </c>
       <c r="B433">
@@ -21511,7 +21525,7 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A434" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43279</v>
       </c>
       <c r="B434">
@@ -21532,7 +21546,7 @@
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A435" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43280</v>
       </c>
       <c r="B435">
@@ -21553,7 +21567,7 @@
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A436" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43281</v>
       </c>
       <c r="B436">
@@ -21574,7 +21588,7 @@
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A437" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43282</v>
       </c>
       <c r="B437">
@@ -21595,7 +21609,7 @@
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A438" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43283</v>
       </c>
       <c r="B438">
@@ -21616,7 +21630,7 @@
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A439" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43284</v>
       </c>
       <c r="B439">
@@ -21637,7 +21651,7 @@
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A440" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43285</v>
       </c>
       <c r="B440">
@@ -21658,7 +21672,7 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A441" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43286</v>
       </c>
       <c r="B441">
@@ -21679,7 +21693,7 @@
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A442" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43287</v>
       </c>
       <c r="B442">
@@ -21700,7 +21714,7 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A443" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43288</v>
       </c>
       <c r="B443">
@@ -21721,7 +21735,7 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A444" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43289</v>
       </c>
       <c r="B444">
@@ -21742,7 +21756,7 @@
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A445" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43290</v>
       </c>
       <c r="B445">
@@ -21763,7 +21777,7 @@
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A446" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43291</v>
       </c>
       <c r="B446">
@@ -21784,7 +21798,7 @@
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A447" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43292</v>
       </c>
       <c r="B447">
@@ -21805,7 +21819,7 @@
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A448" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43293</v>
       </c>
       <c r="B448">
@@ -21826,7 +21840,7 @@
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A449" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43294</v>
       </c>
       <c r="B449">
@@ -21847,7 +21861,7 @@
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A450" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43295</v>
       </c>
       <c r="B450">
@@ -21868,7 +21882,7 @@
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A451" s="3">
-        <f t="shared" ref="A451:A514" si="7">DATE(D451,C451,B451)</f>
+        <f t="shared" ref="A451:A514" si="8">DATE(D451,C451,B451)</f>
         <v>43296</v>
       </c>
       <c r="B451">
@@ -21889,7 +21903,7 @@
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A452" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43297</v>
       </c>
       <c r="B452">
@@ -21910,7 +21924,7 @@
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A453" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43298</v>
       </c>
       <c r="B453">
@@ -21931,7 +21945,7 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A454" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43299</v>
       </c>
       <c r="B454">
@@ -21952,7 +21966,7 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A455" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43300</v>
       </c>
       <c r="B455">
@@ -21973,7 +21987,7 @@
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A456" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43301</v>
       </c>
       <c r="B456">
@@ -21994,7 +22008,7 @@
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A457" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43302</v>
       </c>
       <c r="B457">
@@ -22015,7 +22029,7 @@
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A458" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43303</v>
       </c>
       <c r="B458">
@@ -22036,7 +22050,7 @@
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A459" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43304</v>
       </c>
       <c r="B459">
@@ -22057,7 +22071,7 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A460" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43305</v>
       </c>
       <c r="B460">
@@ -22078,7 +22092,7 @@
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A461" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43306</v>
       </c>
       <c r="B461">
@@ -22099,7 +22113,7 @@
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A462" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43307</v>
       </c>
       <c r="B462">
@@ -22120,7 +22134,7 @@
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A463" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43308</v>
       </c>
       <c r="B463">
@@ -22141,7 +22155,7 @@
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A464" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43309</v>
       </c>
       <c r="B464">
@@ -22162,7 +22176,7 @@
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A465" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43310</v>
       </c>
       <c r="B465">
@@ -22183,7 +22197,7 @@
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A466" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43311</v>
       </c>
       <c r="B466">
@@ -22204,7 +22218,7 @@
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A467" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43312</v>
       </c>
       <c r="B467">
@@ -22225,7 +22239,7 @@
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A468" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43313</v>
       </c>
       <c r="B468">
@@ -22246,7 +22260,7 @@
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A469" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43314</v>
       </c>
       <c r="B469">
@@ -22267,7 +22281,7 @@
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A470" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43315</v>
       </c>
       <c r="B470">
@@ -22288,7 +22302,7 @@
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A471" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43316</v>
       </c>
       <c r="B471">
@@ -22309,7 +22323,7 @@
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A472" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43317</v>
       </c>
       <c r="B472">
@@ -22330,7 +22344,7 @@
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A473" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43318</v>
       </c>
       <c r="B473">
@@ -22351,7 +22365,7 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A474" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43319</v>
       </c>
       <c r="B474">
@@ -22372,7 +22386,7 @@
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A475" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43320</v>
       </c>
       <c r="B475">
@@ -22393,7 +22407,7 @@
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A476" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43321</v>
       </c>
       <c r="B476">
@@ -22414,7 +22428,7 @@
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A477" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43322</v>
       </c>
       <c r="B477">
@@ -22435,7 +22449,7 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A478" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43323</v>
       </c>
       <c r="B478">
@@ -22456,7 +22470,7 @@
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A479" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43324</v>
       </c>
       <c r="B479">
@@ -22477,7 +22491,7 @@
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A480" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43325</v>
       </c>
       <c r="B480">
@@ -22498,7 +22512,7 @@
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A481" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43326</v>
       </c>
       <c r="B481">
@@ -22519,7 +22533,7 @@
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A482" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43327</v>
       </c>
       <c r="B482">
@@ -22540,7 +22554,7 @@
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A483" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43328</v>
       </c>
       <c r="B483">
@@ -22561,7 +22575,7 @@
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A484" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43329</v>
       </c>
       <c r="B484">
@@ -22582,7 +22596,7 @@
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A485" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43330</v>
       </c>
       <c r="B485">
@@ -22603,7 +22617,7 @@
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A486" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43331</v>
       </c>
       <c r="B486">
@@ -22624,7 +22638,7 @@
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A487" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43332</v>
       </c>
       <c r="B487">
@@ -22645,7 +22659,7 @@
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A488" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43333</v>
       </c>
       <c r="B488">
@@ -22666,7 +22680,7 @@
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A489" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43334</v>
       </c>
       <c r="B489">
@@ -22687,7 +22701,7 @@
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A490" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43335</v>
       </c>
       <c r="B490">
@@ -22708,7 +22722,7 @@
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A491" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43336</v>
       </c>
       <c r="B491">
@@ -22729,7 +22743,7 @@
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A492" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43337</v>
       </c>
       <c r="B492">
@@ -22750,7 +22764,7 @@
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A493" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43338</v>
       </c>
       <c r="B493">
@@ -22771,7 +22785,7 @@
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A494" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43339</v>
       </c>
       <c r="B494">
@@ -22792,7 +22806,7 @@
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A495" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43340</v>
       </c>
       <c r="B495">
@@ -22813,7 +22827,7 @@
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A496" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43341</v>
       </c>
       <c r="B496">
@@ -22834,7 +22848,7 @@
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A497" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43342</v>
       </c>
       <c r="B497">
@@ -22855,7 +22869,7 @@
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A498" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43343</v>
       </c>
       <c r="B498">
@@ -22876,7 +22890,7 @@
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A499" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43344</v>
       </c>
       <c r="B499">
@@ -22897,7 +22911,7 @@
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A500" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43345</v>
       </c>
       <c r="B500">
@@ -22918,7 +22932,7 @@
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A501" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43346</v>
       </c>
       <c r="B501">
@@ -22939,7 +22953,7 @@
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A502" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43347</v>
       </c>
       <c r="B502">
@@ -22960,7 +22974,7 @@
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A503" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43348</v>
       </c>
       <c r="B503">
@@ -22981,7 +22995,7 @@
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A504" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43349</v>
       </c>
       <c r="B504">
@@ -23002,7 +23016,7 @@
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A505" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43350</v>
       </c>
       <c r="B505">
@@ -23023,7 +23037,7 @@
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A506" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43351</v>
       </c>
       <c r="B506">
@@ -23044,7 +23058,7 @@
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A507" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43352</v>
       </c>
       <c r="B507">
@@ -23065,7 +23079,7 @@
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A508" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43353</v>
       </c>
       <c r="B508">
@@ -23086,7 +23100,7 @@
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A509" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43354</v>
       </c>
       <c r="B509">
@@ -23107,7 +23121,7 @@
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A510" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43355</v>
       </c>
       <c r="B510">
@@ -23128,7 +23142,7 @@
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A511" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43356</v>
       </c>
       <c r="B511">
@@ -23149,7 +23163,7 @@
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A512" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43357</v>
       </c>
       <c r="B512">
@@ -23170,7 +23184,7 @@
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A513" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43358</v>
       </c>
       <c r="B513">
@@ -23191,7 +23205,7 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A514" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43359</v>
       </c>
       <c r="B514">
@@ -23212,7 +23226,7 @@
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A515" s="3">
-        <f t="shared" ref="A515:A578" si="8">DATE(D515,C515,B515)</f>
+        <f t="shared" ref="A515:A578" si="9">DATE(D515,C515,B515)</f>
         <v>43360</v>
       </c>
       <c r="B515">
@@ -23233,7 +23247,7 @@
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A516" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43361</v>
       </c>
       <c r="B516">
@@ -23254,7 +23268,7 @@
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A517" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43362</v>
       </c>
       <c r="B517">
@@ -23275,7 +23289,7 @@
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A518" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43363</v>
       </c>
       <c r="B518">
@@ -23296,7 +23310,7 @@
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A519" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43364</v>
       </c>
       <c r="B519">
@@ -23317,7 +23331,7 @@
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A520" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43365</v>
       </c>
       <c r="B520">
@@ -23338,7 +23352,7 @@
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A521" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43366</v>
       </c>
       <c r="B521">
@@ -23359,7 +23373,7 @@
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A522" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43367</v>
       </c>
       <c r="B522">
@@ -23380,7 +23394,7 @@
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A523" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43368</v>
       </c>
       <c r="B523">
@@ -23401,7 +23415,7 @@
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A524" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43369</v>
       </c>
       <c r="B524">
@@ -23422,7 +23436,7 @@
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A525" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43370</v>
       </c>
       <c r="B525">
@@ -23443,7 +23457,7 @@
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A526" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43371</v>
       </c>
       <c r="B526">
@@ -23464,7 +23478,7 @@
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A527" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43372</v>
       </c>
       <c r="B527">
@@ -23485,7 +23499,7 @@
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A528" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43373</v>
       </c>
       <c r="B528">
@@ -23506,7 +23520,7 @@
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A529" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43374</v>
       </c>
       <c r="B529">
@@ -23527,7 +23541,7 @@
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A530" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43375</v>
       </c>
       <c r="B530">
@@ -23548,7 +23562,7 @@
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A531" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43376</v>
       </c>
       <c r="B531">
@@ -23569,7 +23583,7 @@
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A532" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43377</v>
       </c>
       <c r="B532">
@@ -23590,7 +23604,7 @@
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A533" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43378</v>
       </c>
       <c r="B533">
@@ -23611,7 +23625,7 @@
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A534" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43379</v>
       </c>
       <c r="B534">
@@ -23632,7 +23646,7 @@
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A535" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43380</v>
       </c>
       <c r="B535">
@@ -23653,7 +23667,7 @@
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A536" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43381</v>
       </c>
       <c r="B536">
@@ -23674,7 +23688,7 @@
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A537" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43382</v>
       </c>
       <c r="B537">
@@ -23695,7 +23709,7 @@
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A538" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43383</v>
       </c>
       <c r="B538">
@@ -23716,7 +23730,7 @@
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A539" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43384</v>
       </c>
       <c r="B539">
@@ -23737,7 +23751,7 @@
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A540" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43385</v>
       </c>
       <c r="B540">
@@ -23758,7 +23772,7 @@
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A541" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43386</v>
       </c>
       <c r="B541">
@@ -23779,7 +23793,7 @@
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A542" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43387</v>
       </c>
       <c r="B542">
@@ -23800,7 +23814,7 @@
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A543" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43388</v>
       </c>
       <c r="B543">
@@ -23821,7 +23835,7 @@
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A544" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43389</v>
       </c>
       <c r="B544">
@@ -23842,7 +23856,7 @@
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A545" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43390</v>
       </c>
       <c r="B545">
@@ -23863,7 +23877,7 @@
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A546" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43391</v>
       </c>
       <c r="B546">
@@ -23884,7 +23898,7 @@
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A547" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43392</v>
       </c>
       <c r="B547">
@@ -23905,7 +23919,7 @@
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A548" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43393</v>
       </c>
       <c r="B548">
@@ -23926,7 +23940,7 @@
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A549" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43394</v>
       </c>
       <c r="B549">
@@ -23947,7 +23961,7 @@
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A550" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43395</v>
       </c>
       <c r="B550">
@@ -23968,7 +23982,7 @@
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A551" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43396</v>
       </c>
       <c r="B551">
@@ -23989,7 +24003,7 @@
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A552" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43397</v>
       </c>
       <c r="B552">
@@ -24010,7 +24024,7 @@
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A553" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43398</v>
       </c>
       <c r="B553">
@@ -24031,7 +24045,7 @@
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A554" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43399</v>
       </c>
       <c r="B554">
@@ -24052,7 +24066,7 @@
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A555" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43400</v>
       </c>
       <c r="B555">
@@ -24073,7 +24087,7 @@
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A556" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43401</v>
       </c>
       <c r="B556">
@@ -24094,7 +24108,7 @@
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A557" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43402</v>
       </c>
       <c r="B557">
@@ -24115,7 +24129,7 @@
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A558" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43403</v>
       </c>
       <c r="B558">
@@ -24136,7 +24150,7 @@
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A559" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43404</v>
       </c>
       <c r="B559">
@@ -24157,7 +24171,7 @@
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A560" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43405</v>
       </c>
       <c r="B560">
@@ -24178,7 +24192,7 @@
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A561" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43406</v>
       </c>
       <c r="B561">
@@ -24199,7 +24213,7 @@
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A562" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43407</v>
       </c>
       <c r="B562">
@@ -24220,7 +24234,7 @@
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A563" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43408</v>
       </c>
       <c r="B563">
@@ -24241,7 +24255,7 @@
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A564" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43409</v>
       </c>
       <c r="B564">
@@ -24262,7 +24276,7 @@
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A565" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43410</v>
       </c>
       <c r="B565">
@@ -24283,7 +24297,7 @@
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A566" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43411</v>
       </c>
       <c r="B566">
@@ -24304,7 +24318,7 @@
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A567" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43412</v>
       </c>
       <c r="B567">
@@ -24325,7 +24339,7 @@
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A568" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43413</v>
       </c>
       <c r="B568">
@@ -24346,7 +24360,7 @@
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A569" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43414</v>
       </c>
       <c r="B569">
@@ -24367,7 +24381,7 @@
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A570" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43415</v>
       </c>
       <c r="B570">
@@ -24388,7 +24402,7 @@
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A571" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43416</v>
       </c>
       <c r="B571">
@@ -24409,7 +24423,7 @@
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A572" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43417</v>
       </c>
       <c r="B572">
@@ -24430,7 +24444,7 @@
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A573" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43418</v>
       </c>
       <c r="B573">
@@ -24451,7 +24465,7 @@
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A574" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43419</v>
       </c>
       <c r="B574">
@@ -24472,7 +24486,7 @@
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A575" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43420</v>
       </c>
       <c r="B575">
@@ -24493,7 +24507,7 @@
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A576" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43421</v>
       </c>
       <c r="B576">
@@ -24514,7 +24528,7 @@
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A577" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43422</v>
       </c>
       <c r="B577">
@@ -24535,7 +24549,7 @@
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A578" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43423</v>
       </c>
       <c r="B578">
@@ -24556,7 +24570,7 @@
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A579" s="3">
-        <f t="shared" ref="A579:A642" si="9">DATE(D579,C579,B579)</f>
+        <f t="shared" ref="A579:A642" si="10">DATE(D579,C579,B579)</f>
         <v>43424</v>
       </c>
       <c r="B579">
@@ -24577,7 +24591,7 @@
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A580" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43425</v>
       </c>
       <c r="B580">
@@ -24598,7 +24612,7 @@
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A581" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43426</v>
       </c>
       <c r="B581">
@@ -24619,7 +24633,7 @@
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A582" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43427</v>
       </c>
       <c r="B582">
@@ -24640,7 +24654,7 @@
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A583" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43428</v>
       </c>
       <c r="B583">
@@ -24661,7 +24675,7 @@
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A584" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43429</v>
       </c>
       <c r="B584">
@@ -24682,7 +24696,7 @@
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A585" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43430</v>
       </c>
       <c r="B585">
@@ -24703,7 +24717,7 @@
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A586" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43431</v>
       </c>
       <c r="B586">
@@ -24724,7 +24738,7 @@
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A587" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43432</v>
       </c>
       <c r="B587">
@@ -24745,7 +24759,7 @@
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A588" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43433</v>
       </c>
       <c r="B588">
@@ -24766,7 +24780,7 @@
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A589" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43434</v>
       </c>
       <c r="B589">
@@ -24787,7 +24801,7 @@
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A590" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43435</v>
       </c>
       <c r="B590">
@@ -24808,7 +24822,7 @@
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A591" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43436</v>
       </c>
       <c r="B591">
@@ -24829,7 +24843,7 @@
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A592" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43437</v>
       </c>
       <c r="B592">
@@ -24850,7 +24864,7 @@
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A593" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43438</v>
       </c>
       <c r="B593">
@@ -24871,7 +24885,7 @@
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A594" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43439</v>
       </c>
       <c r="B594">
@@ -24892,7 +24906,7 @@
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A595" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43440</v>
       </c>
       <c r="B595">
@@ -24913,7 +24927,7 @@
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A596" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43441</v>
       </c>
       <c r="B596">
@@ -24934,7 +24948,7 @@
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A597" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43442</v>
       </c>
       <c r="B597">
@@ -24955,7 +24969,7 @@
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A598" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43443</v>
       </c>
       <c r="B598">
@@ -24976,7 +24990,7 @@
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A599" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43444</v>
       </c>
       <c r="B599">
@@ -24997,7 +25011,7 @@
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A600" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43445</v>
       </c>
       <c r="B600">
@@ -25018,7 +25032,7 @@
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A601" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43446</v>
       </c>
       <c r="B601">
@@ -25039,7 +25053,7 @@
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A602" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43447</v>
       </c>
       <c r="B602">
@@ -25060,7 +25074,7 @@
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A603" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43448</v>
       </c>
       <c r="B603">
@@ -25081,7 +25095,7 @@
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A604" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43449</v>
       </c>
       <c r="B604">
@@ -25102,7 +25116,7 @@
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A605" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43450</v>
       </c>
       <c r="B605">
@@ -25123,7 +25137,7 @@
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A606" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43451</v>
       </c>
       <c r="B606">
@@ -25144,7 +25158,7 @@
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A607" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43452</v>
       </c>
       <c r="B607">
@@ -25165,7 +25179,7 @@
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A608" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43453</v>
       </c>
       <c r="B608">
@@ -25186,7 +25200,7 @@
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A609" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43454</v>
       </c>
       <c r="B609">
@@ -25207,7 +25221,7 @@
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A610" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43455</v>
       </c>
       <c r="B610">
@@ -25228,7 +25242,7 @@
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A611" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43456</v>
       </c>
       <c r="B611">
@@ -25249,7 +25263,7 @@
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A612" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43457</v>
       </c>
       <c r="B612">
@@ -25270,7 +25284,7 @@
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A613" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43458</v>
       </c>
       <c r="B613">
@@ -25291,7 +25305,7 @@
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A614" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43459</v>
       </c>
       <c r="B614">
@@ -25312,7 +25326,7 @@
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A615" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43460</v>
       </c>
       <c r="B615">
@@ -25333,7 +25347,7 @@
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A616" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43461</v>
       </c>
       <c r="B616">
@@ -25354,7 +25368,7 @@
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A617" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43462</v>
       </c>
       <c r="B617">
@@ -25375,7 +25389,7 @@
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A618" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43463</v>
       </c>
       <c r="B618">
@@ -25396,7 +25410,7 @@
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A619" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43464</v>
       </c>
       <c r="B619">
@@ -25417,7 +25431,7 @@
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A620" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43465</v>
       </c>
       <c r="B620">
@@ -25438,7 +25452,7 @@
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A621" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43466</v>
       </c>
       <c r="B621">
@@ -25459,7 +25473,7 @@
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A622" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43467</v>
       </c>
       <c r="B622">
@@ -25480,7 +25494,7 @@
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A623" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43468</v>
       </c>
       <c r="B623">
@@ -25501,7 +25515,7 @@
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A624" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43469</v>
       </c>
       <c r="B624">
@@ -25522,7 +25536,7 @@
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A625" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43470</v>
       </c>
       <c r="B625">
@@ -25543,7 +25557,7 @@
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A626" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43471</v>
       </c>
       <c r="B626">
@@ -25564,7 +25578,7 @@
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A627" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43472</v>
       </c>
       <c r="B627">
@@ -25585,7 +25599,7 @@
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A628" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43473</v>
       </c>
       <c r="B628">
@@ -25606,7 +25620,7 @@
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A629" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43474</v>
       </c>
       <c r="B629">
@@ -25627,7 +25641,7 @@
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A630" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43475</v>
       </c>
       <c r="B630">
@@ -25648,7 +25662,7 @@
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A631" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43476</v>
       </c>
       <c r="B631">
@@ -25669,7 +25683,7 @@
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A632" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43477</v>
       </c>
       <c r="B632">
@@ -25690,7 +25704,7 @@
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A633" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43478</v>
       </c>
       <c r="B633">
@@ -25711,7 +25725,7 @@
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A634" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43479</v>
       </c>
       <c r="B634">
@@ -25732,7 +25746,7 @@
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A635" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43480</v>
       </c>
       <c r="B635">
@@ -25753,7 +25767,7 @@
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A636" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43481</v>
       </c>
       <c r="B636">
@@ -25774,7 +25788,7 @@
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A637" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43482</v>
       </c>
       <c r="B637">
@@ -25795,7 +25809,7 @@
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A638" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43483</v>
       </c>
       <c r="B638">
@@ -25816,7 +25830,7 @@
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A639" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43484</v>
       </c>
       <c r="B639">
@@ -25837,7 +25851,7 @@
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A640" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43485</v>
       </c>
       <c r="B640">
@@ -25858,7 +25872,7 @@
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A641" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43486</v>
       </c>
       <c r="B641">
@@ -25879,7 +25893,7 @@
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A642" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43487</v>
       </c>
       <c r="B642">
@@ -25900,7 +25914,7 @@
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A643" s="3">
-        <f t="shared" ref="A643:A706" si="10">DATE(D643,C643,B643)</f>
+        <f t="shared" ref="A643:A706" si="11">DATE(D643,C643,B643)</f>
         <v>43488</v>
       </c>
       <c r="B643">
@@ -25921,7 +25935,7 @@
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A644" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43489</v>
       </c>
       <c r="B644">
@@ -25942,7 +25956,7 @@
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A645" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43490</v>
       </c>
       <c r="B645">
@@ -25963,7 +25977,7 @@
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A646" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43491</v>
       </c>
       <c r="B646">
@@ -25984,7 +25998,7 @@
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A647" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43492</v>
       </c>
       <c r="B647">
@@ -26005,7 +26019,7 @@
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A648" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43493</v>
       </c>
       <c r="B648">
@@ -26026,7 +26040,7 @@
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A649" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43494</v>
       </c>
       <c r="B649">
@@ -26047,7 +26061,7 @@
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A650" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43495</v>
       </c>
       <c r="B650">
@@ -26068,7 +26082,7 @@
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A651" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43496</v>
       </c>
       <c r="B651">
@@ -26089,7 +26103,7 @@
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A652" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43497</v>
       </c>
       <c r="B652">
@@ -26110,7 +26124,7 @@
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A653" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43498</v>
       </c>
       <c r="B653">
@@ -26131,7 +26145,7 @@
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A654" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43499</v>
       </c>
       <c r="B654">
@@ -26152,7 +26166,7 @@
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A655" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43500</v>
       </c>
       <c r="B655">
@@ -26173,7 +26187,7 @@
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A656" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43501</v>
       </c>
       <c r="B656">
@@ -26194,7 +26208,7 @@
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A657" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43502</v>
       </c>
       <c r="B657">
@@ -26215,7 +26229,7 @@
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A658" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43503</v>
       </c>
       <c r="B658">
@@ -26236,7 +26250,7 @@
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A659" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43504</v>
       </c>
       <c r="B659">
@@ -26257,7 +26271,7 @@
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A660" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43505</v>
       </c>
       <c r="B660">
@@ -26278,7 +26292,7 @@
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A661" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43506</v>
       </c>
       <c r="B661">
@@ -26299,7 +26313,7 @@
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A662" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43507</v>
       </c>
       <c r="B662">
@@ -26320,7 +26334,7 @@
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A663" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43508</v>
       </c>
       <c r="B663">
@@ -26341,7 +26355,7 @@
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A664" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43509</v>
       </c>
       <c r="B664">
@@ -26362,7 +26376,7 @@
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A665" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43510</v>
       </c>
       <c r="B665">
@@ -26383,7 +26397,7 @@
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A666" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43511</v>
       </c>
       <c r="B666">
@@ -26404,7 +26418,7 @@
     </row>
     <row r="667" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A667" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43512</v>
       </c>
       <c r="B667">
@@ -26425,7 +26439,7 @@
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A668" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43513</v>
       </c>
       <c r="B668">
@@ -26446,7 +26460,7 @@
     </row>
     <row r="669" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A669" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43514</v>
       </c>
       <c r="B669">
@@ -26467,7 +26481,7 @@
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A670" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43515</v>
       </c>
       <c r="B670">
@@ -26488,7 +26502,7 @@
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A671" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43516</v>
       </c>
       <c r="B671">
@@ -26509,7 +26523,7 @@
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A672" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43517</v>
       </c>
       <c r="B672">
@@ -26530,7 +26544,7 @@
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A673" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43518</v>
       </c>
       <c r="B673">
@@ -26551,7 +26565,7 @@
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A674" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43519</v>
       </c>
       <c r="B674">
@@ -26572,7 +26586,7 @@
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A675" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43520</v>
       </c>
       <c r="B675">
@@ -26593,7 +26607,7 @@
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A676" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43521</v>
       </c>
       <c r="B676">
@@ -26614,7 +26628,7 @@
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A677" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43522</v>
       </c>
       <c r="B677">
@@ -26635,7 +26649,7 @@
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A678" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43523</v>
       </c>
       <c r="B678">
@@ -26656,7 +26670,7 @@
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A679" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43524</v>
       </c>
       <c r="B679">
@@ -26677,7 +26691,7 @@
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A680" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43525</v>
       </c>
       <c r="B680">
@@ -26698,7 +26712,7 @@
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A681" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43526</v>
       </c>
       <c r="B681">
@@ -26719,7 +26733,7 @@
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A682" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43527</v>
       </c>
       <c r="B682">
@@ -26740,7 +26754,7 @@
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A683" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43528</v>
       </c>
       <c r="B683">
@@ -26761,7 +26775,7 @@
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A684" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43529</v>
       </c>
       <c r="B684">
@@ -26782,7 +26796,7 @@
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A685" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43530</v>
       </c>
       <c r="B685">
@@ -26803,7 +26817,7 @@
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A686" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43531</v>
       </c>
       <c r="B686">
@@ -26824,7 +26838,7 @@
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A687" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43532</v>
       </c>
       <c r="B687">
@@ -26845,7 +26859,7 @@
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A688" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43533</v>
       </c>
       <c r="B688">
@@ -26866,7 +26880,7 @@
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A689" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43534</v>
       </c>
       <c r="B689">
@@ -26887,7 +26901,7 @@
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A690" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43535</v>
       </c>
       <c r="B690">
@@ -26908,7 +26922,7 @@
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A691" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43536</v>
       </c>
       <c r="B691">
@@ -26929,7 +26943,7 @@
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A692" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43537</v>
       </c>
       <c r="B692">
@@ -26950,7 +26964,7 @@
     </row>
     <row r="693" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A693" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43538</v>
       </c>
       <c r="B693">
@@ -26971,7 +26985,7 @@
     </row>
     <row r="694" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A694" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43539</v>
       </c>
       <c r="B694">
@@ -26992,7 +27006,7 @@
     </row>
     <row r="695" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A695" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43540</v>
       </c>
       <c r="B695">
@@ -27013,7 +27027,7 @@
     </row>
     <row r="696" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A696" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43541</v>
       </c>
       <c r="B696">
@@ -27034,7 +27048,7 @@
     </row>
     <row r="697" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A697" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43542</v>
       </c>
       <c r="B697">
@@ -27055,7 +27069,7 @@
     </row>
     <row r="698" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A698" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43543</v>
       </c>
       <c r="B698">
@@ -27076,7 +27090,7 @@
     </row>
     <row r="699" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A699" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43544</v>
       </c>
       <c r="B699">
@@ -27097,7 +27111,7 @@
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A700" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43545</v>
       </c>
       <c r="B700">
@@ -27118,7 +27132,7 @@
     </row>
     <row r="701" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A701" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43546</v>
       </c>
       <c r="B701">
@@ -27139,7 +27153,7 @@
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A702" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43547</v>
       </c>
       <c r="B702">
@@ -27160,7 +27174,7 @@
     </row>
     <row r="703" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A703" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43548</v>
       </c>
       <c r="B703">
@@ -27181,7 +27195,7 @@
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A704" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43549</v>
       </c>
       <c r="B704">
@@ -27202,7 +27216,7 @@
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A705" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43550</v>
       </c>
       <c r="B705">
@@ -27223,7 +27237,7 @@
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A706" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43551</v>
       </c>
       <c r="B706">
@@ -27244,7 +27258,7 @@
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A707" s="3">
-        <f t="shared" ref="A707:A770" si="11">DATE(D707,C707,B707)</f>
+        <f t="shared" ref="A707:A770" si="12">DATE(D707,C707,B707)</f>
         <v>43552</v>
       </c>
       <c r="B707">
@@ -27265,7 +27279,7 @@
     </row>
     <row r="708" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A708" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43553</v>
       </c>
       <c r="B708">
@@ -27286,7 +27300,7 @@
     </row>
     <row r="709" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A709" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43554</v>
       </c>
       <c r="B709">
@@ -27307,7 +27321,7 @@
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A710" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43555</v>
       </c>
       <c r="B710">
@@ -27328,7 +27342,7 @@
     </row>
     <row r="711" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A711" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43556</v>
       </c>
       <c r="B711">
@@ -27349,7 +27363,7 @@
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A712" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43557</v>
       </c>
       <c r="B712">
@@ -27370,7 +27384,7 @@
     </row>
     <row r="713" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A713" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43558</v>
       </c>
       <c r="B713">
@@ -27391,7 +27405,7 @@
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A714" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43559</v>
       </c>
       <c r="B714">
@@ -27412,7 +27426,7 @@
     </row>
     <row r="715" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A715" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43560</v>
       </c>
       <c r="B715">
@@ -27433,7 +27447,7 @@
     </row>
     <row r="716" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A716" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43561</v>
       </c>
       <c r="B716">
@@ -27454,7 +27468,7 @@
     </row>
     <row r="717" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A717" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43562</v>
       </c>
       <c r="B717">
@@ -27475,7 +27489,7 @@
     </row>
     <row r="718" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A718" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43563</v>
       </c>
       <c r="B718">
@@ -27496,7 +27510,7 @@
     </row>
     <row r="719" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A719" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43564</v>
       </c>
       <c r="B719">
@@ -27517,7 +27531,7 @@
     </row>
     <row r="720" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A720" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43565</v>
       </c>
       <c r="B720">
@@ -27538,7 +27552,7 @@
     </row>
     <row r="721" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A721" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43566</v>
       </c>
       <c r="B721">
@@ -27559,7 +27573,7 @@
     </row>
     <row r="722" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A722" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43567</v>
       </c>
       <c r="B722">
@@ -27580,7 +27594,7 @@
     </row>
     <row r="723" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A723" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43568</v>
       </c>
       <c r="B723">
@@ -27601,7 +27615,7 @@
     </row>
     <row r="724" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A724" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43569</v>
       </c>
       <c r="B724">
@@ -27622,7 +27636,7 @@
     </row>
     <row r="725" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A725" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43570</v>
       </c>
       <c r="B725">
@@ -27643,7 +27657,7 @@
     </row>
     <row r="726" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A726" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43571</v>
       </c>
       <c r="B726">
@@ -27664,7 +27678,7 @@
     </row>
     <row r="727" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A727" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43572</v>
       </c>
       <c r="B727">
@@ -27685,7 +27699,7 @@
     </row>
     <row r="728" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A728" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43573</v>
       </c>
       <c r="B728">
@@ -27706,7 +27720,7 @@
     </row>
     <row r="729" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A729" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43574</v>
       </c>
       <c r="B729">
@@ -27727,7 +27741,7 @@
     </row>
     <row r="730" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A730" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43575</v>
       </c>
       <c r="B730">
@@ -27748,7 +27762,7 @@
     </row>
     <row r="731" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A731" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43576</v>
       </c>
       <c r="B731">
@@ -27769,7 +27783,7 @@
     </row>
     <row r="732" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A732" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43577</v>
       </c>
       <c r="B732">
@@ -27790,7 +27804,7 @@
     </row>
     <row r="733" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A733" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43578</v>
       </c>
       <c r="B733">
@@ -27811,7 +27825,7 @@
     </row>
     <row r="734" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A734" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43579</v>
       </c>
       <c r="B734">
@@ -27832,7 +27846,7 @@
     </row>
     <row r="735" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A735" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43580</v>
       </c>
       <c r="B735">
@@ -27853,7 +27867,7 @@
     </row>
     <row r="736" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A736" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43581</v>
       </c>
       <c r="B736">
@@ -27874,7 +27888,7 @@
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A737" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43582</v>
       </c>
       <c r="B737">
@@ -27895,7 +27909,7 @@
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A738" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43583</v>
       </c>
       <c r="B738">
@@ -27916,7 +27930,7 @@
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A739" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43584</v>
       </c>
       <c r="B739">
@@ -27937,7 +27951,7 @@
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A740" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43585</v>
       </c>
       <c r="B740">
@@ -27958,7 +27972,7 @@
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A741" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43586</v>
       </c>
       <c r="B741">
@@ -27979,7 +27993,7 @@
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A742" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43587</v>
       </c>
       <c r="B742">
@@ -28000,7 +28014,7 @@
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A743" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43588</v>
       </c>
       <c r="B743">
@@ -28021,7 +28035,7 @@
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A744" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43589</v>
       </c>
       <c r="B744">
@@ -28042,7 +28056,7 @@
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A745" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43590</v>
       </c>
       <c r="B745">
@@ -28063,7 +28077,7 @@
     </row>
     <row r="746" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A746" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43591</v>
       </c>
       <c r="B746">
@@ -28084,7 +28098,7 @@
     </row>
     <row r="747" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A747" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43592</v>
       </c>
       <c r="B747">
@@ -28105,7 +28119,7 @@
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A748" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43593</v>
       </c>
       <c r="B748">
@@ -28126,7 +28140,7 @@
     </row>
     <row r="749" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A749" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43594</v>
       </c>
       <c r="B749">
@@ -28147,7 +28161,7 @@
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A750" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43595</v>
       </c>
       <c r="B750">
@@ -28168,7 +28182,7 @@
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A751" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43596</v>
       </c>
       <c r="B751">
@@ -28189,7 +28203,7 @@
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A752" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43597</v>
       </c>
       <c r="B752">
@@ -28210,7 +28224,7 @@
     </row>
     <row r="753" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A753" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43598</v>
       </c>
       <c r="B753">
@@ -28231,7 +28245,7 @@
     </row>
     <row r="754" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A754" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43599</v>
       </c>
       <c r="B754">
@@ -28252,7 +28266,7 @@
     </row>
     <row r="755" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A755" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43600</v>
       </c>
       <c r="B755">
@@ -28273,7 +28287,7 @@
     </row>
     <row r="756" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A756" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43601</v>
       </c>
       <c r="B756">
@@ -28294,7 +28308,7 @@
     </row>
     <row r="757" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A757" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43602</v>
       </c>
       <c r="B757">
@@ -28315,7 +28329,7 @@
     </row>
     <row r="758" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A758" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43603</v>
       </c>
       <c r="B758">
@@ -28336,7 +28350,7 @@
     </row>
     <row r="759" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A759" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43604</v>
       </c>
       <c r="B759">
@@ -28357,7 +28371,7 @@
     </row>
     <row r="760" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A760" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43605</v>
       </c>
       <c r="B760">
@@ -28378,7 +28392,7 @@
     </row>
     <row r="761" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A761" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43606</v>
       </c>
       <c r="B761">
@@ -28399,7 +28413,7 @@
     </row>
     <row r="762" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A762" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43607</v>
       </c>
       <c r="B762">
@@ -28420,7 +28434,7 @@
     </row>
     <row r="763" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A763" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43608</v>
       </c>
       <c r="B763">
@@ -28441,7 +28455,7 @@
     </row>
     <row r="764" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A764" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43609</v>
       </c>
       <c r="B764">
@@ -28462,7 +28476,7 @@
     </row>
     <row r="765" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A765" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43610</v>
       </c>
       <c r="B765">
@@ -28483,7 +28497,7 @@
     </row>
     <row r="766" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A766" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43611</v>
       </c>
       <c r="B766">
@@ -28504,7 +28518,7 @@
     </row>
     <row r="767" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A767" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43612</v>
       </c>
       <c r="B767">
@@ -28525,7 +28539,7 @@
     </row>
     <row r="768" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A768" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43613</v>
       </c>
       <c r="B768">
@@ -28546,7 +28560,7 @@
     </row>
     <row r="769" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A769" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43614</v>
       </c>
       <c r="B769">
@@ -28567,7 +28581,7 @@
     </row>
     <row r="770" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A770" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43615</v>
       </c>
       <c r="B770">
@@ -28588,7 +28602,7 @@
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A771" s="3">
-        <f t="shared" ref="A771:A834" si="12">DATE(D771,C771,B771)</f>
+        <f t="shared" ref="A771:A834" si="13">DATE(D771,C771,B771)</f>
         <v>43616</v>
       </c>
       <c r="B771">
@@ -28609,7 +28623,7 @@
     </row>
     <row r="772" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A772" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43617</v>
       </c>
       <c r="B772">
@@ -28630,7 +28644,7 @@
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A773" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43618</v>
       </c>
       <c r="B773">
@@ -28651,7 +28665,7 @@
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A774" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43619</v>
       </c>
       <c r="B774">
@@ -28672,7 +28686,7 @@
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A775" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43620</v>
       </c>
       <c r="B775">
@@ -28693,7 +28707,7 @@
     </row>
     <row r="776" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A776" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43621</v>
       </c>
       <c r="B776">
@@ -28714,7 +28728,7 @@
     </row>
     <row r="777" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A777" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43622</v>
       </c>
       <c r="B777">
@@ -28735,7 +28749,7 @@
     </row>
     <row r="778" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A778" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43623</v>
       </c>
       <c r="B778">
@@ -28756,7 +28770,7 @@
     </row>
     <row r="779" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A779" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43624</v>
       </c>
       <c r="B779">
@@ -28777,7 +28791,7 @@
     </row>
     <row r="780" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A780" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43625</v>
       </c>
       <c r="B780">
@@ -28798,7 +28812,7 @@
     </row>
     <row r="781" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A781" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43626</v>
       </c>
       <c r="B781">
@@ -28819,7 +28833,7 @@
     </row>
     <row r="782" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A782" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43627</v>
       </c>
       <c r="B782">
@@ -28840,7 +28854,7 @@
     </row>
     <row r="783" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A783" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43628</v>
       </c>
       <c r="B783">
@@ -28861,7 +28875,7 @@
     </row>
     <row r="784" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A784" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43629</v>
       </c>
       <c r="B784">
@@ -28882,7 +28896,7 @@
     </row>
     <row r="785" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A785" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43630</v>
       </c>
       <c r="B785">
@@ -28903,7 +28917,7 @@
     </row>
     <row r="786" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A786" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43631</v>
       </c>
       <c r="B786">
@@ -28924,7 +28938,7 @@
     </row>
     <row r="787" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A787" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43632</v>
       </c>
       <c r="B787">
@@ -28945,7 +28959,7 @@
     </row>
     <row r="788" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A788" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43633</v>
       </c>
       <c r="B788">
@@ -28966,7 +28980,7 @@
     </row>
     <row r="789" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A789" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43634</v>
       </c>
       <c r="B789">
@@ -28987,7 +29001,7 @@
     </row>
     <row r="790" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A790" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43635</v>
       </c>
       <c r="B790">
@@ -29008,7 +29022,7 @@
     </row>
     <row r="791" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A791" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43636</v>
       </c>
       <c r="B791">
@@ -29029,7 +29043,7 @@
     </row>
     <row r="792" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A792" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43637</v>
       </c>
       <c r="B792">
@@ -29050,7 +29064,7 @@
     </row>
     <row r="793" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A793" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43638</v>
       </c>
       <c r="B793">
@@ -29071,7 +29085,7 @@
     </row>
     <row r="794" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A794" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43639</v>
       </c>
       <c r="B794">
@@ -29092,7 +29106,7 @@
     </row>
     <row r="795" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A795" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43640</v>
       </c>
       <c r="B795">
@@ -29113,7 +29127,7 @@
     </row>
     <row r="796" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A796" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43641</v>
       </c>
       <c r="B796">
@@ -29134,7 +29148,7 @@
     </row>
     <row r="797" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A797" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43642</v>
       </c>
       <c r="B797">
@@ -29155,7 +29169,7 @@
     </row>
     <row r="798" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A798" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43643</v>
       </c>
       <c r="B798">
@@ -29176,7 +29190,7 @@
     </row>
     <row r="799" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A799" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43644</v>
       </c>
       <c r="B799">
@@ -29197,7 +29211,7 @@
     </row>
     <row r="800" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A800" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43645</v>
       </c>
       <c r="B800">
@@ -29218,7 +29232,7 @@
     </row>
     <row r="801" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A801" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43646</v>
       </c>
       <c r="B801">
@@ -29239,7 +29253,7 @@
     </row>
     <row r="802" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A802" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43647</v>
       </c>
       <c r="B802">
@@ -29260,7 +29274,7 @@
     </row>
     <row r="803" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A803" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43648</v>
       </c>
       <c r="B803">
@@ -29281,7 +29295,7 @@
     </row>
     <row r="804" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A804" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43649</v>
       </c>
       <c r="B804">
@@ -29302,7 +29316,7 @@
     </row>
     <row r="805" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A805" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43650</v>
       </c>
       <c r="B805">
@@ -29323,7 +29337,7 @@
     </row>
     <row r="806" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A806" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43651</v>
       </c>
       <c r="B806">
@@ -29344,7 +29358,7 @@
     </row>
     <row r="807" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A807" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43652</v>
       </c>
       <c r="B807">
@@ -29365,7 +29379,7 @@
     </row>
     <row r="808" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A808" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43653</v>
       </c>
       <c r="B808">
@@ -29386,7 +29400,7 @@
     </row>
     <row r="809" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A809" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43654</v>
       </c>
       <c r="B809">
@@ -29407,7 +29421,7 @@
     </row>
     <row r="810" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A810" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43655</v>
       </c>
       <c r="B810">
@@ -29428,7 +29442,7 @@
     </row>
     <row r="811" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A811" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43656</v>
       </c>
       <c r="B811">
@@ -29449,7 +29463,7 @@
     </row>
     <row r="812" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A812" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43657</v>
       </c>
       <c r="B812">
@@ -29470,7 +29484,7 @@
     </row>
     <row r="813" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A813" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43658</v>
       </c>
       <c r="B813">
@@ -29491,7 +29505,7 @@
     </row>
     <row r="814" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A814" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43659</v>
       </c>
       <c r="B814">
@@ -29512,7 +29526,7 @@
     </row>
     <row r="815" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A815" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43660</v>
       </c>
       <c r="B815">
@@ -29533,7 +29547,7 @@
     </row>
     <row r="816" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A816" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43661</v>
       </c>
       <c r="B816">
@@ -29554,7 +29568,7 @@
     </row>
     <row r="817" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A817" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43662</v>
       </c>
       <c r="B817">
@@ -29575,7 +29589,7 @@
     </row>
     <row r="818" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A818" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43663</v>
       </c>
       <c r="B818">
@@ -29596,7 +29610,7 @@
     </row>
     <row r="819" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A819" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43664</v>
       </c>
       <c r="B819">
@@ -29617,7 +29631,7 @@
     </row>
     <row r="820" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A820" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43665</v>
       </c>
       <c r="B820">
@@ -29638,7 +29652,7 @@
     </row>
     <row r="821" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A821" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43666</v>
       </c>
       <c r="B821">
@@ -29659,7 +29673,7 @@
     </row>
     <row r="822" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A822" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43667</v>
       </c>
       <c r="B822">
@@ -29680,7 +29694,7 @@
     </row>
     <row r="823" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A823" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43668</v>
       </c>
       <c r="B823">
@@ -29701,7 +29715,7 @@
     </row>
     <row r="824" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A824" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43669</v>
       </c>
       <c r="B824">
@@ -29722,7 +29736,7 @@
     </row>
     <row r="825" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A825" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43670</v>
       </c>
       <c r="B825">
@@ -29743,7 +29757,7 @@
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A826" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43671</v>
       </c>
       <c r="B826">
@@ -29764,7 +29778,7 @@
     </row>
     <row r="827" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A827" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43672</v>
       </c>
       <c r="B827">
@@ -29785,7 +29799,7 @@
     </row>
     <row r="828" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A828" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43673</v>
       </c>
       <c r="B828">
@@ -29806,7 +29820,7 @@
     </row>
     <row r="829" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A829" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43674</v>
       </c>
       <c r="B829">
@@ -29827,7 +29841,7 @@
     </row>
     <row r="830" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A830" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43675</v>
       </c>
       <c r="B830">
@@ -29848,7 +29862,7 @@
     </row>
     <row r="831" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A831" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43676</v>
       </c>
       <c r="B831">
@@ -29869,7 +29883,7 @@
     </row>
     <row r="832" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A832" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43677</v>
       </c>
       <c r="B832">
@@ -29890,7 +29904,7 @@
     </row>
     <row r="833" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A833" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43678</v>
       </c>
       <c r="B833">
@@ -29911,7 +29925,7 @@
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A834" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43679</v>
       </c>
       <c r="B834">
@@ -29932,7 +29946,7 @@
     </row>
     <row r="835" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A835" s="3">
-        <f t="shared" ref="A835:A898" si="13">DATE(D835,C835,B835)</f>
+        <f t="shared" ref="A835:A898" si="14">DATE(D835,C835,B835)</f>
         <v>43680</v>
       </c>
       <c r="B835">
@@ -29953,7 +29967,7 @@
     </row>
     <row r="836" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A836" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43681</v>
       </c>
       <c r="B836">
@@ -29974,7 +29988,7 @@
     </row>
     <row r="837" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A837" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43682</v>
       </c>
       <c r="B837">
@@ -29995,7 +30009,7 @@
     </row>
     <row r="838" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A838" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43683</v>
       </c>
       <c r="B838">
@@ -30016,7 +30030,7 @@
     </row>
     <row r="839" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A839" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43684</v>
       </c>
       <c r="B839">
@@ -30037,7 +30051,7 @@
     </row>
     <row r="840" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A840" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43685</v>
       </c>
       <c r="B840">
@@ -30058,7 +30072,7 @@
     </row>
     <row r="841" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A841" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43686</v>
       </c>
       <c r="B841">
@@ -30079,7 +30093,7 @@
     </row>
     <row r="842" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A842" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43687</v>
       </c>
       <c r="B842">
@@ -30100,7 +30114,7 @@
     </row>
     <row r="843" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A843" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43688</v>
       </c>
       <c r="B843">
@@ -30121,7 +30135,7 @@
     </row>
     <row r="844" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A844" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43689</v>
       </c>
       <c r="B844">
@@ -30142,7 +30156,7 @@
     </row>
     <row r="845" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A845" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43690</v>
       </c>
       <c r="B845">
@@ -30163,7 +30177,7 @@
     </row>
     <row r="846" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A846" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43691</v>
       </c>
       <c r="B846">
@@ -30184,7 +30198,7 @@
     </row>
     <row r="847" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A847" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43692</v>
       </c>
       <c r="B847">
@@ -30205,7 +30219,7 @@
     </row>
     <row r="848" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A848" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43693</v>
       </c>
       <c r="B848">
@@ -30226,7 +30240,7 @@
     </row>
     <row r="849" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A849" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43694</v>
       </c>
       <c r="B849">
@@ -30247,7 +30261,7 @@
     </row>
     <row r="850" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A850" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43695</v>
       </c>
       <c r="B850">
@@ -30268,7 +30282,7 @@
     </row>
     <row r="851" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A851" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43696</v>
       </c>
       <c r="B851">
@@ -30289,7 +30303,7 @@
     </row>
     <row r="852" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A852" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43697</v>
       </c>
       <c r="B852">
@@ -30310,7 +30324,7 @@
     </row>
     <row r="853" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A853" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43698</v>
       </c>
       <c r="B853">
@@ -30331,7 +30345,7 @@
     </row>
     <row r="854" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A854" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43699</v>
       </c>
       <c r="B854">
@@ -30352,7 +30366,7 @@
     </row>
     <row r="855" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A855" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43700</v>
       </c>
       <c r="B855">
@@ -30373,7 +30387,7 @@
     </row>
     <row r="856" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A856" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43701</v>
       </c>
       <c r="B856">
@@ -30394,7 +30408,7 @@
     </row>
     <row r="857" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A857" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43702</v>
       </c>
       <c r="B857">
@@ -30415,7 +30429,7 @@
     </row>
     <row r="858" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A858" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43703</v>
       </c>
       <c r="B858">
@@ -30436,7 +30450,7 @@
     </row>
     <row r="859" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A859" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43704</v>
       </c>
       <c r="B859">
@@ -30457,7 +30471,7 @@
     </row>
     <row r="860" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A860" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43705</v>
       </c>
       <c r="B860">
@@ -30478,7 +30492,7 @@
     </row>
     <row r="861" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A861" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43706</v>
       </c>
       <c r="B861">
@@ -30499,7 +30513,7 @@
     </row>
     <row r="862" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A862" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43707</v>
       </c>
       <c r="B862">
@@ -30520,7 +30534,7 @@
     </row>
     <row r="863" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A863" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43708</v>
       </c>
       <c r="B863">
@@ -30541,7 +30555,7 @@
     </row>
     <row r="864" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A864" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43709</v>
       </c>
       <c r="B864">
@@ -30562,7 +30576,7 @@
     </row>
     <row r="865" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A865" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43710</v>
       </c>
       <c r="B865">
@@ -30583,7 +30597,7 @@
     </row>
     <row r="866" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A866" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43711</v>
       </c>
       <c r="B866">
@@ -30604,7 +30618,7 @@
     </row>
     <row r="867" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A867" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43712</v>
       </c>
       <c r="B867">
@@ -30625,7 +30639,7 @@
     </row>
     <row r="868" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A868" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43713</v>
       </c>
       <c r="B868">
@@ -30646,7 +30660,7 @@
     </row>
     <row r="869" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A869" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43714</v>
       </c>
       <c r="B869">
@@ -30667,7 +30681,7 @@
     </row>
     <row r="870" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A870" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43715</v>
       </c>
       <c r="B870">
@@ -30688,7 +30702,7 @@
     </row>
     <row r="871" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A871" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43716</v>
       </c>
       <c r="B871">
@@ -30709,7 +30723,7 @@
     </row>
     <row r="872" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A872" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43717</v>
       </c>
       <c r="B872">
@@ -30730,7 +30744,7 @@
     </row>
     <row r="873" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A873" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43718</v>
       </c>
       <c r="B873">
@@ -30751,7 +30765,7 @@
     </row>
     <row r="874" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A874" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43719</v>
       </c>
       <c r="B874">
@@ -30772,7 +30786,7 @@
     </row>
     <row r="875" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A875" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43720</v>
       </c>
       <c r="B875">
@@ -30793,7 +30807,7 @@
     </row>
     <row r="876" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A876" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43721</v>
       </c>
       <c r="B876">
@@ -30814,7 +30828,7 @@
     </row>
     <row r="877" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A877" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43722</v>
       </c>
       <c r="B877">
@@ -30835,7 +30849,7 @@
     </row>
     <row r="878" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A878" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43723</v>
       </c>
       <c r="B878">
@@ -30856,7 +30870,7 @@
     </row>
     <row r="879" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A879" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43724</v>
       </c>
       <c r="B879">
@@ -30877,7 +30891,7 @@
     </row>
     <row r="880" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A880" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43725</v>
       </c>
       <c r="B880">
@@ -30898,7 +30912,7 @@
     </row>
     <row r="881" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A881" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43726</v>
       </c>
       <c r="B881">
@@ -30919,7 +30933,7 @@
     </row>
     <row r="882" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A882" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43727</v>
       </c>
       <c r="B882">
@@ -30940,7 +30954,7 @@
     </row>
     <row r="883" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A883" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43728</v>
       </c>
       <c r="B883">
@@ -30961,7 +30975,7 @@
     </row>
     <row r="884" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A884" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43729</v>
       </c>
       <c r="B884">
@@ -30982,7 +30996,7 @@
     </row>
     <row r="885" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A885" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43730</v>
       </c>
       <c r="B885">
@@ -31003,7 +31017,7 @@
     </row>
     <row r="886" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A886" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43731</v>
       </c>
       <c r="B886">
@@ -31024,7 +31038,7 @@
     </row>
     <row r="887" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A887" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43732</v>
       </c>
       <c r="B887">
@@ -31045,7 +31059,7 @@
     </row>
     <row r="888" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A888" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43733</v>
       </c>
       <c r="B888">
@@ -31066,7 +31080,7 @@
     </row>
     <row r="889" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A889" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43734</v>
       </c>
       <c r="B889">
@@ -31087,7 +31101,7 @@
     </row>
     <row r="890" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A890" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43735</v>
       </c>
       <c r="B890">
@@ -31108,7 +31122,7 @@
     </row>
     <row r="891" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A891" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43736</v>
       </c>
       <c r="B891">
@@ -31129,7 +31143,7 @@
     </row>
     <row r="892" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A892" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43737</v>
       </c>
       <c r="B892">
@@ -31150,7 +31164,7 @@
     </row>
     <row r="893" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A893" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43738</v>
       </c>
       <c r="B893">
@@ -31171,7 +31185,7 @@
     </row>
     <row r="894" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A894" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43739</v>
       </c>
       <c r="B894">
@@ -31192,7 +31206,7 @@
     </row>
     <row r="895" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A895" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43740</v>
       </c>
       <c r="B895">
@@ -31213,7 +31227,7 @@
     </row>
     <row r="896" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A896" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43741</v>
       </c>
       <c r="B896">
@@ -31234,7 +31248,7 @@
     </row>
     <row r="897" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A897" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43742</v>
       </c>
       <c r="B897">
@@ -31255,7 +31269,7 @@
     </row>
     <row r="898" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A898" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43743</v>
       </c>
       <c r="B898">
@@ -31276,7 +31290,7 @@
     </row>
     <row r="899" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A899" s="3">
-        <f t="shared" ref="A899:A962" si="14">DATE(D899,C899,B899)</f>
+        <f t="shared" ref="A899:A962" si="15">DATE(D899,C899,B899)</f>
         <v>43744</v>
       </c>
       <c r="B899">
@@ -31297,7 +31311,7 @@
     </row>
     <row r="900" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A900" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43745</v>
       </c>
       <c r="B900">
@@ -31318,7 +31332,7 @@
     </row>
     <row r="901" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A901" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43746</v>
       </c>
       <c r="B901">
@@ -31339,7 +31353,7 @@
     </row>
     <row r="902" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A902" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43747</v>
       </c>
       <c r="B902">
@@ -31360,7 +31374,7 @@
     </row>
     <row r="903" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A903" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43748</v>
       </c>
       <c r="B903">
@@ -31381,7 +31395,7 @@
     </row>
     <row r="904" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A904" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43749</v>
       </c>
       <c r="B904">
@@ -31402,7 +31416,7 @@
     </row>
     <row r="905" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A905" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43750</v>
       </c>
       <c r="B905">
@@ -31423,7 +31437,7 @@
     </row>
     <row r="906" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A906" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43751</v>
       </c>
       <c r="B906">
@@ -31444,7 +31458,7 @@
     </row>
     <row r="907" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A907" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43752</v>
       </c>
       <c r="B907">
@@ -31465,7 +31479,7 @@
     </row>
     <row r="908" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A908" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43753</v>
       </c>
       <c r="B908">
@@ -31486,7 +31500,7 @@
     </row>
     <row r="909" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A909" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43754</v>
       </c>
       <c r="B909">
@@ -31507,7 +31521,7 @@
     </row>
     <row r="910" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A910" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43755</v>
       </c>
       <c r="B910">
@@ -31528,7 +31542,7 @@
     </row>
     <row r="911" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A911" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43756</v>
       </c>
       <c r="B911">
@@ -31549,7 +31563,7 @@
     </row>
     <row r="912" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A912" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43757</v>
       </c>
       <c r="B912">
@@ -31570,7 +31584,7 @@
     </row>
     <row r="913" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A913" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43758</v>
       </c>
       <c r="B913">
@@ -31591,7 +31605,7 @@
     </row>
     <row r="914" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A914" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43759</v>
       </c>
       <c r="B914">
@@ -31612,7 +31626,7 @@
     </row>
     <row r="915" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A915" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43760</v>
       </c>
       <c r="B915">
@@ -31633,7 +31647,7 @@
     </row>
     <row r="916" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A916" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43761</v>
       </c>
       <c r="B916">
@@ -31654,7 +31668,7 @@
     </row>
     <row r="917" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A917" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43762</v>
       </c>
       <c r="B917">
@@ -31675,7 +31689,7 @@
     </row>
     <row r="918" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A918" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43763</v>
       </c>
       <c r="B918">
@@ -31696,7 +31710,7 @@
     </row>
     <row r="919" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A919" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43764</v>
       </c>
       <c r="B919">
@@ -31717,7 +31731,7 @@
     </row>
     <row r="920" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A920" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43765</v>
       </c>
       <c r="B920">
@@ -31738,7 +31752,7 @@
     </row>
     <row r="921" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A921" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43766</v>
       </c>
       <c r="B921">
@@ -31759,7 +31773,7 @@
     </row>
     <row r="922" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A922" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43767</v>
       </c>
       <c r="B922">
@@ -31780,7 +31794,7 @@
     </row>
     <row r="923" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A923" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43768</v>
       </c>
       <c r="B923">
@@ -31801,7 +31815,7 @@
     </row>
     <row r="924" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A924" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43769</v>
       </c>
       <c r="B924">
@@ -31822,7 +31836,7 @@
     </row>
     <row r="925" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A925" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43770</v>
       </c>
       <c r="B925">
@@ -31843,7 +31857,7 @@
     </row>
     <row r="926" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A926" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43771</v>
       </c>
       <c r="B926">
@@ -31864,7 +31878,7 @@
     </row>
     <row r="927" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A927" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43772</v>
       </c>
       <c r="B927">
@@ -31885,7 +31899,7 @@
     </row>
     <row r="928" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A928" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43773</v>
       </c>
       <c r="B928">
@@ -31906,7 +31920,7 @@
     </row>
     <row r="929" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A929" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43774</v>
       </c>
       <c r="B929">
@@ -31927,7 +31941,7 @@
     </row>
     <row r="930" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A930" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43775</v>
       </c>
       <c r="B930">
@@ -31948,7 +31962,7 @@
     </row>
     <row r="931" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A931" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43776</v>
       </c>
       <c r="B931">
@@ -31969,7 +31983,7 @@
     </row>
     <row r="932" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A932" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43777</v>
       </c>
       <c r="B932">
@@ -31990,7 +32004,7 @@
     </row>
     <row r="933" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A933" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43778</v>
       </c>
       <c r="B933">
@@ -32011,7 +32025,7 @@
     </row>
     <row r="934" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A934" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43779</v>
       </c>
       <c r="B934">
@@ -32032,7 +32046,7 @@
     </row>
     <row r="935" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A935" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43780</v>
       </c>
       <c r="B935">
@@ -32053,7 +32067,7 @@
     </row>
     <row r="936" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A936" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43781</v>
       </c>
       <c r="B936">
@@ -32074,7 +32088,7 @@
     </row>
     <row r="937" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A937" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43782</v>
       </c>
       <c r="B937">
@@ -32095,7 +32109,7 @@
     </row>
     <row r="938" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A938" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43783</v>
       </c>
       <c r="B938">
@@ -32116,7 +32130,7 @@
     </row>
     <row r="939" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A939" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43784</v>
       </c>
       <c r="B939">
@@ -32137,7 +32151,7 @@
     </row>
     <row r="940" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A940" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43785</v>
       </c>
       <c r="B940">
@@ -32158,7 +32172,7 @@
     </row>
     <row r="941" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A941" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43786</v>
       </c>
       <c r="B941">
@@ -32179,7 +32193,7 @@
     </row>
     <row r="942" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A942" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43787</v>
       </c>
       <c r="B942">
@@ -32200,7 +32214,7 @@
     </row>
     <row r="943" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A943" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43788</v>
       </c>
       <c r="B943">
@@ -32221,7 +32235,7 @@
     </row>
     <row r="944" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A944" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43789</v>
       </c>
       <c r="B944">
@@ -32242,7 +32256,7 @@
     </row>
     <row r="945" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A945" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43790</v>
       </c>
       <c r="B945">
@@ -32263,7 +32277,7 @@
     </row>
     <row r="946" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A946" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43791</v>
       </c>
       <c r="B946">
@@ -32284,7 +32298,7 @@
     </row>
     <row r="947" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A947" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43792</v>
       </c>
       <c r="B947">
@@ -32305,7 +32319,7 @@
     </row>
     <row r="948" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A948" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43793</v>
       </c>
       <c r="B948">
@@ -32326,7 +32340,7 @@
     </row>
     <row r="949" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A949" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43794</v>
       </c>
       <c r="B949">
@@ -32347,7 +32361,7 @@
     </row>
     <row r="950" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A950" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43795</v>
       </c>
       <c r="B950">
@@ -32368,7 +32382,7 @@
     </row>
     <row r="951" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A951" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43796</v>
       </c>
       <c r="B951">
@@ -32389,7 +32403,7 @@
     </row>
     <row r="952" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A952" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43797</v>
       </c>
       <c r="B952">
@@ -32410,7 +32424,7 @@
     </row>
     <row r="953" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A953" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43798</v>
       </c>
       <c r="B953">
@@ -32431,7 +32445,7 @@
     </row>
     <row r="954" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A954" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43799</v>
       </c>
       <c r="B954">
@@ -32452,7 +32466,7 @@
     </row>
     <row r="955" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A955" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43800</v>
       </c>
       <c r="B955">
@@ -32473,7 +32487,7 @@
     </row>
     <row r="956" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A956" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43801</v>
       </c>
       <c r="B956">
@@ -32494,7 +32508,7 @@
     </row>
     <row r="957" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A957" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43802</v>
       </c>
       <c r="B957">
@@ -32515,7 +32529,7 @@
     </row>
     <row r="958" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A958" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43803</v>
       </c>
       <c r="B958">
@@ -32536,7 +32550,7 @@
     </row>
     <row r="959" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A959" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43804</v>
       </c>
       <c r="B959">
@@ -32557,7 +32571,7 @@
     </row>
     <row r="960" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A960" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43805</v>
       </c>
       <c r="B960">
@@ -32578,7 +32592,7 @@
     </row>
     <row r="961" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A961" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43806</v>
       </c>
       <c r="B961">
@@ -32599,7 +32613,7 @@
     </row>
     <row r="962" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A962" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43807</v>
       </c>
       <c r="B962">
@@ -32620,7 +32634,7 @@
     </row>
     <row r="963" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A963" s="3">
-        <f t="shared" ref="A963:A1026" si="15">DATE(D963,C963,B963)</f>
+        <f t="shared" ref="A963:A1026" si="16">DATE(D963,C963,B963)</f>
         <v>43808</v>
       </c>
       <c r="B963">
@@ -32641,7 +32655,7 @@
     </row>
     <row r="964" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A964" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43809</v>
       </c>
       <c r="B964">
@@ -32662,7 +32676,7 @@
     </row>
     <row r="965" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A965" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43810</v>
       </c>
       <c r="B965">
@@ -32683,7 +32697,7 @@
     </row>
     <row r="966" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A966" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43811</v>
       </c>
       <c r="B966">
@@ -32704,7 +32718,7 @@
     </row>
     <row r="967" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A967" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43812</v>
       </c>
       <c r="B967">
@@ -32725,7 +32739,7 @@
     </row>
     <row r="968" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A968" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43813</v>
       </c>
       <c r="B968">
@@ -32746,7 +32760,7 @@
     </row>
     <row r="969" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A969" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43814</v>
       </c>
       <c r="B969">
@@ -32767,7 +32781,7 @@
     </row>
     <row r="970" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A970" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43815</v>
       </c>
       <c r="B970">
@@ -32788,7 +32802,7 @@
     </row>
     <row r="971" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A971" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43816</v>
       </c>
       <c r="B971">
@@ -32809,7 +32823,7 @@
     </row>
     <row r="972" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A972" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43817</v>
       </c>
       <c r="B972">
@@ -32830,7 +32844,7 @@
     </row>
     <row r="973" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A973" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43818</v>
       </c>
       <c r="B973">
@@ -32851,7 +32865,7 @@
     </row>
     <row r="974" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A974" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43819</v>
       </c>
       <c r="B974">
@@ -32872,7 +32886,7 @@
     </row>
     <row r="975" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A975" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43820</v>
       </c>
       <c r="B975">
@@ -32893,7 +32907,7 @@
     </row>
     <row r="976" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A976" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43821</v>
       </c>
       <c r="B976">
@@ -32914,7 +32928,7 @@
     </row>
     <row r="977" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A977" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43822</v>
       </c>
       <c r="B977">
@@ -32935,7 +32949,7 @@
     </row>
     <row r="978" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A978" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43823</v>
       </c>
       <c r="B978">
@@ -32956,7 +32970,7 @@
     </row>
     <row r="979" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A979" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43824</v>
       </c>
       <c r="B979">
@@ -32977,7 +32991,7 @@
     </row>
     <row r="980" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A980" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43825</v>
       </c>
       <c r="B980">
@@ -32998,7 +33012,7 @@
     </row>
     <row r="981" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A981" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43826</v>
       </c>
       <c r="B981">
@@ -33019,7 +33033,7 @@
     </row>
     <row r="982" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A982" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43827</v>
       </c>
       <c r="B982">
@@ -33040,7 +33054,7 @@
     </row>
     <row r="983" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A983" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43828</v>
       </c>
       <c r="B983">
@@ -33061,7 +33075,7 @@
     </row>
     <row r="984" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A984" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43829</v>
       </c>
       <c r="B984">
@@ -33082,7 +33096,7 @@
     </row>
     <row r="985" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A985" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43830</v>
       </c>
       <c r="B985">
@@ -33103,7 +33117,7 @@
     </row>
     <row r="986" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A986" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43831</v>
       </c>
       <c r="B986">
@@ -33124,7 +33138,7 @@
     </row>
     <row r="987" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A987" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43832</v>
       </c>
       <c r="B987">
@@ -33145,7 +33159,7 @@
     </row>
     <row r="988" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A988" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43833</v>
       </c>
       <c r="B988">
@@ -33166,7 +33180,7 @@
     </row>
     <row r="989" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A989" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43834</v>
       </c>
       <c r="B989">
@@ -33187,7 +33201,7 @@
     </row>
     <row r="990" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A990" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43835</v>
       </c>
       <c r="B990">
@@ -33208,7 +33222,7 @@
     </row>
     <row r="991" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A991" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43836</v>
       </c>
       <c r="B991">
@@ -33229,7 +33243,7 @@
     </row>
     <row r="992" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A992" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43837</v>
       </c>
       <c r="B992">
@@ -33250,7 +33264,7 @@
     </row>
     <row r="993" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A993" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43838</v>
       </c>
       <c r="B993">
@@ -33271,7 +33285,7 @@
     </row>
     <row r="994" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A994" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43839</v>
       </c>
       <c r="B994">
@@ -33292,7 +33306,7 @@
     </row>
     <row r="995" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A995" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43840</v>
       </c>
       <c r="B995">
@@ -33313,7 +33327,7 @@
     </row>
     <row r="996" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A996" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43841</v>
       </c>
       <c r="B996">
@@ -33334,7 +33348,7 @@
     </row>
     <row r="997" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A997" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43842</v>
       </c>
       <c r="B997">
@@ -33355,7 +33369,7 @@
     </row>
     <row r="998" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A998" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43843</v>
       </c>
       <c r="B998">
@@ -33376,7 +33390,7 @@
     </row>
     <row r="999" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A999" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43844</v>
       </c>
       <c r="B999">
@@ -33397,7 +33411,7 @@
     </row>
     <row r="1000" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1000" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43845</v>
       </c>
       <c r="B1000">
@@ -33418,7 +33432,7 @@
     </row>
     <row r="1001" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1001" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43846</v>
       </c>
       <c r="B1001">
@@ -33439,7 +33453,7 @@
     </row>
     <row r="1002" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1002" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43847</v>
       </c>
       <c r="B1002">
@@ -33460,7 +33474,7 @@
     </row>
     <row r="1003" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1003" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43848</v>
       </c>
       <c r="B1003">
@@ -33481,7 +33495,7 @@
     </row>
     <row r="1004" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1004" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43849</v>
       </c>
       <c r="B1004">
@@ -33502,7 +33516,7 @@
     </row>
     <row r="1005" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1005" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43850</v>
       </c>
       <c r="B1005">
@@ -33523,7 +33537,7 @@
     </row>
     <row r="1006" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1006" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43851</v>
       </c>
       <c r="B1006">
@@ -33544,7 +33558,7 @@
     </row>
     <row r="1007" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1007" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43852</v>
       </c>
       <c r="B1007">
@@ -33565,7 +33579,7 @@
     </row>
     <row r="1008" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1008" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43853</v>
       </c>
       <c r="B1008">
@@ -33586,7 +33600,7 @@
     </row>
     <row r="1009" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1009" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43854</v>
       </c>
       <c r="B1009">
@@ -33607,7 +33621,7 @@
     </row>
     <row r="1010" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1010" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43855</v>
       </c>
       <c r="B1010">
@@ -33628,7 +33642,7 @@
     </row>
     <row r="1011" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1011" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43856</v>
       </c>
       <c r="B1011">
@@ -33649,7 +33663,7 @@
     </row>
     <row r="1012" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1012" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43857</v>
       </c>
       <c r="B1012">
@@ -33670,7 +33684,7 @@
     </row>
     <row r="1013" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1013" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43858</v>
       </c>
       <c r="B1013">
@@ -33691,7 +33705,7 @@
     </row>
     <row r="1014" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1014" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43859</v>
       </c>
       <c r="B1014">
@@ -33712,7 +33726,7 @@
     </row>
     <row r="1015" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1015" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43860</v>
       </c>
       <c r="B1015">
@@ -33733,7 +33747,7 @@
     </row>
     <row r="1016" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1016" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43861</v>
       </c>
       <c r="B1016">
@@ -33754,7 +33768,7 @@
     </row>
     <row r="1017" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1017" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43862</v>
       </c>
       <c r="B1017">
@@ -33775,7 +33789,7 @@
     </row>
     <row r="1018" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1018" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43863</v>
       </c>
       <c r="B1018">
@@ -33796,7 +33810,7 @@
     </row>
     <row r="1019" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1019" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43864</v>
       </c>
       <c r="B1019">
@@ -33817,7 +33831,7 @@
     </row>
     <row r="1020" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1020" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43865</v>
       </c>
       <c r="B1020">
@@ -33838,7 +33852,7 @@
     </row>
     <row r="1021" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1021" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43866</v>
       </c>
       <c r="B1021">
@@ -33859,7 +33873,7 @@
     </row>
     <row r="1022" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1022" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43867</v>
       </c>
       <c r="B1022">
@@ -33880,7 +33894,7 @@
     </row>
     <row r="1023" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1023" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43868</v>
       </c>
       <c r="B1023">
@@ -33901,7 +33915,7 @@
     </row>
     <row r="1024" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1024" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43869</v>
       </c>
       <c r="B1024">
@@ -33922,7 +33936,7 @@
     </row>
     <row r="1025" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1025" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43870</v>
       </c>
       <c r="B1025">
@@ -33943,7 +33957,7 @@
     </row>
     <row r="1026" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1026" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43871</v>
       </c>
       <c r="B1026">
@@ -33964,7 +33978,7 @@
     </row>
     <row r="1027" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1027" s="3">
-        <f t="shared" ref="A1027:A1054" si="16">DATE(D1027,C1027,B1027)</f>
+        <f t="shared" ref="A1027:A1054" si="17">DATE(D1027,C1027,B1027)</f>
         <v>43872</v>
       </c>
       <c r="B1027">
@@ -33985,7 +33999,7 @@
     </row>
     <row r="1028" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1028" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43873</v>
       </c>
       <c r="B1028">
@@ -34006,7 +34020,7 @@
     </row>
     <row r="1029" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1029" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43874</v>
       </c>
       <c r="B1029">
@@ -34027,7 +34041,7 @@
     </row>
     <row r="1030" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1030" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43875</v>
       </c>
       <c r="B1030">
@@ -34048,7 +34062,7 @@
     </row>
     <row r="1031" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1031" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43876</v>
       </c>
       <c r="B1031">
@@ -34069,7 +34083,7 @@
     </row>
     <row r="1032" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1032" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43877</v>
       </c>
       <c r="B1032">
@@ -34090,7 +34104,7 @@
     </row>
     <row r="1033" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1033" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43878</v>
       </c>
       <c r="B1033">
@@ -34111,7 +34125,7 @@
     </row>
     <row r="1034" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1034" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43879</v>
       </c>
       <c r="B1034">
@@ -34132,7 +34146,7 @@
     </row>
     <row r="1035" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1035" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43880</v>
       </c>
       <c r="B1035">
@@ -34153,7 +34167,7 @@
     </row>
     <row r="1036" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1036" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43881</v>
       </c>
       <c r="B1036">
@@ -34174,7 +34188,7 @@
     </row>
     <row r="1037" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1037" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43882</v>
       </c>
       <c r="B1037">
@@ -34195,7 +34209,7 @@
     </row>
     <row r="1038" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1038" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43883</v>
       </c>
       <c r="B1038">
@@ -34216,7 +34230,7 @@
     </row>
     <row r="1039" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1039" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43884</v>
       </c>
       <c r="B1039">
@@ -34237,7 +34251,7 @@
     </row>
     <row r="1040" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1040" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43885</v>
       </c>
       <c r="B1040">
@@ -34258,7 +34272,7 @@
     </row>
     <row r="1041" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1041" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43886</v>
       </c>
       <c r="B1041">
@@ -34279,7 +34293,7 @@
     </row>
     <row r="1042" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1042" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43887</v>
       </c>
       <c r="B1042">
@@ -34300,7 +34314,7 @@
     </row>
     <row r="1043" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1043" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43888</v>
       </c>
       <c r="B1043">
@@ -34321,7 +34335,7 @@
     </row>
     <row r="1044" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1044" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43889</v>
       </c>
       <c r="B1044">
@@ -34342,7 +34356,7 @@
     </row>
     <row r="1045" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1045" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43890</v>
       </c>
       <c r="B1045">
@@ -34363,7 +34377,7 @@
     </row>
     <row r="1046" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1046" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43891</v>
       </c>
       <c r="B1046">
@@ -34384,7 +34398,7 @@
     </row>
     <row r="1047" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1047" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43892</v>
       </c>
       <c r="B1047">
@@ -34405,7 +34419,7 @@
     </row>
     <row r="1048" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1048" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43893</v>
       </c>
       <c r="B1048">
@@ -34426,7 +34440,7 @@
     </row>
     <row r="1049" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1049" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43894</v>
       </c>
       <c r="B1049">
@@ -34447,7 +34461,7 @@
     </row>
     <row r="1050" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1050" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43895</v>
       </c>
       <c r="B1050">
@@ -34468,7 +34482,7 @@
     </row>
     <row r="1051" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1051" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43896</v>
       </c>
       <c r="B1051">
@@ -34489,7 +34503,7 @@
     </row>
     <row r="1052" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1052" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43897</v>
       </c>
       <c r="B1052">
@@ -34510,7 +34524,7 @@
     </row>
     <row r="1053" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1053" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43898</v>
       </c>
       <c r="B1053">
@@ -34531,7 +34545,7 @@
     </row>
     <row r="1054" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1054" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43899</v>
       </c>
       <c r="B1054">
@@ -34559,8 +34573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08962E3B-BCA8-4339-9DB1-1A9FBD95342E}">
   <dimension ref="A2:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34578,7 +34592,7 @@
       <c r="E2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="26" t="s">
         <v>37</v>
       </c>
       <c r="G2" t="s">
@@ -34601,7 +34615,7 @@
       <c r="E3" s="10">
         <v>100</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="27">
         <v>100</v>
       </c>
       <c r="G3" s="10">
@@ -34625,8 +34639,8 @@
         <f>E3*(B4/100+1)</f>
         <v>121.10000000000001</v>
       </c>
-      <c r="F4" s="10">
-        <f t="shared" ref="F4:G10" si="0">C4/C3*F3</f>
+      <c r="F4" s="27">
+        <f t="shared" ref="F4:F10" si="0">C4/C3*F3</f>
         <v>121.0689956331878</v>
       </c>
       <c r="G4" s="10">
@@ -34651,7 +34665,7 @@
         <f t="shared" ref="E5:E10" si="1">E4*(B5/100+1)</f>
         <v>170.26660000000004</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="27">
         <f t="shared" si="0"/>
         <v>170.27074235807862</v>
       </c>
@@ -34677,7 +34691,7 @@
         <f t="shared" si="1"/>
         <v>276.17242520000002</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="27">
         <f t="shared" si="0"/>
         <v>276.12576419213974</v>
       </c>
@@ -34703,7 +34717,7 @@
         <f t="shared" si="1"/>
         <v>612.27426666840006</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="27">
         <f t="shared" si="0"/>
         <v>612.27598253275096</v>
       </c>
@@ -34729,7 +34743,7 @@
         <f t="shared" si="1"/>
         <v>2172.9613724061519</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="27">
         <f t="shared" si="0"/>
         <v>2173.2646288209598</v>
       </c>
@@ -34755,7 +34769,7 @@
         <f t="shared" si="1"/>
         <v>11692.705144917503</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="27">
         <f t="shared" si="0"/>
         <v>11694.710917030565</v>
       </c>
@@ -34781,7 +34795,7 @@
         <f t="shared" si="1"/>
         <v>7655693.4592884304</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="27">
         <f t="shared" si="0"/>
         <v>7657004.625327507</v>
       </c>

--- a/poverty_measurement/doc/lines comparison ppp.xlsx
+++ b/poverty_measurement/doc/lines comparison ppp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb563365\GitHub\VEN\poverty_measurement\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69195DEA-0D8E-429E-A528-0607C3DD8200}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECAE09D-3262-4ECB-A048-49FBB401FDBF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="canastas" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="84">
   <si>
     <t>lp_chi</t>
   </si>
@@ -294,9 +294,6 @@
   <si>
     <t>linea ppp11 mensual imf/ofi</t>
   </si>
-  <si>
-    <t>INFLACION 2018 a feb 2020</t>
-  </si>
 </sst>
 </file>
 
@@ -304,9 +301,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="174" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -353,7 +350,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,12 +369,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -393,20 +384,20 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -415,7 +406,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -431,11 +422,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1511,7 +1500,7 @@
     <worksheetSource ref="A1:F1054" sheet="infla verdadera"/>
   </cacheSource>
   <cacheFields count="8">
-    <cacheField name="fecha" numFmtId="164">
+    <cacheField name="fecha" numFmtId="169">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2017-04-22T00:00:00" maxDate="2020-03-10T00:00:00" count="1053">
         <d v="2017-04-22T00:00:00"/>
         <d v="2017-04-23T00:00:00"/>
@@ -11067,10 +11056,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{353E9152-6C64-43AA-B4BB-614E5549065A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{353E9152-6C64-43AA-B4BB-614E5549065A}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H6:I38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
-    <pivotField axis="axisRow" numFmtId="164" showAll="0">
+    <pivotField axis="axisRow" numFmtId="169" showAll="0">
       <items count="15">
         <item x="0"/>
         <item x="1"/>
@@ -11621,7 +11610,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12091,19 +12080,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B20">
-        <f t="shared" ref="B20:E21" si="8">B18/30.4</f>
+        <f>B18/30.4</f>
         <v>45.238315124569027</v>
       </c>
       <c r="C20">
-        <f t="shared" si="8"/>
+        <f>C18/30.4</f>
         <v>42.134637079893267</v>
       </c>
       <c r="D20">
-        <f t="shared" si="8"/>
+        <f>D18/30.4</f>
         <v>17.556098783288864</v>
       </c>
       <c r="E20">
-        <f t="shared" si="8"/>
+        <f>E18/30.4</f>
         <v>18.849306305274734</v>
       </c>
       <c r="F20" t="s">
@@ -12112,19 +12101,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B21">
-        <f t="shared" si="8"/>
+        <f>B19/30.4</f>
         <v>0.33889847423714348</v>
       </c>
       <c r="C21">
-        <f t="shared" si="8"/>
+        <f>C19/30.4</f>
         <v>0.29399184631146069</v>
       </c>
       <c r="D21">
-        <f t="shared" si="8"/>
+        <f>D19/30.4</f>
         <v>5.1040251095739696E-2</v>
       </c>
       <c r="E21">
-        <f t="shared" si="8"/>
+        <f>E19/30.4</f>
         <v>5.8836592710862404E-2</v>
       </c>
     </row>
@@ -12138,8 +12127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF1B70E-0803-43A5-B667-03EABF6A210D}">
   <dimension ref="A1:L1054"/>
   <sheetViews>
-    <sheetView topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12334,9 +12323,6 @@
       <c r="I8" s="6">
         <v>15222.797369863001</v>
       </c>
-      <c r="K8" s="26" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
@@ -12368,7 +12354,7 @@
         <f>AVERAGE(I9:I20)</f>
         <v>15124.625497951871</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9">
         <f>(J36/J9-1)</f>
         <v>1914.1229394276063</v>
       </c>
@@ -12763,7 +12749,7 @@
         <v>169340.82142857142</v>
       </c>
       <c r="K23">
-        <f t="shared" ref="K23:K33" si="1">I23/I22</f>
+        <f>I23/I22</f>
         <v>1.7778676523277666</v>
       </c>
     </row>
@@ -12794,7 +12780,7 @@
         <v>317481.25806451612</v>
       </c>
       <c r="K24">
-        <f t="shared" si="1"/>
+        <f>I24/I23</f>
         <v>1.874806413398856</v>
       </c>
     </row>
@@ -12825,7 +12811,7 @@
         <v>430295.13333333336</v>
       </c>
       <c r="K25">
-        <f t="shared" si="1"/>
+        <f>I25/I24</f>
         <v>1.3553402678210758</v>
       </c>
     </row>
@@ -12856,7 +12842,7 @@
         <v>517040.93548387097</v>
       </c>
       <c r="K26">
-        <f t="shared" si="1"/>
+        <f>I26/I25</f>
         <v>1.2015960568239541</v>
       </c>
     </row>
@@ -12887,7 +12873,7 @@
         <v>735854.9</v>
       </c>
       <c r="K27">
-        <f t="shared" si="1"/>
+        <f>I27/I26</f>
         <v>1.4232043335434412</v>
       </c>
     </row>
@@ -12918,7 +12904,7 @@
         <v>1029113.7096774194</v>
       </c>
       <c r="K28">
-        <f t="shared" si="1"/>
+        <f>I28/I27</f>
         <v>1.3985280381735847</v>
       </c>
     </row>
@@ -12949,7 +12935,7 @@
         <v>1670967.7419354839</v>
       </c>
       <c r="K29">
-        <f t="shared" si="1"/>
+        <f>I29/I28</f>
         <v>1.6236959300243476</v>
       </c>
     </row>
@@ -12980,7 +12966,7 @@
         <v>2563333.3333333335</v>
       </c>
       <c r="K30">
-        <f t="shared" si="1"/>
+        <f>I30/I29</f>
         <v>1.5340411840411841</v>
       </c>
     </row>
@@ -13011,7 +12997,7 @@
         <v>4016129.0322580645</v>
       </c>
       <c r="K31">
-        <f t="shared" si="1"/>
+        <f>I31/I30</f>
         <v>1.5667603506858507</v>
       </c>
     </row>
@@ -13042,7 +13028,7 @@
         <v>5640000</v>
       </c>
       <c r="K32">
-        <f t="shared" si="1"/>
+        <f>I32/I31</f>
         <v>1.4043373493975904</v>
       </c>
     </row>
@@ -13073,7 +13059,7 @@
         <v>8009677.4193548383</v>
       </c>
       <c r="K33">
-        <f t="shared" si="1"/>
+        <f>I33/I32</f>
         <v>1.4201555708075955</v>
       </c>
     </row>
@@ -13818,7 +13804,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
-        <f t="shared" ref="A67:A130" si="2">DATE(D67,C67,B67)</f>
+        <f t="shared" ref="A67:A130" si="1">DATE(D67,C67,B67)</f>
         <v>42912</v>
       </c>
       <c r="B67">
@@ -13839,7 +13825,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42913</v>
       </c>
       <c r="B68">
@@ -13860,7 +13846,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42914</v>
       </c>
       <c r="B69">
@@ -13881,7 +13867,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42915</v>
       </c>
       <c r="B70">
@@ -13902,7 +13888,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42916</v>
       </c>
       <c r="B71">
@@ -13923,7 +13909,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42917</v>
       </c>
       <c r="B72">
@@ -13944,7 +13930,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42918</v>
       </c>
       <c r="B73">
@@ -13965,7 +13951,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42919</v>
       </c>
       <c r="B74">
@@ -13986,7 +13972,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42920</v>
       </c>
       <c r="B75">
@@ -14007,7 +13993,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42921</v>
       </c>
       <c r="B76">
@@ -14028,7 +14014,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42922</v>
       </c>
       <c r="B77">
@@ -14049,7 +14035,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42923</v>
       </c>
       <c r="B78">
@@ -14070,7 +14056,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42924</v>
       </c>
       <c r="B79">
@@ -14091,7 +14077,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42925</v>
       </c>
       <c r="B80">
@@ -14112,7 +14098,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42926</v>
       </c>
       <c r="B81">
@@ -14133,7 +14119,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42927</v>
       </c>
       <c r="B82">
@@ -14154,7 +14140,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42928</v>
       </c>
       <c r="B83">
@@ -14175,7 +14161,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42929</v>
       </c>
       <c r="B84">
@@ -14196,7 +14182,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42930</v>
       </c>
       <c r="B85">
@@ -14217,7 +14203,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42931</v>
       </c>
       <c r="B86">
@@ -14238,7 +14224,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42932</v>
       </c>
       <c r="B87">
@@ -14259,7 +14245,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42933</v>
       </c>
       <c r="B88">
@@ -14280,7 +14266,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42934</v>
       </c>
       <c r="B89">
@@ -14301,7 +14287,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42935</v>
       </c>
       <c r="B90">
@@ -14322,7 +14308,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42936</v>
       </c>
       <c r="B91">
@@ -14343,7 +14329,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42937</v>
       </c>
       <c r="B92">
@@ -14364,7 +14350,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42938</v>
       </c>
       <c r="B93">
@@ -14385,7 +14371,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42939</v>
       </c>
       <c r="B94">
@@ -14406,7 +14392,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42940</v>
       </c>
       <c r="B95">
@@ -14427,7 +14413,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42941</v>
       </c>
       <c r="B96">
@@ -14448,7 +14434,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42942</v>
       </c>
       <c r="B97">
@@ -14469,7 +14455,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42943</v>
       </c>
       <c r="B98">
@@ -14490,7 +14476,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42944</v>
       </c>
       <c r="B99">
@@ -14511,7 +14497,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42945</v>
       </c>
       <c r="B100">
@@ -14532,7 +14518,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42946</v>
       </c>
       <c r="B101">
@@ -14553,7 +14539,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42947</v>
       </c>
       <c r="B102">
@@ -14574,7 +14560,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42948</v>
       </c>
       <c r="B103">
@@ -14595,7 +14581,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42949</v>
       </c>
       <c r="B104">
@@ -14616,7 +14602,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42950</v>
       </c>
       <c r="B105">
@@ -14637,7 +14623,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42951</v>
       </c>
       <c r="B106">
@@ -14658,7 +14644,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42952</v>
       </c>
       <c r="B107">
@@ -14679,7 +14665,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42953</v>
       </c>
       <c r="B108">
@@ -14700,7 +14686,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42954</v>
       </c>
       <c r="B109">
@@ -14721,7 +14707,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42955</v>
       </c>
       <c r="B110">
@@ -14742,7 +14728,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42956</v>
       </c>
       <c r="B111">
@@ -14763,7 +14749,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42957</v>
       </c>
       <c r="B112">
@@ -14784,7 +14770,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42958</v>
       </c>
       <c r="B113">
@@ -14805,7 +14791,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42959</v>
       </c>
       <c r="B114">
@@ -14826,7 +14812,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42960</v>
       </c>
       <c r="B115">
@@ -14847,7 +14833,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42961</v>
       </c>
       <c r="B116">
@@ -14868,7 +14854,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42962</v>
       </c>
       <c r="B117">
@@ -14889,7 +14875,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42963</v>
       </c>
       <c r="B118">
@@ -14910,7 +14896,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42964</v>
       </c>
       <c r="B119">
@@ -14931,7 +14917,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42965</v>
       </c>
       <c r="B120">
@@ -14952,7 +14938,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42966</v>
       </c>
       <c r="B121">
@@ -14973,7 +14959,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42967</v>
       </c>
       <c r="B122">
@@ -14994,7 +14980,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42968</v>
       </c>
       <c r="B123">
@@ -15015,7 +15001,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42969</v>
       </c>
       <c r="B124">
@@ -15036,7 +15022,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42970</v>
       </c>
       <c r="B125">
@@ -15057,7 +15043,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42971</v>
       </c>
       <c r="B126">
@@ -15078,7 +15064,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42972</v>
       </c>
       <c r="B127">
@@ -15099,7 +15085,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42973</v>
       </c>
       <c r="B128">
@@ -15120,7 +15106,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42974</v>
       </c>
       <c r="B129">
@@ -15141,7 +15127,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42975</v>
       </c>
       <c r="B130">
@@ -15162,7 +15148,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
-        <f t="shared" ref="A131:A194" si="3">DATE(D131,C131,B131)</f>
+        <f t="shared" ref="A131:A194" si="2">DATE(D131,C131,B131)</f>
         <v>42976</v>
       </c>
       <c r="B131">
@@ -15183,7 +15169,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>42977</v>
       </c>
       <c r="B132">
@@ -15204,7 +15190,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>42978</v>
       </c>
       <c r="B133">
@@ -15225,7 +15211,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>42979</v>
       </c>
       <c r="B134">
@@ -15246,7 +15232,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>42980</v>
       </c>
       <c r="B135">
@@ -15267,7 +15253,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>42981</v>
       </c>
       <c r="B136">
@@ -15288,7 +15274,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>42982</v>
       </c>
       <c r="B137">
@@ -15309,7 +15295,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>42983</v>
       </c>
       <c r="B138">
@@ -15330,7 +15316,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>42984</v>
       </c>
       <c r="B139">
@@ -15351,7 +15337,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>42985</v>
       </c>
       <c r="B140">
@@ -15372,7 +15358,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>42986</v>
       </c>
       <c r="B141">
@@ -15393,7 +15379,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>42987</v>
       </c>
       <c r="B142">
@@ -15414,7 +15400,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>42988</v>
       </c>
       <c r="B143">
@@ -15435,7 +15421,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>42989</v>
       </c>
       <c r="B144">
@@ -15456,7 +15442,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>42990</v>
       </c>
       <c r="B145">
@@ -15477,7 +15463,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>42991</v>
       </c>
       <c r="B146">
@@ -15498,7 +15484,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>42992</v>
       </c>
       <c r="B147">
@@ -15519,7 +15505,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>42993</v>
       </c>
       <c r="B148">
@@ -15540,7 +15526,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>42994</v>
       </c>
       <c r="B149">
@@ -15561,7 +15547,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>42995</v>
       </c>
       <c r="B150">
@@ -15582,7 +15568,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>42996</v>
       </c>
       <c r="B151">
@@ -15603,7 +15589,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>42997</v>
       </c>
       <c r="B152">
@@ -15624,7 +15610,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>42998</v>
       </c>
       <c r="B153">
@@ -15645,7 +15631,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>42999</v>
       </c>
       <c r="B154">
@@ -15666,7 +15652,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43000</v>
       </c>
       <c r="B155">
@@ -15687,7 +15673,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43001</v>
       </c>
       <c r="B156">
@@ -15708,7 +15694,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43002</v>
       </c>
       <c r="B157">
@@ -15729,7 +15715,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43003</v>
       </c>
       <c r="B158">
@@ -15750,7 +15736,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43004</v>
       </c>
       <c r="B159">
@@ -15771,7 +15757,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43005</v>
       </c>
       <c r="B160">
@@ -15792,7 +15778,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43006</v>
       </c>
       <c r="B161">
@@ -15813,7 +15799,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43007</v>
       </c>
       <c r="B162">
@@ -15834,7 +15820,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43008</v>
       </c>
       <c r="B163">
@@ -15855,7 +15841,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43009</v>
       </c>
       <c r="B164">
@@ -15876,7 +15862,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43010</v>
       </c>
       <c r="B165">
@@ -15897,7 +15883,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43011</v>
       </c>
       <c r="B166">
@@ -15918,7 +15904,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43012</v>
       </c>
       <c r="B167">
@@ -15939,7 +15925,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43013</v>
       </c>
       <c r="B168">
@@ -15960,7 +15946,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43014</v>
       </c>
       <c r="B169">
@@ -15981,7 +15967,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43015</v>
       </c>
       <c r="B170">
@@ -16002,7 +15988,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43016</v>
       </c>
       <c r="B171">
@@ -16023,7 +16009,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43017</v>
       </c>
       <c r="B172">
@@ -16044,7 +16030,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43018</v>
       </c>
       <c r="B173">
@@ -16065,7 +16051,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43019</v>
       </c>
       <c r="B174">
@@ -16086,7 +16072,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43020</v>
       </c>
       <c r="B175">
@@ -16107,7 +16093,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43021</v>
       </c>
       <c r="B176">
@@ -16128,7 +16114,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43022</v>
       </c>
       <c r="B177">
@@ -16149,7 +16135,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43023</v>
       </c>
       <c r="B178">
@@ -16170,7 +16156,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43024</v>
       </c>
       <c r="B179">
@@ -16191,7 +16177,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43025</v>
       </c>
       <c r="B180">
@@ -16212,7 +16198,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43026</v>
       </c>
       <c r="B181">
@@ -16233,7 +16219,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43027</v>
       </c>
       <c r="B182">
@@ -16254,7 +16240,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43028</v>
       </c>
       <c r="B183">
@@ -16275,7 +16261,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43029</v>
       </c>
       <c r="B184">
@@ -16296,7 +16282,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43030</v>
       </c>
       <c r="B185">
@@ -16317,7 +16303,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43031</v>
       </c>
       <c r="B186">
@@ -16338,7 +16324,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43032</v>
       </c>
       <c r="B187">
@@ -16359,7 +16345,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43033</v>
       </c>
       <c r="B188">
@@ -16380,7 +16366,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43034</v>
       </c>
       <c r="B189">
@@ -16401,7 +16387,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43035</v>
       </c>
       <c r="B190">
@@ -16422,7 +16408,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43036</v>
       </c>
       <c r="B191">
@@ -16443,7 +16429,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43037</v>
       </c>
       <c r="B192">
@@ -16464,7 +16450,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43038</v>
       </c>
       <c r="B193">
@@ -16485,7 +16471,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43039</v>
       </c>
       <c r="B194">
@@ -16506,7 +16492,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="3">
-        <f t="shared" ref="A195:A258" si="4">DATE(D195,C195,B195)</f>
+        <f t="shared" ref="A195:A258" si="3">DATE(D195,C195,B195)</f>
         <v>43040</v>
       </c>
       <c r="B195">
@@ -16527,7 +16513,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43041</v>
       </c>
       <c r="B196">
@@ -16548,7 +16534,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43042</v>
       </c>
       <c r="B197">
@@ -16569,7 +16555,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43043</v>
       </c>
       <c r="B198">
@@ -16590,7 +16576,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43044</v>
       </c>
       <c r="B199">
@@ -16611,7 +16597,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43045</v>
       </c>
       <c r="B200">
@@ -16632,7 +16618,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43046</v>
       </c>
       <c r="B201">
@@ -16653,7 +16639,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43047</v>
       </c>
       <c r="B202">
@@ -16674,7 +16660,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43048</v>
       </c>
       <c r="B203">
@@ -16695,7 +16681,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43049</v>
       </c>
       <c r="B204">
@@ -16716,7 +16702,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43050</v>
       </c>
       <c r="B205">
@@ -16737,7 +16723,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43051</v>
       </c>
       <c r="B206">
@@ -16758,7 +16744,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43052</v>
       </c>
       <c r="B207">
@@ -16779,7 +16765,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43053</v>
       </c>
       <c r="B208">
@@ -16800,7 +16786,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43054</v>
       </c>
       <c r="B209">
@@ -16821,7 +16807,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43055</v>
       </c>
       <c r="B210">
@@ -16842,7 +16828,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43056</v>
       </c>
       <c r="B211">
@@ -16863,7 +16849,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43057</v>
       </c>
       <c r="B212">
@@ -16884,7 +16870,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43058</v>
       </c>
       <c r="B213">
@@ -16905,7 +16891,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43059</v>
       </c>
       <c r="B214">
@@ -16926,7 +16912,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43060</v>
       </c>
       <c r="B215">
@@ -16947,7 +16933,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43061</v>
       </c>
       <c r="B216">
@@ -16968,7 +16954,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43062</v>
       </c>
       <c r="B217">
@@ -16989,7 +16975,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43063</v>
       </c>
       <c r="B218">
@@ -17010,7 +16996,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43064</v>
       </c>
       <c r="B219">
@@ -17031,7 +17017,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43065</v>
       </c>
       <c r="B220">
@@ -17052,7 +17038,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43066</v>
       </c>
       <c r="B221">
@@ -17073,7 +17059,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43067</v>
       </c>
       <c r="B222">
@@ -17094,7 +17080,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43068</v>
       </c>
       <c r="B223">
@@ -17115,7 +17101,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43069</v>
       </c>
       <c r="B224">
@@ -17136,7 +17122,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43070</v>
       </c>
       <c r="B225">
@@ -17157,7 +17143,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43071</v>
       </c>
       <c r="B226">
@@ -17178,7 +17164,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43072</v>
       </c>
       <c r="B227">
@@ -17199,7 +17185,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43073</v>
       </c>
       <c r="B228">
@@ -17220,7 +17206,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43074</v>
       </c>
       <c r="B229">
@@ -17241,7 +17227,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43075</v>
       </c>
       <c r="B230">
@@ -17262,7 +17248,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43076</v>
       </c>
       <c r="B231">
@@ -17283,7 +17269,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43077</v>
       </c>
       <c r="B232">
@@ -17304,7 +17290,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43078</v>
       </c>
       <c r="B233">
@@ -17325,7 +17311,7 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43079</v>
       </c>
       <c r="B234">
@@ -17346,7 +17332,7 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43080</v>
       </c>
       <c r="B235">
@@ -17367,7 +17353,7 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43081</v>
       </c>
       <c r="B236">
@@ -17388,7 +17374,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43082</v>
       </c>
       <c r="B237">
@@ -17409,7 +17395,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43083</v>
       </c>
       <c r="B238">
@@ -17430,7 +17416,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43084</v>
       </c>
       <c r="B239">
@@ -17451,7 +17437,7 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43085</v>
       </c>
       <c r="B240">
@@ -17472,7 +17458,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43086</v>
       </c>
       <c r="B241">
@@ -17493,7 +17479,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43087</v>
       </c>
       <c r="B242">
@@ -17514,7 +17500,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43088</v>
       </c>
       <c r="B243">
@@ -17535,7 +17521,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43089</v>
       </c>
       <c r="B244">
@@ -17556,7 +17542,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43090</v>
       </c>
       <c r="B245">
@@ -17577,7 +17563,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43091</v>
       </c>
       <c r="B246">
@@ -17598,7 +17584,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43092</v>
       </c>
       <c r="B247">
@@ -17619,7 +17605,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43093</v>
       </c>
       <c r="B248">
@@ -17640,7 +17626,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43094</v>
       </c>
       <c r="B249">
@@ -17661,7 +17647,7 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43095</v>
       </c>
       <c r="B250">
@@ -17682,7 +17668,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43096</v>
       </c>
       <c r="B251">
@@ -17703,7 +17689,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43097</v>
       </c>
       <c r="B252">
@@ -17724,7 +17710,7 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43098</v>
       </c>
       <c r="B253">
@@ -17745,7 +17731,7 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43099</v>
       </c>
       <c r="B254">
@@ -17766,7 +17752,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43100</v>
       </c>
       <c r="B255">
@@ -17787,7 +17773,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43101</v>
       </c>
       <c r="B256">
@@ -17808,7 +17794,7 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43102</v>
       </c>
       <c r="B257">
@@ -17829,7 +17815,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43103</v>
       </c>
       <c r="B258">
@@ -17850,7 +17836,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" s="3">
-        <f t="shared" ref="A259:A322" si="5">DATE(D259,C259,B259)</f>
+        <f t="shared" ref="A259:A322" si="4">DATE(D259,C259,B259)</f>
         <v>43104</v>
       </c>
       <c r="B259">
@@ -17871,7 +17857,7 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43105</v>
       </c>
       <c r="B260">
@@ -17892,7 +17878,7 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43106</v>
       </c>
       <c r="B261">
@@ -17913,7 +17899,7 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43107</v>
       </c>
       <c r="B262">
@@ -17934,7 +17920,7 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43108</v>
       </c>
       <c r="B263">
@@ -17955,7 +17941,7 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43109</v>
       </c>
       <c r="B264">
@@ -17976,7 +17962,7 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43110</v>
       </c>
       <c r="B265">
@@ -17997,7 +17983,7 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43111</v>
       </c>
       <c r="B266">
@@ -18018,7 +18004,7 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43112</v>
       </c>
       <c r="B267">
@@ -18039,7 +18025,7 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43113</v>
       </c>
       <c r="B268">
@@ -18060,7 +18046,7 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43114</v>
       </c>
       <c r="B269">
@@ -18081,7 +18067,7 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43115</v>
       </c>
       <c r="B270">
@@ -18102,7 +18088,7 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43116</v>
       </c>
       <c r="B271">
@@ -18123,7 +18109,7 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43117</v>
       </c>
       <c r="B272">
@@ -18144,7 +18130,7 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43118</v>
       </c>
       <c r="B273">
@@ -18165,7 +18151,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43119</v>
       </c>
       <c r="B274">
@@ -18186,7 +18172,7 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43120</v>
       </c>
       <c r="B275">
@@ -18207,7 +18193,7 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43121</v>
       </c>
       <c r="B276">
@@ -18228,7 +18214,7 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43122</v>
       </c>
       <c r="B277">
@@ -18249,7 +18235,7 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43123</v>
       </c>
       <c r="B278">
@@ -18270,7 +18256,7 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43124</v>
       </c>
       <c r="B279">
@@ -18291,7 +18277,7 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43125</v>
       </c>
       <c r="B280">
@@ -18312,7 +18298,7 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43126</v>
       </c>
       <c r="B281">
@@ -18333,7 +18319,7 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43127</v>
       </c>
       <c r="B282">
@@ -18354,7 +18340,7 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43128</v>
       </c>
       <c r="B283">
@@ -18375,7 +18361,7 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43129</v>
       </c>
       <c r="B284">
@@ -18396,7 +18382,7 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43130</v>
       </c>
       <c r="B285">
@@ -18417,7 +18403,7 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43131</v>
       </c>
       <c r="B286">
@@ -18438,7 +18424,7 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43132</v>
       </c>
       <c r="B287">
@@ -18459,7 +18445,7 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43133</v>
       </c>
       <c r="B288">
@@ -18480,7 +18466,7 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43134</v>
       </c>
       <c r="B289">
@@ -18501,7 +18487,7 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43135</v>
       </c>
       <c r="B290">
@@ -18522,7 +18508,7 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43136</v>
       </c>
       <c r="B291">
@@ -18543,7 +18529,7 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43137</v>
       </c>
       <c r="B292">
@@ -18564,7 +18550,7 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43138</v>
       </c>
       <c r="B293">
@@ -18585,7 +18571,7 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43139</v>
       </c>
       <c r="B294">
@@ -18606,7 +18592,7 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43140</v>
       </c>
       <c r="B295">
@@ -18627,7 +18613,7 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43141</v>
       </c>
       <c r="B296">
@@ -18648,7 +18634,7 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43142</v>
       </c>
       <c r="B297">
@@ -18669,7 +18655,7 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43143</v>
       </c>
       <c r="B298">
@@ -18690,7 +18676,7 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43144</v>
       </c>
       <c r="B299">
@@ -18711,7 +18697,7 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43145</v>
       </c>
       <c r="B300">
@@ -18732,7 +18718,7 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43146</v>
       </c>
       <c r="B301">
@@ -18753,7 +18739,7 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43147</v>
       </c>
       <c r="B302">
@@ -18774,7 +18760,7 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43148</v>
       </c>
       <c r="B303">
@@ -18795,7 +18781,7 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43149</v>
       </c>
       <c r="B304">
@@ -18816,7 +18802,7 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43150</v>
       </c>
       <c r="B305">
@@ -18837,7 +18823,7 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43151</v>
       </c>
       <c r="B306">
@@ -18858,7 +18844,7 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43152</v>
       </c>
       <c r="B307">
@@ -18879,7 +18865,7 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43153</v>
       </c>
       <c r="B308">
@@ -18900,7 +18886,7 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43154</v>
       </c>
       <c r="B309">
@@ -18921,7 +18907,7 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43155</v>
       </c>
       <c r="B310">
@@ -18942,7 +18928,7 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43156</v>
       </c>
       <c r="B311">
@@ -18963,7 +18949,7 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43157</v>
       </c>
       <c r="B312">
@@ -18984,7 +18970,7 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43158</v>
       </c>
       <c r="B313">
@@ -19005,7 +18991,7 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43159</v>
       </c>
       <c r="B314">
@@ -19026,7 +19012,7 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43160</v>
       </c>
       <c r="B315">
@@ -19047,7 +19033,7 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43161</v>
       </c>
       <c r="B316">
@@ -19068,7 +19054,7 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43162</v>
       </c>
       <c r="B317">
@@ -19089,7 +19075,7 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43163</v>
       </c>
       <c r="B318">
@@ -19110,7 +19096,7 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43164</v>
       </c>
       <c r="B319">
@@ -19131,7 +19117,7 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43165</v>
       </c>
       <c r="B320">
@@ -19152,7 +19138,7 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43166</v>
       </c>
       <c r="B321">
@@ -19173,7 +19159,7 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43167</v>
       </c>
       <c r="B322">
@@ -19194,7 +19180,7 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" s="3">
-        <f t="shared" ref="A323:A386" si="6">DATE(D323,C323,B323)</f>
+        <f t="shared" ref="A323:A386" si="5">DATE(D323,C323,B323)</f>
         <v>43168</v>
       </c>
       <c r="B323">
@@ -19215,7 +19201,7 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43169</v>
       </c>
       <c r="B324">
@@ -19236,7 +19222,7 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43170</v>
       </c>
       <c r="B325">
@@ -19257,7 +19243,7 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43171</v>
       </c>
       <c r="B326">
@@ -19278,7 +19264,7 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43172</v>
       </c>
       <c r="B327">
@@ -19299,7 +19285,7 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43173</v>
       </c>
       <c r="B328">
@@ -19320,7 +19306,7 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43174</v>
       </c>
       <c r="B329">
@@ -19341,7 +19327,7 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43175</v>
       </c>
       <c r="B330">
@@ -19362,7 +19348,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43176</v>
       </c>
       <c r="B331">
@@ -19383,7 +19369,7 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43177</v>
       </c>
       <c r="B332">
@@ -19404,7 +19390,7 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43178</v>
       </c>
       <c r="B333">
@@ -19425,7 +19411,7 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43179</v>
       </c>
       <c r="B334">
@@ -19446,7 +19432,7 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43180</v>
       </c>
       <c r="B335">
@@ -19467,7 +19453,7 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43181</v>
       </c>
       <c r="B336">
@@ -19488,7 +19474,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43182</v>
       </c>
       <c r="B337">
@@ -19509,7 +19495,7 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43183</v>
       </c>
       <c r="B338">
@@ -19530,7 +19516,7 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43184</v>
       </c>
       <c r="B339">
@@ -19551,7 +19537,7 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43185</v>
       </c>
       <c r="B340">
@@ -19572,7 +19558,7 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43186</v>
       </c>
       <c r="B341">
@@ -19593,7 +19579,7 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43187</v>
       </c>
       <c r="B342">
@@ -19614,7 +19600,7 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43188</v>
       </c>
       <c r="B343">
@@ -19635,7 +19621,7 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43189</v>
       </c>
       <c r="B344">
@@ -19656,7 +19642,7 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43190</v>
       </c>
       <c r="B345">
@@ -19677,7 +19663,7 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43191</v>
       </c>
       <c r="B346">
@@ -19698,7 +19684,7 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43192</v>
       </c>
       <c r="B347">
@@ -19719,7 +19705,7 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43193</v>
       </c>
       <c r="B348">
@@ -19740,7 +19726,7 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43194</v>
       </c>
       <c r="B349">
@@ -19761,7 +19747,7 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43195</v>
       </c>
       <c r="B350">
@@ -19782,7 +19768,7 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43196</v>
       </c>
       <c r="B351">
@@ -19803,7 +19789,7 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43197</v>
       </c>
       <c r="B352">
@@ -19824,7 +19810,7 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43198</v>
       </c>
       <c r="B353">
@@ -19845,7 +19831,7 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43199</v>
       </c>
       <c r="B354">
@@ -19866,7 +19852,7 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43200</v>
       </c>
       <c r="B355">
@@ -19887,7 +19873,7 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43201</v>
       </c>
       <c r="B356">
@@ -19908,7 +19894,7 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43202</v>
       </c>
       <c r="B357">
@@ -19929,7 +19915,7 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A358" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43203</v>
       </c>
       <c r="B358">
@@ -19950,7 +19936,7 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A359" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43204</v>
       </c>
       <c r="B359">
@@ -19971,7 +19957,7 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A360" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43205</v>
       </c>
       <c r="B360">
@@ -19992,7 +19978,7 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A361" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43206</v>
       </c>
       <c r="B361">
@@ -20013,7 +19999,7 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A362" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43207</v>
       </c>
       <c r="B362">
@@ -20034,7 +20020,7 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A363" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43208</v>
       </c>
       <c r="B363">
@@ -20055,7 +20041,7 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A364" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43209</v>
       </c>
       <c r="B364">
@@ -20076,7 +20062,7 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A365" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43210</v>
       </c>
       <c r="B365">
@@ -20097,7 +20083,7 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A366" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43211</v>
       </c>
       <c r="B366">
@@ -20118,7 +20104,7 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A367" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43212</v>
       </c>
       <c r="B367">
@@ -20139,7 +20125,7 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A368" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43213</v>
       </c>
       <c r="B368">
@@ -20160,7 +20146,7 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A369" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43214</v>
       </c>
       <c r="B369">
@@ -20181,7 +20167,7 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43215</v>
       </c>
       <c r="B370">
@@ -20202,7 +20188,7 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43216</v>
       </c>
       <c r="B371">
@@ -20223,7 +20209,7 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A372" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43217</v>
       </c>
       <c r="B372">
@@ -20244,7 +20230,7 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43218</v>
       </c>
       <c r="B373">
@@ -20265,7 +20251,7 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43219</v>
       </c>
       <c r="B374">
@@ -20286,7 +20272,7 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43220</v>
       </c>
       <c r="B375">
@@ -20307,7 +20293,7 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A376" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43221</v>
       </c>
       <c r="B376">
@@ -20328,7 +20314,7 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43222</v>
       </c>
       <c r="B377">
@@ -20349,7 +20335,7 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43223</v>
       </c>
       <c r="B378">
@@ -20370,7 +20356,7 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43224</v>
       </c>
       <c r="B379">
@@ -20391,7 +20377,7 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43225</v>
       </c>
       <c r="B380">
@@ -20412,7 +20398,7 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A381" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43226</v>
       </c>
       <c r="B381">
@@ -20433,7 +20419,7 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A382" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43227</v>
       </c>
       <c r="B382">
@@ -20454,7 +20440,7 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A383" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43228</v>
       </c>
       <c r="B383">
@@ -20475,7 +20461,7 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A384" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43229</v>
       </c>
       <c r="B384">
@@ -20496,7 +20482,7 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A385" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43230</v>
       </c>
       <c r="B385">
@@ -20517,7 +20503,7 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A386" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43231</v>
       </c>
       <c r="B386">
@@ -20538,7 +20524,7 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A387" s="3">
-        <f t="shared" ref="A387:A450" si="7">DATE(D387,C387,B387)</f>
+        <f t="shared" ref="A387:A450" si="6">DATE(D387,C387,B387)</f>
         <v>43232</v>
       </c>
       <c r="B387">
@@ -20559,7 +20545,7 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A388" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43233</v>
       </c>
       <c r="B388">
@@ -20580,7 +20566,7 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A389" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43234</v>
       </c>
       <c r="B389">
@@ -20601,7 +20587,7 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A390" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43235</v>
       </c>
       <c r="B390">
@@ -20622,7 +20608,7 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A391" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43236</v>
       </c>
       <c r="B391">
@@ -20643,7 +20629,7 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A392" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43237</v>
       </c>
       <c r="B392">
@@ -20664,7 +20650,7 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A393" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43238</v>
       </c>
       <c r="B393">
@@ -20685,7 +20671,7 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A394" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43239</v>
       </c>
       <c r="B394">
@@ -20706,7 +20692,7 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A395" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43240</v>
       </c>
       <c r="B395">
@@ -20727,7 +20713,7 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A396" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43241</v>
       </c>
       <c r="B396">
@@ -20748,7 +20734,7 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A397" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43242</v>
       </c>
       <c r="B397">
@@ -20769,7 +20755,7 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A398" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43243</v>
       </c>
       <c r="B398">
@@ -20790,7 +20776,7 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A399" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43244</v>
       </c>
       <c r="B399">
@@ -20811,7 +20797,7 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A400" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43245</v>
       </c>
       <c r="B400">
@@ -20832,7 +20818,7 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A401" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43246</v>
       </c>
       <c r="B401">
@@ -20853,7 +20839,7 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A402" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43247</v>
       </c>
       <c r="B402">
@@ -20874,7 +20860,7 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A403" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43248</v>
       </c>
       <c r="B403">
@@ -20895,7 +20881,7 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A404" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43249</v>
       </c>
       <c r="B404">
@@ -20916,7 +20902,7 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A405" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43250</v>
       </c>
       <c r="B405">
@@ -20937,7 +20923,7 @@
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A406" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43251</v>
       </c>
       <c r="B406">
@@ -20958,7 +20944,7 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A407" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43252</v>
       </c>
       <c r="B407">
@@ -20979,7 +20965,7 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A408" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43253</v>
       </c>
       <c r="B408">
@@ -21000,7 +20986,7 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A409" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43254</v>
       </c>
       <c r="B409">
@@ -21021,7 +21007,7 @@
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A410" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43255</v>
       </c>
       <c r="B410">
@@ -21042,7 +21028,7 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A411" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43256</v>
       </c>
       <c r="B411">
@@ -21063,7 +21049,7 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A412" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43257</v>
       </c>
       <c r="B412">
@@ -21084,7 +21070,7 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A413" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43258</v>
       </c>
       <c r="B413">
@@ -21105,7 +21091,7 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A414" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43259</v>
       </c>
       <c r="B414">
@@ -21126,7 +21112,7 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A415" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43260</v>
       </c>
       <c r="B415">
@@ -21147,7 +21133,7 @@
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A416" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43261</v>
       </c>
       <c r="B416">
@@ -21168,7 +21154,7 @@
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A417" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43262</v>
       </c>
       <c r="B417">
@@ -21189,7 +21175,7 @@
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A418" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43263</v>
       </c>
       <c r="B418">
@@ -21210,7 +21196,7 @@
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A419" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43264</v>
       </c>
       <c r="B419">
@@ -21231,7 +21217,7 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A420" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43265</v>
       </c>
       <c r="B420">
@@ -21252,7 +21238,7 @@
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A421" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43266</v>
       </c>
       <c r="B421">
@@ -21273,7 +21259,7 @@
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A422" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43267</v>
       </c>
       <c r="B422">
@@ -21294,7 +21280,7 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A423" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43268</v>
       </c>
       <c r="B423">
@@ -21315,7 +21301,7 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A424" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43269</v>
       </c>
       <c r="B424">
@@ -21336,7 +21322,7 @@
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A425" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43270</v>
       </c>
       <c r="B425">
@@ -21357,7 +21343,7 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A426" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43271</v>
       </c>
       <c r="B426">
@@ -21378,7 +21364,7 @@
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A427" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43272</v>
       </c>
       <c r="B427">
@@ -21399,7 +21385,7 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A428" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43273</v>
       </c>
       <c r="B428">
@@ -21420,7 +21406,7 @@
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A429" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43274</v>
       </c>
       <c r="B429">
@@ -21441,7 +21427,7 @@
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A430" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43275</v>
       </c>
       <c r="B430">
@@ -21462,7 +21448,7 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A431" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43276</v>
       </c>
       <c r="B431">
@@ -21483,7 +21469,7 @@
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A432" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43277</v>
       </c>
       <c r="B432">
@@ -21504,7 +21490,7 @@
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A433" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43278</v>
       </c>
       <c r="B433">
@@ -21525,7 +21511,7 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A434" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43279</v>
       </c>
       <c r="B434">
@@ -21546,7 +21532,7 @@
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A435" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43280</v>
       </c>
       <c r="B435">
@@ -21567,7 +21553,7 @@
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A436" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43281</v>
       </c>
       <c r="B436">
@@ -21588,7 +21574,7 @@
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A437" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43282</v>
       </c>
       <c r="B437">
@@ -21609,7 +21595,7 @@
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A438" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43283</v>
       </c>
       <c r="B438">
@@ -21630,7 +21616,7 @@
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A439" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43284</v>
       </c>
       <c r="B439">
@@ -21651,7 +21637,7 @@
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A440" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43285</v>
       </c>
       <c r="B440">
@@ -21672,7 +21658,7 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A441" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43286</v>
       </c>
       <c r="B441">
@@ -21693,7 +21679,7 @@
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A442" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43287</v>
       </c>
       <c r="B442">
@@ -21714,7 +21700,7 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A443" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43288</v>
       </c>
       <c r="B443">
@@ -21735,7 +21721,7 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A444" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43289</v>
       </c>
       <c r="B444">
@@ -21756,7 +21742,7 @@
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A445" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43290</v>
       </c>
       <c r="B445">
@@ -21777,7 +21763,7 @@
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A446" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43291</v>
       </c>
       <c r="B446">
@@ -21798,7 +21784,7 @@
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A447" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43292</v>
       </c>
       <c r="B447">
@@ -21819,7 +21805,7 @@
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A448" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43293</v>
       </c>
       <c r="B448">
@@ -21840,7 +21826,7 @@
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A449" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43294</v>
       </c>
       <c r="B449">
@@ -21861,7 +21847,7 @@
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A450" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>43295</v>
       </c>
       <c r="B450">
@@ -21882,7 +21868,7 @@
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A451" s="3">
-        <f t="shared" ref="A451:A514" si="8">DATE(D451,C451,B451)</f>
+        <f t="shared" ref="A451:A514" si="7">DATE(D451,C451,B451)</f>
         <v>43296</v>
       </c>
       <c r="B451">
@@ -21903,7 +21889,7 @@
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A452" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43297</v>
       </c>
       <c r="B452">
@@ -21924,7 +21910,7 @@
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A453" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43298</v>
       </c>
       <c r="B453">
@@ -21945,7 +21931,7 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A454" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43299</v>
       </c>
       <c r="B454">
@@ -21966,7 +21952,7 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A455" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43300</v>
       </c>
       <c r="B455">
@@ -21987,7 +21973,7 @@
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A456" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43301</v>
       </c>
       <c r="B456">
@@ -22008,7 +21994,7 @@
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A457" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43302</v>
       </c>
       <c r="B457">
@@ -22029,7 +22015,7 @@
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A458" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43303</v>
       </c>
       <c r="B458">
@@ -22050,7 +22036,7 @@
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A459" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43304</v>
       </c>
       <c r="B459">
@@ -22071,7 +22057,7 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A460" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43305</v>
       </c>
       <c r="B460">
@@ -22092,7 +22078,7 @@
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A461" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43306</v>
       </c>
       <c r="B461">
@@ -22113,7 +22099,7 @@
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A462" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43307</v>
       </c>
       <c r="B462">
@@ -22134,7 +22120,7 @@
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A463" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43308</v>
       </c>
       <c r="B463">
@@ -22155,7 +22141,7 @@
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A464" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43309</v>
       </c>
       <c r="B464">
@@ -22176,7 +22162,7 @@
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A465" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43310</v>
       </c>
       <c r="B465">
@@ -22197,7 +22183,7 @@
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A466" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43311</v>
       </c>
       <c r="B466">
@@ -22218,7 +22204,7 @@
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A467" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43312</v>
       </c>
       <c r="B467">
@@ -22239,7 +22225,7 @@
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A468" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43313</v>
       </c>
       <c r="B468">
@@ -22260,7 +22246,7 @@
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A469" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43314</v>
       </c>
       <c r="B469">
@@ -22281,7 +22267,7 @@
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A470" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43315</v>
       </c>
       <c r="B470">
@@ -22302,7 +22288,7 @@
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A471" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43316</v>
       </c>
       <c r="B471">
@@ -22323,7 +22309,7 @@
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A472" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43317</v>
       </c>
       <c r="B472">
@@ -22344,7 +22330,7 @@
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A473" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43318</v>
       </c>
       <c r="B473">
@@ -22365,7 +22351,7 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A474" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43319</v>
       </c>
       <c r="B474">
@@ -22386,7 +22372,7 @@
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A475" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43320</v>
       </c>
       <c r="B475">
@@ -22407,7 +22393,7 @@
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A476" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43321</v>
       </c>
       <c r="B476">
@@ -22428,7 +22414,7 @@
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A477" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43322</v>
       </c>
       <c r="B477">
@@ -22449,7 +22435,7 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A478" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43323</v>
       </c>
       <c r="B478">
@@ -22470,7 +22456,7 @@
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A479" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43324</v>
       </c>
       <c r="B479">
@@ -22491,7 +22477,7 @@
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A480" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43325</v>
       </c>
       <c r="B480">
@@ -22512,7 +22498,7 @@
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A481" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43326</v>
       </c>
       <c r="B481">
@@ -22533,7 +22519,7 @@
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A482" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43327</v>
       </c>
       <c r="B482">
@@ -22554,7 +22540,7 @@
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A483" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43328</v>
       </c>
       <c r="B483">
@@ -22575,7 +22561,7 @@
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A484" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43329</v>
       </c>
       <c r="B484">
@@ -22596,7 +22582,7 @@
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A485" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43330</v>
       </c>
       <c r="B485">
@@ -22617,7 +22603,7 @@
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A486" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43331</v>
       </c>
       <c r="B486">
@@ -22638,7 +22624,7 @@
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A487" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43332</v>
       </c>
       <c r="B487">
@@ -22659,7 +22645,7 @@
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A488" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43333</v>
       </c>
       <c r="B488">
@@ -22680,7 +22666,7 @@
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A489" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43334</v>
       </c>
       <c r="B489">
@@ -22701,7 +22687,7 @@
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A490" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43335</v>
       </c>
       <c r="B490">
@@ -22722,7 +22708,7 @@
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A491" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43336</v>
       </c>
       <c r="B491">
@@ -22743,7 +22729,7 @@
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A492" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43337</v>
       </c>
       <c r="B492">
@@ -22764,7 +22750,7 @@
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A493" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43338</v>
       </c>
       <c r="B493">
@@ -22785,7 +22771,7 @@
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A494" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43339</v>
       </c>
       <c r="B494">
@@ -22806,7 +22792,7 @@
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A495" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43340</v>
       </c>
       <c r="B495">
@@ -22827,7 +22813,7 @@
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A496" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43341</v>
       </c>
       <c r="B496">
@@ -22848,7 +22834,7 @@
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A497" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43342</v>
       </c>
       <c r="B497">
@@ -22869,7 +22855,7 @@
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A498" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43343</v>
       </c>
       <c r="B498">
@@ -22890,7 +22876,7 @@
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A499" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43344</v>
       </c>
       <c r="B499">
@@ -22911,7 +22897,7 @@
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A500" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43345</v>
       </c>
       <c r="B500">
@@ -22932,7 +22918,7 @@
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A501" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43346</v>
       </c>
       <c r="B501">
@@ -22953,7 +22939,7 @@
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A502" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43347</v>
       </c>
       <c r="B502">
@@ -22974,7 +22960,7 @@
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A503" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43348</v>
       </c>
       <c r="B503">
@@ -22995,7 +22981,7 @@
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A504" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43349</v>
       </c>
       <c r="B504">
@@ -23016,7 +23002,7 @@
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A505" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43350</v>
       </c>
       <c r="B505">
@@ -23037,7 +23023,7 @@
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A506" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43351</v>
       </c>
       <c r="B506">
@@ -23058,7 +23044,7 @@
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A507" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43352</v>
       </c>
       <c r="B507">
@@ -23079,7 +23065,7 @@
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A508" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43353</v>
       </c>
       <c r="B508">
@@ -23100,7 +23086,7 @@
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A509" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43354</v>
       </c>
       <c r="B509">
@@ -23121,7 +23107,7 @@
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A510" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43355</v>
       </c>
       <c r="B510">
@@ -23142,7 +23128,7 @@
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A511" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43356</v>
       </c>
       <c r="B511">
@@ -23163,7 +23149,7 @@
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A512" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43357</v>
       </c>
       <c r="B512">
@@ -23184,7 +23170,7 @@
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A513" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43358</v>
       </c>
       <c r="B513">
@@ -23205,7 +23191,7 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A514" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43359</v>
       </c>
       <c r="B514">
@@ -23226,7 +23212,7 @@
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A515" s="3">
-        <f t="shared" ref="A515:A578" si="9">DATE(D515,C515,B515)</f>
+        <f t="shared" ref="A515:A578" si="8">DATE(D515,C515,B515)</f>
         <v>43360</v>
       </c>
       <c r="B515">
@@ -23247,7 +23233,7 @@
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A516" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43361</v>
       </c>
       <c r="B516">
@@ -23268,7 +23254,7 @@
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A517" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43362</v>
       </c>
       <c r="B517">
@@ -23289,7 +23275,7 @@
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A518" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43363</v>
       </c>
       <c r="B518">
@@ -23310,7 +23296,7 @@
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A519" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43364</v>
       </c>
       <c r="B519">
@@ -23331,7 +23317,7 @@
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A520" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43365</v>
       </c>
       <c r="B520">
@@ -23352,7 +23338,7 @@
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A521" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43366</v>
       </c>
       <c r="B521">
@@ -23373,7 +23359,7 @@
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A522" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43367</v>
       </c>
       <c r="B522">
@@ -23394,7 +23380,7 @@
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A523" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43368</v>
       </c>
       <c r="B523">
@@ -23415,7 +23401,7 @@
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A524" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43369</v>
       </c>
       <c r="B524">
@@ -23436,7 +23422,7 @@
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A525" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43370</v>
       </c>
       <c r="B525">
@@ -23457,7 +23443,7 @@
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A526" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43371</v>
       </c>
       <c r="B526">
@@ -23478,7 +23464,7 @@
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A527" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43372</v>
       </c>
       <c r="B527">
@@ -23499,7 +23485,7 @@
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A528" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43373</v>
       </c>
       <c r="B528">
@@ -23520,7 +23506,7 @@
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A529" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43374</v>
       </c>
       <c r="B529">
@@ -23541,7 +23527,7 @@
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A530" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43375</v>
       </c>
       <c r="B530">
@@ -23562,7 +23548,7 @@
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A531" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43376</v>
       </c>
       <c r="B531">
@@ -23583,7 +23569,7 @@
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A532" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43377</v>
       </c>
       <c r="B532">
@@ -23604,7 +23590,7 @@
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A533" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43378</v>
       </c>
       <c r="B533">
@@ -23625,7 +23611,7 @@
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A534" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43379</v>
       </c>
       <c r="B534">
@@ -23646,7 +23632,7 @@
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A535" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43380</v>
       </c>
       <c r="B535">
@@ -23667,7 +23653,7 @@
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A536" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43381</v>
       </c>
       <c r="B536">
@@ -23688,7 +23674,7 @@
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A537" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43382</v>
       </c>
       <c r="B537">
@@ -23709,7 +23695,7 @@
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A538" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43383</v>
       </c>
       <c r="B538">
@@ -23730,7 +23716,7 @@
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A539" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43384</v>
       </c>
       <c r="B539">
@@ -23751,7 +23737,7 @@
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A540" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43385</v>
       </c>
       <c r="B540">
@@ -23772,7 +23758,7 @@
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A541" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43386</v>
       </c>
       <c r="B541">
@@ -23793,7 +23779,7 @@
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A542" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43387</v>
       </c>
       <c r="B542">
@@ -23814,7 +23800,7 @@
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A543" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43388</v>
       </c>
       <c r="B543">
@@ -23835,7 +23821,7 @@
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A544" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43389</v>
       </c>
       <c r="B544">
@@ -23856,7 +23842,7 @@
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A545" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43390</v>
       </c>
       <c r="B545">
@@ -23877,7 +23863,7 @@
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A546" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43391</v>
       </c>
       <c r="B546">
@@ -23898,7 +23884,7 @@
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A547" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43392</v>
       </c>
       <c r="B547">
@@ -23919,7 +23905,7 @@
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A548" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43393</v>
       </c>
       <c r="B548">
@@ -23940,7 +23926,7 @@
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A549" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43394</v>
       </c>
       <c r="B549">
@@ -23961,7 +23947,7 @@
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A550" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43395</v>
       </c>
       <c r="B550">
@@ -23982,7 +23968,7 @@
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A551" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43396</v>
       </c>
       <c r="B551">
@@ -24003,7 +23989,7 @@
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A552" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43397</v>
       </c>
       <c r="B552">
@@ -24024,7 +24010,7 @@
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A553" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43398</v>
       </c>
       <c r="B553">
@@ -24045,7 +24031,7 @@
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A554" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43399</v>
       </c>
       <c r="B554">
@@ -24066,7 +24052,7 @@
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A555" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43400</v>
       </c>
       <c r="B555">
@@ -24087,7 +24073,7 @@
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A556" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43401</v>
       </c>
       <c r="B556">
@@ -24108,7 +24094,7 @@
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A557" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43402</v>
       </c>
       <c r="B557">
@@ -24129,7 +24115,7 @@
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A558" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43403</v>
       </c>
       <c r="B558">
@@ -24150,7 +24136,7 @@
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A559" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43404</v>
       </c>
       <c r="B559">
@@ -24171,7 +24157,7 @@
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A560" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43405</v>
       </c>
       <c r="B560">
@@ -24192,7 +24178,7 @@
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A561" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43406</v>
       </c>
       <c r="B561">
@@ -24213,7 +24199,7 @@
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A562" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43407</v>
       </c>
       <c r="B562">
@@ -24234,7 +24220,7 @@
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A563" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43408</v>
       </c>
       <c r="B563">
@@ -24255,7 +24241,7 @@
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A564" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43409</v>
       </c>
       <c r="B564">
@@ -24276,7 +24262,7 @@
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A565" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43410</v>
       </c>
       <c r="B565">
@@ -24297,7 +24283,7 @@
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A566" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43411</v>
       </c>
       <c r="B566">
@@ -24318,7 +24304,7 @@
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A567" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43412</v>
       </c>
       <c r="B567">
@@ -24339,7 +24325,7 @@
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A568" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43413</v>
       </c>
       <c r="B568">
@@ -24360,7 +24346,7 @@
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A569" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43414</v>
       </c>
       <c r="B569">
@@ -24381,7 +24367,7 @@
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A570" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43415</v>
       </c>
       <c r="B570">
@@ -24402,7 +24388,7 @@
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A571" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43416</v>
       </c>
       <c r="B571">
@@ -24423,7 +24409,7 @@
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A572" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43417</v>
       </c>
       <c r="B572">
@@ -24444,7 +24430,7 @@
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A573" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43418</v>
       </c>
       <c r="B573">
@@ -24465,7 +24451,7 @@
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A574" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43419</v>
       </c>
       <c r="B574">
@@ -24486,7 +24472,7 @@
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A575" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43420</v>
       </c>
       <c r="B575">
@@ -24507,7 +24493,7 @@
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A576" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43421</v>
       </c>
       <c r="B576">
@@ -24528,7 +24514,7 @@
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A577" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43422</v>
       </c>
       <c r="B577">
@@ -24549,7 +24535,7 @@
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A578" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>43423</v>
       </c>
       <c r="B578">
@@ -24570,7 +24556,7 @@
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A579" s="3">
-        <f t="shared" ref="A579:A642" si="10">DATE(D579,C579,B579)</f>
+        <f t="shared" ref="A579:A642" si="9">DATE(D579,C579,B579)</f>
         <v>43424</v>
       </c>
       <c r="B579">
@@ -24591,7 +24577,7 @@
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A580" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43425</v>
       </c>
       <c r="B580">
@@ -24612,7 +24598,7 @@
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A581" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43426</v>
       </c>
       <c r="B581">
@@ -24633,7 +24619,7 @@
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A582" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43427</v>
       </c>
       <c r="B582">
@@ -24654,7 +24640,7 @@
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A583" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43428</v>
       </c>
       <c r="B583">
@@ -24675,7 +24661,7 @@
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A584" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43429</v>
       </c>
       <c r="B584">
@@ -24696,7 +24682,7 @@
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A585" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43430</v>
       </c>
       <c r="B585">
@@ -24717,7 +24703,7 @@
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A586" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43431</v>
       </c>
       <c r="B586">
@@ -24738,7 +24724,7 @@
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A587" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43432</v>
       </c>
       <c r="B587">
@@ -24759,7 +24745,7 @@
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A588" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43433</v>
       </c>
       <c r="B588">
@@ -24780,7 +24766,7 @@
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A589" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43434</v>
       </c>
       <c r="B589">
@@ -24801,7 +24787,7 @@
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A590" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43435</v>
       </c>
       <c r="B590">
@@ -24822,7 +24808,7 @@
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A591" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43436</v>
       </c>
       <c r="B591">
@@ -24843,7 +24829,7 @@
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A592" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43437</v>
       </c>
       <c r="B592">
@@ -24864,7 +24850,7 @@
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A593" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43438</v>
       </c>
       <c r="B593">
@@ -24885,7 +24871,7 @@
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A594" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43439</v>
       </c>
       <c r="B594">
@@ -24906,7 +24892,7 @@
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A595" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43440</v>
       </c>
       <c r="B595">
@@ -24927,7 +24913,7 @@
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A596" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43441</v>
       </c>
       <c r="B596">
@@ -24948,7 +24934,7 @@
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A597" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43442</v>
       </c>
       <c r="B597">
@@ -24969,7 +24955,7 @@
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A598" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43443</v>
       </c>
       <c r="B598">
@@ -24990,7 +24976,7 @@
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A599" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43444</v>
       </c>
       <c r="B599">
@@ -25011,7 +24997,7 @@
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A600" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43445</v>
       </c>
       <c r="B600">
@@ -25032,7 +25018,7 @@
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A601" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43446</v>
       </c>
       <c r="B601">
@@ -25053,7 +25039,7 @@
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A602" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43447</v>
       </c>
       <c r="B602">
@@ -25074,7 +25060,7 @@
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A603" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43448</v>
       </c>
       <c r="B603">
@@ -25095,7 +25081,7 @@
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A604" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43449</v>
       </c>
       <c r="B604">
@@ -25116,7 +25102,7 @@
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A605" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43450</v>
       </c>
       <c r="B605">
@@ -25137,7 +25123,7 @@
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A606" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43451</v>
       </c>
       <c r="B606">
@@ -25158,7 +25144,7 @@
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A607" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43452</v>
       </c>
       <c r="B607">
@@ -25179,7 +25165,7 @@
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A608" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43453</v>
       </c>
       <c r="B608">
@@ -25200,7 +25186,7 @@
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A609" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43454</v>
       </c>
       <c r="B609">
@@ -25221,7 +25207,7 @@
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A610" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43455</v>
       </c>
       <c r="B610">
@@ -25242,7 +25228,7 @@
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A611" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43456</v>
       </c>
       <c r="B611">
@@ -25263,7 +25249,7 @@
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A612" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43457</v>
       </c>
       <c r="B612">
@@ -25284,7 +25270,7 @@
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A613" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43458</v>
       </c>
       <c r="B613">
@@ -25305,7 +25291,7 @@
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A614" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43459</v>
       </c>
       <c r="B614">
@@ -25326,7 +25312,7 @@
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A615" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43460</v>
       </c>
       <c r="B615">
@@ -25347,7 +25333,7 @@
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A616" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43461</v>
       </c>
       <c r="B616">
@@ -25368,7 +25354,7 @@
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A617" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43462</v>
       </c>
       <c r="B617">
@@ -25389,7 +25375,7 @@
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A618" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43463</v>
       </c>
       <c r="B618">
@@ -25410,7 +25396,7 @@
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A619" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43464</v>
       </c>
       <c r="B619">
@@ -25431,7 +25417,7 @@
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A620" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43465</v>
       </c>
       <c r="B620">
@@ -25452,7 +25438,7 @@
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A621" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43466</v>
       </c>
       <c r="B621">
@@ -25473,7 +25459,7 @@
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A622" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43467</v>
       </c>
       <c r="B622">
@@ -25494,7 +25480,7 @@
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A623" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43468</v>
       </c>
       <c r="B623">
@@ -25515,7 +25501,7 @@
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A624" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43469</v>
       </c>
       <c r="B624">
@@ -25536,7 +25522,7 @@
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A625" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43470</v>
       </c>
       <c r="B625">
@@ -25557,7 +25543,7 @@
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A626" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43471</v>
       </c>
       <c r="B626">
@@ -25578,7 +25564,7 @@
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A627" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43472</v>
       </c>
       <c r="B627">
@@ -25599,7 +25585,7 @@
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A628" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43473</v>
       </c>
       <c r="B628">
@@ -25620,7 +25606,7 @@
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A629" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43474</v>
       </c>
       <c r="B629">
@@ -25641,7 +25627,7 @@
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A630" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43475</v>
       </c>
       <c r="B630">
@@ -25662,7 +25648,7 @@
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A631" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43476</v>
       </c>
       <c r="B631">
@@ -25683,7 +25669,7 @@
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A632" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43477</v>
       </c>
       <c r="B632">
@@ -25704,7 +25690,7 @@
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A633" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43478</v>
       </c>
       <c r="B633">
@@ -25725,7 +25711,7 @@
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A634" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43479</v>
       </c>
       <c r="B634">
@@ -25746,7 +25732,7 @@
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A635" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43480</v>
       </c>
       <c r="B635">
@@ -25767,7 +25753,7 @@
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A636" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43481</v>
       </c>
       <c r="B636">
@@ -25788,7 +25774,7 @@
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A637" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43482</v>
       </c>
       <c r="B637">
@@ -25809,7 +25795,7 @@
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A638" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43483</v>
       </c>
       <c r="B638">
@@ -25830,7 +25816,7 @@
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A639" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43484</v>
       </c>
       <c r="B639">
@@ -25851,7 +25837,7 @@
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A640" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43485</v>
       </c>
       <c r="B640">
@@ -25872,7 +25858,7 @@
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A641" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43486</v>
       </c>
       <c r="B641">
@@ -25893,7 +25879,7 @@
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A642" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43487</v>
       </c>
       <c r="B642">
@@ -25914,7 +25900,7 @@
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A643" s="3">
-        <f t="shared" ref="A643:A706" si="11">DATE(D643,C643,B643)</f>
+        <f t="shared" ref="A643:A706" si="10">DATE(D643,C643,B643)</f>
         <v>43488</v>
       </c>
       <c r="B643">
@@ -25935,7 +25921,7 @@
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A644" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43489</v>
       </c>
       <c r="B644">
@@ -25956,7 +25942,7 @@
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A645" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43490</v>
       </c>
       <c r="B645">
@@ -25977,7 +25963,7 @@
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A646" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43491</v>
       </c>
       <c r="B646">
@@ -25998,7 +25984,7 @@
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A647" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43492</v>
       </c>
       <c r="B647">
@@ -26019,7 +26005,7 @@
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A648" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43493</v>
       </c>
       <c r="B648">
@@ -26040,7 +26026,7 @@
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A649" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43494</v>
       </c>
       <c r="B649">
@@ -26061,7 +26047,7 @@
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A650" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43495</v>
       </c>
       <c r="B650">
@@ -26082,7 +26068,7 @@
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A651" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43496</v>
       </c>
       <c r="B651">
@@ -26103,7 +26089,7 @@
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A652" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43497</v>
       </c>
       <c r="B652">
@@ -26124,7 +26110,7 @@
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A653" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43498</v>
       </c>
       <c r="B653">
@@ -26145,7 +26131,7 @@
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A654" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43499</v>
       </c>
       <c r="B654">
@@ -26166,7 +26152,7 @@
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A655" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43500</v>
       </c>
       <c r="B655">
@@ -26187,7 +26173,7 @@
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A656" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43501</v>
       </c>
       <c r="B656">
@@ -26208,7 +26194,7 @@
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A657" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43502</v>
       </c>
       <c r="B657">
@@ -26229,7 +26215,7 @@
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A658" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43503</v>
       </c>
       <c r="B658">
@@ -26250,7 +26236,7 @@
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A659" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43504</v>
       </c>
       <c r="B659">
@@ -26271,7 +26257,7 @@
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A660" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43505</v>
       </c>
       <c r="B660">
@@ -26292,7 +26278,7 @@
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A661" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43506</v>
       </c>
       <c r="B661">
@@ -26313,7 +26299,7 @@
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A662" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43507</v>
       </c>
       <c r="B662">
@@ -26334,7 +26320,7 @@
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A663" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43508</v>
       </c>
       <c r="B663">
@@ -26355,7 +26341,7 @@
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A664" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43509</v>
       </c>
       <c r="B664">
@@ -26376,7 +26362,7 @@
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A665" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43510</v>
       </c>
       <c r="B665">
@@ -26397,7 +26383,7 @@
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A666" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43511</v>
       </c>
       <c r="B666">
@@ -26418,7 +26404,7 @@
     </row>
     <row r="667" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A667" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43512</v>
       </c>
       <c r="B667">
@@ -26439,7 +26425,7 @@
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A668" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43513</v>
       </c>
       <c r="B668">
@@ -26460,7 +26446,7 @@
     </row>
     <row r="669" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A669" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43514</v>
       </c>
       <c r="B669">
@@ -26481,7 +26467,7 @@
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A670" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43515</v>
       </c>
       <c r="B670">
@@ -26502,7 +26488,7 @@
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A671" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43516</v>
       </c>
       <c r="B671">
@@ -26523,7 +26509,7 @@
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A672" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43517</v>
       </c>
       <c r="B672">
@@ -26544,7 +26530,7 @@
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A673" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43518</v>
       </c>
       <c r="B673">
@@ -26565,7 +26551,7 @@
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A674" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43519</v>
       </c>
       <c r="B674">
@@ -26586,7 +26572,7 @@
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A675" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43520</v>
       </c>
       <c r="B675">
@@ -26607,7 +26593,7 @@
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A676" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43521</v>
       </c>
       <c r="B676">
@@ -26628,7 +26614,7 @@
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A677" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43522</v>
       </c>
       <c r="B677">
@@ -26649,7 +26635,7 @@
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A678" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43523</v>
       </c>
       <c r="B678">
@@ -26670,7 +26656,7 @@
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A679" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43524</v>
       </c>
       <c r="B679">
@@ -26691,7 +26677,7 @@
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A680" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43525</v>
       </c>
       <c r="B680">
@@ -26712,7 +26698,7 @@
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A681" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43526</v>
       </c>
       <c r="B681">
@@ -26733,7 +26719,7 @@
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A682" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43527</v>
       </c>
       <c r="B682">
@@ -26754,7 +26740,7 @@
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A683" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43528</v>
       </c>
       <c r="B683">
@@ -26775,7 +26761,7 @@
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A684" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43529</v>
       </c>
       <c r="B684">
@@ -26796,7 +26782,7 @@
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A685" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43530</v>
       </c>
       <c r="B685">
@@ -26817,7 +26803,7 @@
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A686" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43531</v>
       </c>
       <c r="B686">
@@ -26838,7 +26824,7 @@
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A687" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43532</v>
       </c>
       <c r="B687">
@@ -26859,7 +26845,7 @@
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A688" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43533</v>
       </c>
       <c r="B688">
@@ -26880,7 +26866,7 @@
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A689" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43534</v>
       </c>
       <c r="B689">
@@ -26901,7 +26887,7 @@
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A690" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43535</v>
       </c>
       <c r="B690">
@@ -26922,7 +26908,7 @@
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A691" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43536</v>
       </c>
       <c r="B691">
@@ -26943,7 +26929,7 @@
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A692" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43537</v>
       </c>
       <c r="B692">
@@ -26964,7 +26950,7 @@
     </row>
     <row r="693" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A693" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43538</v>
       </c>
       <c r="B693">
@@ -26985,7 +26971,7 @@
     </row>
     <row r="694" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A694" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43539</v>
       </c>
       <c r="B694">
@@ -27006,7 +26992,7 @@
     </row>
     <row r="695" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A695" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43540</v>
       </c>
       <c r="B695">
@@ -27027,7 +27013,7 @@
     </row>
     <row r="696" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A696" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43541</v>
       </c>
       <c r="B696">
@@ -27048,7 +27034,7 @@
     </row>
     <row r="697" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A697" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43542</v>
       </c>
       <c r="B697">
@@ -27069,7 +27055,7 @@
     </row>
     <row r="698" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A698" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43543</v>
       </c>
       <c r="B698">
@@ -27090,7 +27076,7 @@
     </row>
     <row r="699" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A699" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43544</v>
       </c>
       <c r="B699">
@@ -27111,7 +27097,7 @@
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A700" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43545</v>
       </c>
       <c r="B700">
@@ -27132,7 +27118,7 @@
     </row>
     <row r="701" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A701" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43546</v>
       </c>
       <c r="B701">
@@ -27153,7 +27139,7 @@
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A702" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43547</v>
       </c>
       <c r="B702">
@@ -27174,7 +27160,7 @@
     </row>
     <row r="703" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A703" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43548</v>
       </c>
       <c r="B703">
@@ -27195,7 +27181,7 @@
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A704" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43549</v>
       </c>
       <c r="B704">
@@ -27216,7 +27202,7 @@
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A705" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43550</v>
       </c>
       <c r="B705">
@@ -27237,7 +27223,7 @@
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A706" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43551</v>
       </c>
       <c r="B706">
@@ -27258,7 +27244,7 @@
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A707" s="3">
-        <f t="shared" ref="A707:A770" si="12">DATE(D707,C707,B707)</f>
+        <f t="shared" ref="A707:A770" si="11">DATE(D707,C707,B707)</f>
         <v>43552</v>
       </c>
       <c r="B707">
@@ -27279,7 +27265,7 @@
     </row>
     <row r="708" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A708" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43553</v>
       </c>
       <c r="B708">
@@ -27300,7 +27286,7 @@
     </row>
     <row r="709" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A709" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43554</v>
       </c>
       <c r="B709">
@@ -27321,7 +27307,7 @@
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A710" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43555</v>
       </c>
       <c r="B710">
@@ -27342,7 +27328,7 @@
     </row>
     <row r="711" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A711" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43556</v>
       </c>
       <c r="B711">
@@ -27363,7 +27349,7 @@
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A712" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43557</v>
       </c>
       <c r="B712">
@@ -27384,7 +27370,7 @@
     </row>
     <row r="713" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A713" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43558</v>
       </c>
       <c r="B713">
@@ -27405,7 +27391,7 @@
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A714" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43559</v>
       </c>
       <c r="B714">
@@ -27426,7 +27412,7 @@
     </row>
     <row r="715" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A715" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43560</v>
       </c>
       <c r="B715">
@@ -27447,7 +27433,7 @@
     </row>
     <row r="716" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A716" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43561</v>
       </c>
       <c r="B716">
@@ -27468,7 +27454,7 @@
     </row>
     <row r="717" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A717" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43562</v>
       </c>
       <c r="B717">
@@ -27489,7 +27475,7 @@
     </row>
     <row r="718" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A718" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43563</v>
       </c>
       <c r="B718">
@@ -27510,7 +27496,7 @@
     </row>
     <row r="719" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A719" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43564</v>
       </c>
       <c r="B719">
@@ -27531,7 +27517,7 @@
     </row>
     <row r="720" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A720" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43565</v>
       </c>
       <c r="B720">
@@ -27552,7 +27538,7 @@
     </row>
     <row r="721" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A721" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43566</v>
       </c>
       <c r="B721">
@@ -27573,7 +27559,7 @@
     </row>
     <row r="722" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A722" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43567</v>
       </c>
       <c r="B722">
@@ -27594,7 +27580,7 @@
     </row>
     <row r="723" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A723" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43568</v>
       </c>
       <c r="B723">
@@ -27615,7 +27601,7 @@
     </row>
     <row r="724" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A724" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43569</v>
       </c>
       <c r="B724">
@@ -27636,7 +27622,7 @@
     </row>
     <row r="725" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A725" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43570</v>
       </c>
       <c r="B725">
@@ -27657,7 +27643,7 @@
     </row>
     <row r="726" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A726" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43571</v>
       </c>
       <c r="B726">
@@ -27678,7 +27664,7 @@
     </row>
     <row r="727" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A727" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43572</v>
       </c>
       <c r="B727">
@@ -27699,7 +27685,7 @@
     </row>
     <row r="728" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A728" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43573</v>
       </c>
       <c r="B728">
@@ -27720,7 +27706,7 @@
     </row>
     <row r="729" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A729" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43574</v>
       </c>
       <c r="B729">
@@ -27741,7 +27727,7 @@
     </row>
     <row r="730" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A730" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43575</v>
       </c>
       <c r="B730">
@@ -27762,7 +27748,7 @@
     </row>
     <row r="731" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A731" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43576</v>
       </c>
       <c r="B731">
@@ -27783,7 +27769,7 @@
     </row>
     <row r="732" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A732" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43577</v>
       </c>
       <c r="B732">
@@ -27804,7 +27790,7 @@
     </row>
     <row r="733" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A733" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43578</v>
       </c>
       <c r="B733">
@@ -27825,7 +27811,7 @@
     </row>
     <row r="734" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A734" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43579</v>
       </c>
       <c r="B734">
@@ -27846,7 +27832,7 @@
     </row>
     <row r="735" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A735" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43580</v>
       </c>
       <c r="B735">
@@ -27867,7 +27853,7 @@
     </row>
     <row r="736" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A736" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43581</v>
       </c>
       <c r="B736">
@@ -27888,7 +27874,7 @@
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A737" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43582</v>
       </c>
       <c r="B737">
@@ -27909,7 +27895,7 @@
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A738" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43583</v>
       </c>
       <c r="B738">
@@ -27930,7 +27916,7 @@
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A739" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43584</v>
       </c>
       <c r="B739">
@@ -27951,7 +27937,7 @@
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A740" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43585</v>
       </c>
       <c r="B740">
@@ -27972,7 +27958,7 @@
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A741" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43586</v>
       </c>
       <c r="B741">
@@ -27993,7 +27979,7 @@
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A742" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43587</v>
       </c>
       <c r="B742">
@@ -28014,7 +28000,7 @@
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A743" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43588</v>
       </c>
       <c r="B743">
@@ -28035,7 +28021,7 @@
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A744" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43589</v>
       </c>
       <c r="B744">
@@ -28056,7 +28042,7 @@
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A745" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43590</v>
       </c>
       <c r="B745">
@@ -28077,7 +28063,7 @@
     </row>
     <row r="746" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A746" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43591</v>
       </c>
       <c r="B746">
@@ -28098,7 +28084,7 @@
     </row>
     <row r="747" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A747" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43592</v>
       </c>
       <c r="B747">
@@ -28119,7 +28105,7 @@
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A748" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43593</v>
       </c>
       <c r="B748">
@@ -28140,7 +28126,7 @@
     </row>
     <row r="749" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A749" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43594</v>
       </c>
       <c r="B749">
@@ -28161,7 +28147,7 @@
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A750" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43595</v>
       </c>
       <c r="B750">
@@ -28182,7 +28168,7 @@
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A751" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43596</v>
       </c>
       <c r="B751">
@@ -28203,7 +28189,7 @@
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A752" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43597</v>
       </c>
       <c r="B752">
@@ -28224,7 +28210,7 @@
     </row>
     <row r="753" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A753" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43598</v>
       </c>
       <c r="B753">
@@ -28245,7 +28231,7 @@
     </row>
     <row r="754" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A754" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43599</v>
       </c>
       <c r="B754">
@@ -28266,7 +28252,7 @@
     </row>
     <row r="755" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A755" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43600</v>
       </c>
       <c r="B755">
@@ -28287,7 +28273,7 @@
     </row>
     <row r="756" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A756" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43601</v>
       </c>
       <c r="B756">
@@ -28308,7 +28294,7 @@
     </row>
     <row r="757" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A757" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43602</v>
       </c>
       <c r="B757">
@@ -28329,7 +28315,7 @@
     </row>
     <row r="758" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A758" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43603</v>
       </c>
       <c r="B758">
@@ -28350,7 +28336,7 @@
     </row>
     <row r="759" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A759" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43604</v>
       </c>
       <c r="B759">
@@ -28371,7 +28357,7 @@
     </row>
     <row r="760" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A760" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43605</v>
       </c>
       <c r="B760">
@@ -28392,7 +28378,7 @@
     </row>
     <row r="761" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A761" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43606</v>
       </c>
       <c r="B761">
@@ -28413,7 +28399,7 @@
     </row>
     <row r="762" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A762" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43607</v>
       </c>
       <c r="B762">
@@ -28434,7 +28420,7 @@
     </row>
     <row r="763" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A763" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43608</v>
       </c>
       <c r="B763">
@@ -28455,7 +28441,7 @@
     </row>
     <row r="764" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A764" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43609</v>
       </c>
       <c r="B764">
@@ -28476,7 +28462,7 @@
     </row>
     <row r="765" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A765" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43610</v>
       </c>
       <c r="B765">
@@ -28497,7 +28483,7 @@
     </row>
     <row r="766" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A766" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43611</v>
       </c>
       <c r="B766">
@@ -28518,7 +28504,7 @@
     </row>
     <row r="767" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A767" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43612</v>
       </c>
       <c r="B767">
@@ -28539,7 +28525,7 @@
     </row>
     <row r="768" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A768" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43613</v>
       </c>
       <c r="B768">
@@ -28560,7 +28546,7 @@
     </row>
     <row r="769" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A769" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43614</v>
       </c>
       <c r="B769">
@@ -28581,7 +28567,7 @@
     </row>
     <row r="770" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A770" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>43615</v>
       </c>
       <c r="B770">
@@ -28602,7 +28588,7 @@
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A771" s="3">
-        <f t="shared" ref="A771:A834" si="13">DATE(D771,C771,B771)</f>
+        <f t="shared" ref="A771:A834" si="12">DATE(D771,C771,B771)</f>
         <v>43616</v>
       </c>
       <c r="B771">
@@ -28623,7 +28609,7 @@
     </row>
     <row r="772" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A772" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43617</v>
       </c>
       <c r="B772">
@@ -28644,7 +28630,7 @@
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A773" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43618</v>
       </c>
       <c r="B773">
@@ -28665,7 +28651,7 @@
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A774" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43619</v>
       </c>
       <c r="B774">
@@ -28686,7 +28672,7 @@
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A775" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43620</v>
       </c>
       <c r="B775">
@@ -28707,7 +28693,7 @@
     </row>
     <row r="776" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A776" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43621</v>
       </c>
       <c r="B776">
@@ -28728,7 +28714,7 @@
     </row>
     <row r="777" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A777" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43622</v>
       </c>
       <c r="B777">
@@ -28749,7 +28735,7 @@
     </row>
     <row r="778" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A778" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43623</v>
       </c>
       <c r="B778">
@@ -28770,7 +28756,7 @@
     </row>
     <row r="779" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A779" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43624</v>
       </c>
       <c r="B779">
@@ -28791,7 +28777,7 @@
     </row>
     <row r="780" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A780" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43625</v>
       </c>
       <c r="B780">
@@ -28812,7 +28798,7 @@
     </row>
     <row r="781" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A781" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43626</v>
       </c>
       <c r="B781">
@@ -28833,7 +28819,7 @@
     </row>
     <row r="782" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A782" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43627</v>
       </c>
       <c r="B782">
@@ -28854,7 +28840,7 @@
     </row>
     <row r="783" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A783" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43628</v>
       </c>
       <c r="B783">
@@ -28875,7 +28861,7 @@
     </row>
     <row r="784" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A784" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43629</v>
       </c>
       <c r="B784">
@@ -28896,7 +28882,7 @@
     </row>
     <row r="785" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A785" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43630</v>
       </c>
       <c r="B785">
@@ -28917,7 +28903,7 @@
     </row>
     <row r="786" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A786" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43631</v>
       </c>
       <c r="B786">
@@ -28938,7 +28924,7 @@
     </row>
     <row r="787" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A787" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43632</v>
       </c>
       <c r="B787">
@@ -28959,7 +28945,7 @@
     </row>
     <row r="788" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A788" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43633</v>
       </c>
       <c r="B788">
@@ -28980,7 +28966,7 @@
     </row>
     <row r="789" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A789" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43634</v>
       </c>
       <c r="B789">
@@ -29001,7 +28987,7 @@
     </row>
     <row r="790" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A790" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43635</v>
       </c>
       <c r="B790">
@@ -29022,7 +29008,7 @@
     </row>
     <row r="791" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A791" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43636</v>
       </c>
       <c r="B791">
@@ -29043,7 +29029,7 @@
     </row>
     <row r="792" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A792" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43637</v>
       </c>
       <c r="B792">
@@ -29064,7 +29050,7 @@
     </row>
     <row r="793" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A793" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43638</v>
       </c>
       <c r="B793">
@@ -29085,7 +29071,7 @@
     </row>
     <row r="794" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A794" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43639</v>
       </c>
       <c r="B794">
@@ -29106,7 +29092,7 @@
     </row>
     <row r="795" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A795" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43640</v>
       </c>
       <c r="B795">
@@ -29127,7 +29113,7 @@
     </row>
     <row r="796" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A796" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43641</v>
       </c>
       <c r="B796">
@@ -29148,7 +29134,7 @@
     </row>
     <row r="797" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A797" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43642</v>
       </c>
       <c r="B797">
@@ -29169,7 +29155,7 @@
     </row>
     <row r="798" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A798" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43643</v>
       </c>
       <c r="B798">
@@ -29190,7 +29176,7 @@
     </row>
     <row r="799" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A799" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43644</v>
       </c>
       <c r="B799">
@@ -29211,7 +29197,7 @@
     </row>
     <row r="800" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A800" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43645</v>
       </c>
       <c r="B800">
@@ -29232,7 +29218,7 @@
     </row>
     <row r="801" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A801" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43646</v>
       </c>
       <c r="B801">
@@ -29253,7 +29239,7 @@
     </row>
     <row r="802" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A802" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43647</v>
       </c>
       <c r="B802">
@@ -29274,7 +29260,7 @@
     </row>
     <row r="803" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A803" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43648</v>
       </c>
       <c r="B803">
@@ -29295,7 +29281,7 @@
     </row>
     <row r="804" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A804" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43649</v>
       </c>
       <c r="B804">
@@ -29316,7 +29302,7 @@
     </row>
     <row r="805" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A805" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43650</v>
       </c>
       <c r="B805">
@@ -29337,7 +29323,7 @@
     </row>
     <row r="806" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A806" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43651</v>
       </c>
       <c r="B806">
@@ -29358,7 +29344,7 @@
     </row>
     <row r="807" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A807" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43652</v>
       </c>
       <c r="B807">
@@ -29379,7 +29365,7 @@
     </row>
     <row r="808" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A808" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43653</v>
       </c>
       <c r="B808">
@@ -29400,7 +29386,7 @@
     </row>
     <row r="809" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A809" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43654</v>
       </c>
       <c r="B809">
@@ -29421,7 +29407,7 @@
     </row>
     <row r="810" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A810" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43655</v>
       </c>
       <c r="B810">
@@ -29442,7 +29428,7 @@
     </row>
     <row r="811" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A811" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43656</v>
       </c>
       <c r="B811">
@@ -29463,7 +29449,7 @@
     </row>
     <row r="812" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A812" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43657</v>
       </c>
       <c r="B812">
@@ -29484,7 +29470,7 @@
     </row>
     <row r="813" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A813" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43658</v>
       </c>
       <c r="B813">
@@ -29505,7 +29491,7 @@
     </row>
     <row r="814" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A814" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43659</v>
       </c>
       <c r="B814">
@@ -29526,7 +29512,7 @@
     </row>
     <row r="815" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A815" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43660</v>
       </c>
       <c r="B815">
@@ -29547,7 +29533,7 @@
     </row>
     <row r="816" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A816" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43661</v>
       </c>
       <c r="B816">
@@ -29568,7 +29554,7 @@
     </row>
     <row r="817" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A817" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43662</v>
       </c>
       <c r="B817">
@@ -29589,7 +29575,7 @@
     </row>
     <row r="818" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A818" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43663</v>
       </c>
       <c r="B818">
@@ -29610,7 +29596,7 @@
     </row>
     <row r="819" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A819" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43664</v>
       </c>
       <c r="B819">
@@ -29631,7 +29617,7 @@
     </row>
     <row r="820" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A820" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43665</v>
       </c>
       <c r="B820">
@@ -29652,7 +29638,7 @@
     </row>
     <row r="821" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A821" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43666</v>
       </c>
       <c r="B821">
@@ -29673,7 +29659,7 @@
     </row>
     <row r="822" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A822" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43667</v>
       </c>
       <c r="B822">
@@ -29694,7 +29680,7 @@
     </row>
     <row r="823" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A823" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43668</v>
       </c>
       <c r="B823">
@@ -29715,7 +29701,7 @@
     </row>
     <row r="824" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A824" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43669</v>
       </c>
       <c r="B824">
@@ -29736,7 +29722,7 @@
     </row>
     <row r="825" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A825" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43670</v>
       </c>
       <c r="B825">
@@ -29757,7 +29743,7 @@
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A826" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43671</v>
       </c>
       <c r="B826">
@@ -29778,7 +29764,7 @@
     </row>
     <row r="827" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A827" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43672</v>
       </c>
       <c r="B827">
@@ -29799,7 +29785,7 @@
     </row>
     <row r="828" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A828" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43673</v>
       </c>
       <c r="B828">
@@ -29820,7 +29806,7 @@
     </row>
     <row r="829" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A829" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43674</v>
       </c>
       <c r="B829">
@@ -29841,7 +29827,7 @@
     </row>
     <row r="830" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A830" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43675</v>
       </c>
       <c r="B830">
@@ -29862,7 +29848,7 @@
     </row>
     <row r="831" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A831" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43676</v>
       </c>
       <c r="B831">
@@ -29883,7 +29869,7 @@
     </row>
     <row r="832" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A832" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43677</v>
       </c>
       <c r="B832">
@@ -29904,7 +29890,7 @@
     </row>
     <row r="833" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A833" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43678</v>
       </c>
       <c r="B833">
@@ -29925,7 +29911,7 @@
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A834" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43679</v>
       </c>
       <c r="B834">
@@ -29946,7 +29932,7 @@
     </row>
     <row r="835" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A835" s="3">
-        <f t="shared" ref="A835:A898" si="14">DATE(D835,C835,B835)</f>
+        <f t="shared" ref="A835:A898" si="13">DATE(D835,C835,B835)</f>
         <v>43680</v>
       </c>
       <c r="B835">
@@ -29967,7 +29953,7 @@
     </row>
     <row r="836" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A836" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43681</v>
       </c>
       <c r="B836">
@@ -29988,7 +29974,7 @@
     </row>
     <row r="837" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A837" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43682</v>
       </c>
       <c r="B837">
@@ -30009,7 +29995,7 @@
     </row>
     <row r="838" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A838" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43683</v>
       </c>
       <c r="B838">
@@ -30030,7 +30016,7 @@
     </row>
     <row r="839" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A839" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43684</v>
       </c>
       <c r="B839">
@@ -30051,7 +30037,7 @@
     </row>
     <row r="840" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A840" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43685</v>
       </c>
       <c r="B840">
@@ -30072,7 +30058,7 @@
     </row>
     <row r="841" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A841" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43686</v>
       </c>
       <c r="B841">
@@ -30093,7 +30079,7 @@
     </row>
     <row r="842" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A842" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43687</v>
       </c>
       <c r="B842">
@@ -30114,7 +30100,7 @@
     </row>
     <row r="843" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A843" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43688</v>
       </c>
       <c r="B843">
@@ -30135,7 +30121,7 @@
     </row>
     <row r="844" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A844" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43689</v>
       </c>
       <c r="B844">
@@ -30156,7 +30142,7 @@
     </row>
     <row r="845" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A845" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43690</v>
       </c>
       <c r="B845">
@@ -30177,7 +30163,7 @@
     </row>
     <row r="846" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A846" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43691</v>
       </c>
       <c r="B846">
@@ -30198,7 +30184,7 @@
     </row>
     <row r="847" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A847" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43692</v>
       </c>
       <c r="B847">
@@ -30219,7 +30205,7 @@
     </row>
     <row r="848" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A848" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43693</v>
       </c>
       <c r="B848">
@@ -30240,7 +30226,7 @@
     </row>
     <row r="849" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A849" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43694</v>
       </c>
       <c r="B849">
@@ -30261,7 +30247,7 @@
     </row>
     <row r="850" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A850" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43695</v>
       </c>
       <c r="B850">
@@ -30282,7 +30268,7 @@
     </row>
     <row r="851" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A851" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43696</v>
       </c>
       <c r="B851">
@@ -30303,7 +30289,7 @@
     </row>
     <row r="852" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A852" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43697</v>
       </c>
       <c r="B852">
@@ -30324,7 +30310,7 @@
     </row>
     <row r="853" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A853" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43698</v>
       </c>
       <c r="B853">
@@ -30345,7 +30331,7 @@
     </row>
     <row r="854" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A854" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43699</v>
       </c>
       <c r="B854">
@@ -30366,7 +30352,7 @@
     </row>
     <row r="855" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A855" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43700</v>
       </c>
       <c r="B855">
@@ -30387,7 +30373,7 @@
     </row>
     <row r="856" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A856" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43701</v>
       </c>
       <c r="B856">
@@ -30408,7 +30394,7 @@
     </row>
     <row r="857" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A857" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43702</v>
       </c>
       <c r="B857">
@@ -30429,7 +30415,7 @@
     </row>
     <row r="858" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A858" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43703</v>
       </c>
       <c r="B858">
@@ -30450,7 +30436,7 @@
     </row>
     <row r="859" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A859" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43704</v>
       </c>
       <c r="B859">
@@ -30471,7 +30457,7 @@
     </row>
     <row r="860" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A860" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43705</v>
       </c>
       <c r="B860">
@@ -30492,7 +30478,7 @@
     </row>
     <row r="861" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A861" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43706</v>
       </c>
       <c r="B861">
@@ -30513,7 +30499,7 @@
     </row>
     <row r="862" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A862" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43707</v>
       </c>
       <c r="B862">
@@ -30534,7 +30520,7 @@
     </row>
     <row r="863" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A863" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43708</v>
       </c>
       <c r="B863">
@@ -30555,7 +30541,7 @@
     </row>
     <row r="864" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A864" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43709</v>
       </c>
       <c r="B864">
@@ -30576,7 +30562,7 @@
     </row>
     <row r="865" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A865" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43710</v>
       </c>
       <c r="B865">
@@ -30597,7 +30583,7 @@
     </row>
     <row r="866" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A866" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43711</v>
       </c>
       <c r="B866">
@@ -30618,7 +30604,7 @@
     </row>
     <row r="867" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A867" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43712</v>
       </c>
       <c r="B867">
@@ -30639,7 +30625,7 @@
     </row>
     <row r="868" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A868" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43713</v>
       </c>
       <c r="B868">
@@ -30660,7 +30646,7 @@
     </row>
     <row r="869" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A869" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43714</v>
       </c>
       <c r="B869">
@@ -30681,7 +30667,7 @@
     </row>
     <row r="870" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A870" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43715</v>
       </c>
       <c r="B870">
@@ -30702,7 +30688,7 @@
     </row>
     <row r="871" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A871" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43716</v>
       </c>
       <c r="B871">
@@ -30723,7 +30709,7 @@
     </row>
     <row r="872" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A872" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43717</v>
       </c>
       <c r="B872">
@@ -30744,7 +30730,7 @@
     </row>
     <row r="873" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A873" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43718</v>
       </c>
       <c r="B873">
@@ -30765,7 +30751,7 @@
     </row>
     <row r="874" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A874" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43719</v>
       </c>
       <c r="B874">
@@ -30786,7 +30772,7 @@
     </row>
     <row r="875" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A875" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43720</v>
       </c>
       <c r="B875">
@@ -30807,7 +30793,7 @@
     </row>
     <row r="876" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A876" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43721</v>
       </c>
       <c r="B876">
@@ -30828,7 +30814,7 @@
     </row>
     <row r="877" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A877" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43722</v>
       </c>
       <c r="B877">
@@ -30849,7 +30835,7 @@
     </row>
     <row r="878" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A878" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43723</v>
       </c>
       <c r="B878">
@@ -30870,7 +30856,7 @@
     </row>
     <row r="879" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A879" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43724</v>
       </c>
       <c r="B879">
@@ -30891,7 +30877,7 @@
     </row>
     <row r="880" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A880" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43725</v>
       </c>
       <c r="B880">
@@ -30912,7 +30898,7 @@
     </row>
     <row r="881" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A881" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43726</v>
       </c>
       <c r="B881">
@@ -30933,7 +30919,7 @@
     </row>
     <row r="882" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A882" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43727</v>
       </c>
       <c r="B882">
@@ -30954,7 +30940,7 @@
     </row>
     <row r="883" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A883" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43728</v>
       </c>
       <c r="B883">
@@ -30975,7 +30961,7 @@
     </row>
     <row r="884" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A884" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43729</v>
       </c>
       <c r="B884">
@@ -30996,7 +30982,7 @@
     </row>
     <row r="885" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A885" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43730</v>
       </c>
       <c r="B885">
@@ -31017,7 +31003,7 @@
     </row>
     <row r="886" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A886" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43731</v>
       </c>
       <c r="B886">
@@ -31038,7 +31024,7 @@
     </row>
     <row r="887" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A887" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43732</v>
       </c>
       <c r="B887">
@@ -31059,7 +31045,7 @@
     </row>
     <row r="888" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A888" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43733</v>
       </c>
       <c r="B888">
@@ -31080,7 +31066,7 @@
     </row>
     <row r="889" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A889" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43734</v>
       </c>
       <c r="B889">
@@ -31101,7 +31087,7 @@
     </row>
     <row r="890" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A890" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43735</v>
       </c>
       <c r="B890">
@@ -31122,7 +31108,7 @@
     </row>
     <row r="891" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A891" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43736</v>
       </c>
       <c r="B891">
@@ -31143,7 +31129,7 @@
     </row>
     <row r="892" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A892" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43737</v>
       </c>
       <c r="B892">
@@ -31164,7 +31150,7 @@
     </row>
     <row r="893" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A893" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43738</v>
       </c>
       <c r="B893">
@@ -31185,7 +31171,7 @@
     </row>
     <row r="894" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A894" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43739</v>
       </c>
       <c r="B894">
@@ -31206,7 +31192,7 @@
     </row>
     <row r="895" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A895" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43740</v>
       </c>
       <c r="B895">
@@ -31227,7 +31213,7 @@
     </row>
     <row r="896" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A896" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43741</v>
       </c>
       <c r="B896">
@@ -31248,7 +31234,7 @@
     </row>
     <row r="897" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A897" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43742</v>
       </c>
       <c r="B897">
@@ -31269,7 +31255,7 @@
     </row>
     <row r="898" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A898" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>43743</v>
       </c>
       <c r="B898">
@@ -31290,7 +31276,7 @@
     </row>
     <row r="899" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A899" s="3">
-        <f t="shared" ref="A899:A962" si="15">DATE(D899,C899,B899)</f>
+        <f t="shared" ref="A899:A962" si="14">DATE(D899,C899,B899)</f>
         <v>43744</v>
       </c>
       <c r="B899">
@@ -31311,7 +31297,7 @@
     </row>
     <row r="900" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A900" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43745</v>
       </c>
       <c r="B900">
@@ -31332,7 +31318,7 @@
     </row>
     <row r="901" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A901" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43746</v>
       </c>
       <c r="B901">
@@ -31353,7 +31339,7 @@
     </row>
     <row r="902" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A902" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43747</v>
       </c>
       <c r="B902">
@@ -31374,7 +31360,7 @@
     </row>
     <row r="903" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A903" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43748</v>
       </c>
       <c r="B903">
@@ -31395,7 +31381,7 @@
     </row>
     <row r="904" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A904" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43749</v>
       </c>
       <c r="B904">
@@ -31416,7 +31402,7 @@
     </row>
     <row r="905" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A905" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43750</v>
       </c>
       <c r="B905">
@@ -31437,7 +31423,7 @@
     </row>
     <row r="906" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A906" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43751</v>
       </c>
       <c r="B906">
@@ -31458,7 +31444,7 @@
     </row>
     <row r="907" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A907" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43752</v>
       </c>
       <c r="B907">
@@ -31479,7 +31465,7 @@
     </row>
     <row r="908" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A908" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43753</v>
       </c>
       <c r="B908">
@@ -31500,7 +31486,7 @@
     </row>
     <row r="909" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A909" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43754</v>
       </c>
       <c r="B909">
@@ -31521,7 +31507,7 @@
     </row>
     <row r="910" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A910" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43755</v>
       </c>
       <c r="B910">
@@ -31542,7 +31528,7 @@
     </row>
     <row r="911" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A911" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43756</v>
       </c>
       <c r="B911">
@@ -31563,7 +31549,7 @@
     </row>
     <row r="912" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A912" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43757</v>
       </c>
       <c r="B912">
@@ -31584,7 +31570,7 @@
     </row>
     <row r="913" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A913" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43758</v>
       </c>
       <c r="B913">
@@ -31605,7 +31591,7 @@
     </row>
     <row r="914" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A914" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43759</v>
       </c>
       <c r="B914">
@@ -31626,7 +31612,7 @@
     </row>
     <row r="915" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A915" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43760</v>
       </c>
       <c r="B915">
@@ -31647,7 +31633,7 @@
     </row>
     <row r="916" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A916" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43761</v>
       </c>
       <c r="B916">
@@ -31668,7 +31654,7 @@
     </row>
     <row r="917" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A917" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43762</v>
       </c>
       <c r="B917">
@@ -31689,7 +31675,7 @@
     </row>
     <row r="918" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A918" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43763</v>
       </c>
       <c r="B918">
@@ -31710,7 +31696,7 @@
     </row>
     <row r="919" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A919" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43764</v>
       </c>
       <c r="B919">
@@ -31731,7 +31717,7 @@
     </row>
     <row r="920" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A920" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43765</v>
       </c>
       <c r="B920">
@@ -31752,7 +31738,7 @@
     </row>
     <row r="921" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A921" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43766</v>
       </c>
       <c r="B921">
@@ -31773,7 +31759,7 @@
     </row>
     <row r="922" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A922" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43767</v>
       </c>
       <c r="B922">
@@ -31794,7 +31780,7 @@
     </row>
     <row r="923" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A923" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43768</v>
       </c>
       <c r="B923">
@@ -31815,7 +31801,7 @@
     </row>
     <row r="924" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A924" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43769</v>
       </c>
       <c r="B924">
@@ -31836,7 +31822,7 @@
     </row>
     <row r="925" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A925" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43770</v>
       </c>
       <c r="B925">
@@ -31857,7 +31843,7 @@
     </row>
     <row r="926" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A926" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43771</v>
       </c>
       <c r="B926">
@@ -31878,7 +31864,7 @@
     </row>
     <row r="927" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A927" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43772</v>
       </c>
       <c r="B927">
@@ -31899,7 +31885,7 @@
     </row>
     <row r="928" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A928" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43773</v>
       </c>
       <c r="B928">
@@ -31920,7 +31906,7 @@
     </row>
     <row r="929" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A929" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43774</v>
       </c>
       <c r="B929">
@@ -31941,7 +31927,7 @@
     </row>
     <row r="930" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A930" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43775</v>
       </c>
       <c r="B930">
@@ -31962,7 +31948,7 @@
     </row>
     <row r="931" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A931" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43776</v>
       </c>
       <c r="B931">
@@ -31983,7 +31969,7 @@
     </row>
     <row r="932" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A932" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43777</v>
       </c>
       <c r="B932">
@@ -32004,7 +31990,7 @@
     </row>
     <row r="933" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A933" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43778</v>
       </c>
       <c r="B933">
@@ -32025,7 +32011,7 @@
     </row>
     <row r="934" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A934" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43779</v>
       </c>
       <c r="B934">
@@ -32046,7 +32032,7 @@
     </row>
     <row r="935" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A935" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43780</v>
       </c>
       <c r="B935">
@@ -32067,7 +32053,7 @@
     </row>
     <row r="936" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A936" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43781</v>
       </c>
       <c r="B936">
@@ -32088,7 +32074,7 @@
     </row>
     <row r="937" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A937" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43782</v>
       </c>
       <c r="B937">
@@ -32109,7 +32095,7 @@
     </row>
     <row r="938" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A938" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43783</v>
       </c>
       <c r="B938">
@@ -32130,7 +32116,7 @@
     </row>
     <row r="939" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A939" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43784</v>
       </c>
       <c r="B939">
@@ -32151,7 +32137,7 @@
     </row>
     <row r="940" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A940" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43785</v>
       </c>
       <c r="B940">
@@ -32172,7 +32158,7 @@
     </row>
     <row r="941" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A941" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43786</v>
       </c>
       <c r="B941">
@@ -32193,7 +32179,7 @@
     </row>
     <row r="942" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A942" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43787</v>
       </c>
       <c r="B942">
@@ -32214,7 +32200,7 @@
     </row>
     <row r="943" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A943" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43788</v>
       </c>
       <c r="B943">
@@ -32235,7 +32221,7 @@
     </row>
     <row r="944" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A944" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43789</v>
       </c>
       <c r="B944">
@@ -32256,7 +32242,7 @@
     </row>
     <row r="945" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A945" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43790</v>
       </c>
       <c r="B945">
@@ -32277,7 +32263,7 @@
     </row>
     <row r="946" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A946" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43791</v>
       </c>
       <c r="B946">
@@ -32298,7 +32284,7 @@
     </row>
     <row r="947" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A947" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43792</v>
       </c>
       <c r="B947">
@@ -32319,7 +32305,7 @@
     </row>
     <row r="948" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A948" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43793</v>
       </c>
       <c r="B948">
@@ -32340,7 +32326,7 @@
     </row>
     <row r="949" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A949" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43794</v>
       </c>
       <c r="B949">
@@ -32361,7 +32347,7 @@
     </row>
     <row r="950" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A950" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43795</v>
       </c>
       <c r="B950">
@@ -32382,7 +32368,7 @@
     </row>
     <row r="951" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A951" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43796</v>
       </c>
       <c r="B951">
@@ -32403,7 +32389,7 @@
     </row>
     <row r="952" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A952" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43797</v>
       </c>
       <c r="B952">
@@ -32424,7 +32410,7 @@
     </row>
     <row r="953" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A953" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43798</v>
       </c>
       <c r="B953">
@@ -32445,7 +32431,7 @@
     </row>
     <row r="954" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A954" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43799</v>
       </c>
       <c r="B954">
@@ -32466,7 +32452,7 @@
     </row>
     <row r="955" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A955" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43800</v>
       </c>
       <c r="B955">
@@ -32487,7 +32473,7 @@
     </row>
     <row r="956" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A956" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43801</v>
       </c>
       <c r="B956">
@@ -32508,7 +32494,7 @@
     </row>
     <row r="957" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A957" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43802</v>
       </c>
       <c r="B957">
@@ -32529,7 +32515,7 @@
     </row>
     <row r="958" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A958" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43803</v>
       </c>
       <c r="B958">
@@ -32550,7 +32536,7 @@
     </row>
     <row r="959" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A959" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43804</v>
       </c>
       <c r="B959">
@@ -32571,7 +32557,7 @@
     </row>
     <row r="960" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A960" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43805</v>
       </c>
       <c r="B960">
@@ -32592,7 +32578,7 @@
     </row>
     <row r="961" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A961" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43806</v>
       </c>
       <c r="B961">
@@ -32613,7 +32599,7 @@
     </row>
     <row r="962" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A962" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43807</v>
       </c>
       <c r="B962">
@@ -32634,7 +32620,7 @@
     </row>
     <row r="963" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A963" s="3">
-        <f t="shared" ref="A963:A1026" si="16">DATE(D963,C963,B963)</f>
+        <f t="shared" ref="A963:A1026" si="15">DATE(D963,C963,B963)</f>
         <v>43808</v>
       </c>
       <c r="B963">
@@ -32655,7 +32641,7 @@
     </row>
     <row r="964" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A964" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43809</v>
       </c>
       <c r="B964">
@@ -32676,7 +32662,7 @@
     </row>
     <row r="965" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A965" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43810</v>
       </c>
       <c r="B965">
@@ -32697,7 +32683,7 @@
     </row>
     <row r="966" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A966" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43811</v>
       </c>
       <c r="B966">
@@ -32718,7 +32704,7 @@
     </row>
     <row r="967" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A967" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43812</v>
       </c>
       <c r="B967">
@@ -32739,7 +32725,7 @@
     </row>
     <row r="968" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A968" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43813</v>
       </c>
       <c r="B968">
@@ -32760,7 +32746,7 @@
     </row>
     <row r="969" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A969" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43814</v>
       </c>
       <c r="B969">
@@ -32781,7 +32767,7 @@
     </row>
     <row r="970" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A970" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43815</v>
       </c>
       <c r="B970">
@@ -32802,7 +32788,7 @@
     </row>
     <row r="971" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A971" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43816</v>
       </c>
       <c r="B971">
@@ -32823,7 +32809,7 @@
     </row>
     <row r="972" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A972" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43817</v>
       </c>
       <c r="B972">
@@ -32844,7 +32830,7 @@
     </row>
     <row r="973" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A973" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43818</v>
       </c>
       <c r="B973">
@@ -32865,7 +32851,7 @@
     </row>
     <row r="974" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A974" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43819</v>
       </c>
       <c r="B974">
@@ -32886,7 +32872,7 @@
     </row>
     <row r="975" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A975" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43820</v>
       </c>
       <c r="B975">
@@ -32907,7 +32893,7 @@
     </row>
     <row r="976" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A976" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43821</v>
       </c>
       <c r="B976">
@@ -32928,7 +32914,7 @@
     </row>
     <row r="977" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A977" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43822</v>
       </c>
       <c r="B977">
@@ -32949,7 +32935,7 @@
     </row>
     <row r="978" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A978" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43823</v>
       </c>
       <c r="B978">
@@ -32970,7 +32956,7 @@
     </row>
     <row r="979" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A979" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43824</v>
       </c>
       <c r="B979">
@@ -32991,7 +32977,7 @@
     </row>
     <row r="980" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A980" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43825</v>
       </c>
       <c r="B980">
@@ -33012,7 +32998,7 @@
     </row>
     <row r="981" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A981" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43826</v>
       </c>
       <c r="B981">
@@ -33033,7 +33019,7 @@
     </row>
     <row r="982" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A982" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43827</v>
       </c>
       <c r="B982">
@@ -33054,7 +33040,7 @@
     </row>
     <row r="983" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A983" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43828</v>
       </c>
       <c r="B983">
@@ -33075,7 +33061,7 @@
     </row>
     <row r="984" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A984" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43829</v>
       </c>
       <c r="B984">
@@ -33096,7 +33082,7 @@
     </row>
     <row r="985" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A985" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43830</v>
       </c>
       <c r="B985">
@@ -33117,7 +33103,7 @@
     </row>
     <row r="986" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A986" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43831</v>
       </c>
       <c r="B986">
@@ -33138,7 +33124,7 @@
     </row>
     <row r="987" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A987" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43832</v>
       </c>
       <c r="B987">
@@ -33159,7 +33145,7 @@
     </row>
     <row r="988" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A988" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43833</v>
       </c>
       <c r="B988">
@@ -33180,7 +33166,7 @@
     </row>
     <row r="989" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A989" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43834</v>
       </c>
       <c r="B989">
@@ -33201,7 +33187,7 @@
     </row>
     <row r="990" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A990" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43835</v>
       </c>
       <c r="B990">
@@ -33222,7 +33208,7 @@
     </row>
     <row r="991" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A991" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43836</v>
       </c>
       <c r="B991">
@@ -33243,7 +33229,7 @@
     </row>
     <row r="992" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A992" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43837</v>
       </c>
       <c r="B992">
@@ -33264,7 +33250,7 @@
     </row>
     <row r="993" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A993" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43838</v>
       </c>
       <c r="B993">
@@ -33285,7 +33271,7 @@
     </row>
     <row r="994" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A994" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43839</v>
       </c>
       <c r="B994">
@@ -33306,7 +33292,7 @@
     </row>
     <row r="995" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A995" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43840</v>
       </c>
       <c r="B995">
@@ -33327,7 +33313,7 @@
     </row>
     <row r="996" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A996" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43841</v>
       </c>
       <c r="B996">
@@ -33348,7 +33334,7 @@
     </row>
     <row r="997" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A997" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43842</v>
       </c>
       <c r="B997">
@@ -33369,7 +33355,7 @@
     </row>
     <row r="998" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A998" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43843</v>
       </c>
       <c r="B998">
@@ -33390,7 +33376,7 @@
     </row>
     <row r="999" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A999" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43844</v>
       </c>
       <c r="B999">
@@ -33411,7 +33397,7 @@
     </row>
     <row r="1000" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1000" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43845</v>
       </c>
       <c r="B1000">
@@ -33432,7 +33418,7 @@
     </row>
     <row r="1001" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1001" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43846</v>
       </c>
       <c r="B1001">
@@ -33453,7 +33439,7 @@
     </row>
     <row r="1002" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1002" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43847</v>
       </c>
       <c r="B1002">
@@ -33474,7 +33460,7 @@
     </row>
     <row r="1003" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1003" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43848</v>
       </c>
       <c r="B1003">
@@ -33495,7 +33481,7 @@
     </row>
     <row r="1004" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1004" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43849</v>
       </c>
       <c r="B1004">
@@ -33516,7 +33502,7 @@
     </row>
     <row r="1005" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1005" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43850</v>
       </c>
       <c r="B1005">
@@ -33537,7 +33523,7 @@
     </row>
     <row r="1006" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1006" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43851</v>
       </c>
       <c r="B1006">
@@ -33558,7 +33544,7 @@
     </row>
     <row r="1007" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1007" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43852</v>
       </c>
       <c r="B1007">
@@ -33579,7 +33565,7 @@
     </row>
     <row r="1008" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1008" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43853</v>
       </c>
       <c r="B1008">
@@ -33600,7 +33586,7 @@
     </row>
     <row r="1009" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1009" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43854</v>
       </c>
       <c r="B1009">
@@ -33621,7 +33607,7 @@
     </row>
     <row r="1010" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1010" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43855</v>
       </c>
       <c r="B1010">
@@ -33642,7 +33628,7 @@
     </row>
     <row r="1011" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1011" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43856</v>
       </c>
       <c r="B1011">
@@ -33663,7 +33649,7 @@
     </row>
     <row r="1012" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1012" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43857</v>
       </c>
       <c r="B1012">
@@ -33684,7 +33670,7 @@
     </row>
     <row r="1013" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1013" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43858</v>
       </c>
       <c r="B1013">
@@ -33705,7 +33691,7 @@
     </row>
     <row r="1014" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1014" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43859</v>
       </c>
       <c r="B1014">
@@ -33726,7 +33712,7 @@
     </row>
     <row r="1015" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1015" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43860</v>
       </c>
       <c r="B1015">
@@ -33747,7 +33733,7 @@
     </row>
     <row r="1016" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1016" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43861</v>
       </c>
       <c r="B1016">
@@ -33768,7 +33754,7 @@
     </row>
     <row r="1017" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1017" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43862</v>
       </c>
       <c r="B1017">
@@ -33789,7 +33775,7 @@
     </row>
     <row r="1018" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1018" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43863</v>
       </c>
       <c r="B1018">
@@ -33810,7 +33796,7 @@
     </row>
     <row r="1019" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1019" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43864</v>
       </c>
       <c r="B1019">
@@ -33831,7 +33817,7 @@
     </row>
     <row r="1020" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1020" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43865</v>
       </c>
       <c r="B1020">
@@ -33852,7 +33838,7 @@
     </row>
     <row r="1021" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1021" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43866</v>
       </c>
       <c r="B1021">
@@ -33873,7 +33859,7 @@
     </row>
     <row r="1022" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1022" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43867</v>
       </c>
       <c r="B1022">
@@ -33894,7 +33880,7 @@
     </row>
     <row r="1023" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1023" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43868</v>
       </c>
       <c r="B1023">
@@ -33915,7 +33901,7 @@
     </row>
     <row r="1024" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1024" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43869</v>
       </c>
       <c r="B1024">
@@ -33936,7 +33922,7 @@
     </row>
     <row r="1025" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1025" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43870</v>
       </c>
       <c r="B1025">
@@ -33957,7 +33943,7 @@
     </row>
     <row r="1026" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1026" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>43871</v>
       </c>
       <c r="B1026">
@@ -33978,7 +33964,7 @@
     </row>
     <row r="1027" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1027" s="3">
-        <f t="shared" ref="A1027:A1054" si="17">DATE(D1027,C1027,B1027)</f>
+        <f t="shared" ref="A1027:A1054" si="16">DATE(D1027,C1027,B1027)</f>
         <v>43872</v>
       </c>
       <c r="B1027">
@@ -33999,7 +33985,7 @@
     </row>
     <row r="1028" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1028" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>43873</v>
       </c>
       <c r="B1028">
@@ -34020,7 +34006,7 @@
     </row>
     <row r="1029" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1029" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>43874</v>
       </c>
       <c r="B1029">
@@ -34041,7 +34027,7 @@
     </row>
     <row r="1030" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1030" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>43875</v>
       </c>
       <c r="B1030">
@@ -34062,7 +34048,7 @@
     </row>
     <row r="1031" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1031" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>43876</v>
       </c>
       <c r="B1031">
@@ -34083,7 +34069,7 @@
     </row>
     <row r="1032" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1032" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>43877</v>
       </c>
       <c r="B1032">
@@ -34104,7 +34090,7 @@
     </row>
     <row r="1033" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1033" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>43878</v>
       </c>
       <c r="B1033">
@@ -34125,7 +34111,7 @@
     </row>
     <row r="1034" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1034" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>43879</v>
       </c>
       <c r="B1034">
@@ -34146,7 +34132,7 @@
     </row>
     <row r="1035" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1035" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>43880</v>
       </c>
       <c r="B1035">
@@ -34167,7 +34153,7 @@
     </row>
     <row r="1036" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1036" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>43881</v>
       </c>
       <c r="B1036">
@@ -34188,7 +34174,7 @@
     </row>
     <row r="1037" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1037" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>43882</v>
       </c>
       <c r="B1037">
@@ -34209,7 +34195,7 @@
     </row>
     <row r="1038" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1038" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>43883</v>
       </c>
       <c r="B1038">
@@ -34230,7 +34216,7 @@
     </row>
     <row r="1039" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1039" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>43884</v>
       </c>
       <c r="B1039">
@@ -34251,7 +34237,7 @@
     </row>
     <row r="1040" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1040" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>43885</v>
       </c>
       <c r="B1040">
@@ -34272,7 +34258,7 @@
     </row>
     <row r="1041" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1041" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>43886</v>
       </c>
       <c r="B1041">
@@ -34293,7 +34279,7 @@
     </row>
     <row r="1042" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1042" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>43887</v>
       </c>
       <c r="B1042">
@@ -34314,7 +34300,7 @@
     </row>
     <row r="1043" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1043" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>43888</v>
       </c>
       <c r="B1043">
@@ -34335,7 +34321,7 @@
     </row>
     <row r="1044" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1044" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>43889</v>
       </c>
       <c r="B1044">
@@ -34356,7 +34342,7 @@
     </row>
     <row r="1045" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1045" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>43890</v>
       </c>
       <c r="B1045">
@@ -34377,7 +34363,7 @@
     </row>
     <row r="1046" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1046" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>43891</v>
       </c>
       <c r="B1046">
@@ -34398,7 +34384,7 @@
     </row>
     <row r="1047" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1047" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>43892</v>
       </c>
       <c r="B1047">
@@ -34419,7 +34405,7 @@
     </row>
     <row r="1048" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1048" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>43893</v>
       </c>
       <c r="B1048">
@@ -34440,7 +34426,7 @@
     </row>
     <row r="1049" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1049" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>43894</v>
       </c>
       <c r="B1049">
@@ -34461,7 +34447,7 @@
     </row>
     <row r="1050" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1050" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>43895</v>
       </c>
       <c r="B1050">
@@ -34482,7 +34468,7 @@
     </row>
     <row r="1051" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1051" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>43896</v>
       </c>
       <c r="B1051">
@@ -34503,7 +34489,7 @@
     </row>
     <row r="1052" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1052" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>43897</v>
       </c>
       <c r="B1052">
@@ -34524,7 +34510,7 @@
     </row>
     <row r="1053" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1053" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>43898</v>
       </c>
       <c r="B1053">
@@ -34545,7 +34531,7 @@
     </row>
     <row r="1054" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1054" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>43899</v>
       </c>
       <c r="B1054">
@@ -34573,8 +34559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08962E3B-BCA8-4339-9DB1-1A9FBD95342E}">
   <dimension ref="A2:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34592,7 +34578,7 @@
       <c r="E2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" t="s">
         <v>37</v>
       </c>
       <c r="G2" t="s">
@@ -34615,7 +34601,7 @@
       <c r="E3" s="10">
         <v>100</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="10">
         <v>100</v>
       </c>
       <c r="G3" s="10">
@@ -34639,8 +34625,8 @@
         <f>E3*(B4/100+1)</f>
         <v>121.10000000000001</v>
       </c>
-      <c r="F4" s="27">
-        <f t="shared" ref="F4:F10" si="0">C4/C3*F3</f>
+      <c r="F4" s="10">
+        <f t="shared" ref="F4:G10" si="0">C4/C3*F3</f>
         <v>121.0689956331878</v>
       </c>
       <c r="G4" s="10">
@@ -34665,7 +34651,7 @@
         <f t="shared" ref="E5:E10" si="1">E4*(B5/100+1)</f>
         <v>170.26660000000004</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="10">
         <f t="shared" si="0"/>
         <v>170.27074235807862</v>
       </c>
@@ -34691,7 +34677,7 @@
         <f t="shared" si="1"/>
         <v>276.17242520000002</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="10">
         <f t="shared" si="0"/>
         <v>276.12576419213974</v>
       </c>
@@ -34717,7 +34703,7 @@
         <f t="shared" si="1"/>
         <v>612.27426666840006</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="10">
         <f t="shared" si="0"/>
         <v>612.27598253275096</v>
       </c>
@@ -34743,7 +34729,7 @@
         <f t="shared" si="1"/>
         <v>2172.9613724061519</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="10">
         <f t="shared" si="0"/>
         <v>2173.2646288209598</v>
       </c>
@@ -34769,7 +34755,7 @@
         <f t="shared" si="1"/>
         <v>11692.705144917503</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="10">
         <f t="shared" si="0"/>
         <v>11694.710917030565</v>
       </c>
@@ -34795,7 +34781,7 @@
         <f t="shared" si="1"/>
         <v>7655693.4592884304</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="10">
         <f t="shared" si="0"/>
         <v>7657004.625327507</v>
       </c>

--- a/poverty_measurement/doc/lines comparison ppp.xlsx
+++ b/poverty_measurement/doc/lines comparison ppp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb563365\GitHub\VEN\poverty_measurement\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECAE09D-3262-4ECB-A048-49FBB401FDBF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDE781C-DA5E-4E81-888A-12D1547D90F6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="canastas" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -301,9 +301,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="171" formatCode="0.0000"/>
-    <numFmt numFmtId="174" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -384,20 +384,20 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -406,7 +406,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -422,9 +422,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1500,7 +1501,7 @@
     <worksheetSource ref="A1:F1054" sheet="infla verdadera"/>
   </cacheSource>
   <cacheFields count="8">
-    <cacheField name="fecha" numFmtId="169">
+    <cacheField name="fecha" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2017-04-22T00:00:00" maxDate="2020-03-10T00:00:00" count="1053">
         <d v="2017-04-22T00:00:00"/>
         <d v="2017-04-23T00:00:00"/>
@@ -11056,10 +11057,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{353E9152-6C64-43AA-B4BB-614E5549065A}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{353E9152-6C64-43AA-B4BB-614E5549065A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H6:I38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
-    <pivotField axis="axisRow" numFmtId="169" showAll="0">
+    <pivotField axis="axisRow" numFmtId="164" showAll="0">
       <items count="15">
         <item x="0"/>
         <item x="1"/>
@@ -11609,8 +11610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11720,13 +11721,13 @@
       <c r="A5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="26">
         <v>1914.1229394276099</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="26">
         <v>1914.1229394276061</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="26">
         <v>1914.1229394276061</v>
       </c>
       <c r="E5" s="11">
@@ -12080,19 +12081,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B20">
-        <f>B18/30.4</f>
+        <f t="shared" ref="B20:E21" si="8">B18/30.4</f>
         <v>45.238315124569027</v>
       </c>
       <c r="C20">
-        <f>C18/30.4</f>
+        <f t="shared" si="8"/>
         <v>42.134637079893267</v>
       </c>
       <c r="D20">
-        <f>D18/30.4</f>
+        <f t="shared" si="8"/>
         <v>17.556098783288864</v>
       </c>
       <c r="E20">
-        <f>E18/30.4</f>
+        <f t="shared" si="8"/>
         <v>18.849306305274734</v>
       </c>
       <c r="F20" t="s">
@@ -12101,19 +12102,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B21">
-        <f>B19/30.4</f>
+        <f t="shared" si="8"/>
         <v>0.33889847423714348</v>
       </c>
       <c r="C21">
-        <f>C19/30.4</f>
+        <f t="shared" si="8"/>
         <v>0.29399184631146069</v>
       </c>
       <c r="D21">
-        <f>D19/30.4</f>
+        <f t="shared" si="8"/>
         <v>5.1040251095739696E-2</v>
       </c>
       <c r="E21">
-        <f>E19/30.4</f>
+        <f t="shared" si="8"/>
         <v>5.8836592710862404E-2</v>
       </c>
     </row>
@@ -12127,8 +12128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF1B70E-0803-43A5-B667-03EABF6A210D}">
   <dimension ref="A1:L1054"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12749,7 +12750,7 @@
         <v>169340.82142857142</v>
       </c>
       <c r="K23">
-        <f>I23/I22</f>
+        <f t="shared" ref="K23:K33" si="1">I23/I22</f>
         <v>1.7778676523277666</v>
       </c>
     </row>
@@ -12780,7 +12781,7 @@
         <v>317481.25806451612</v>
       </c>
       <c r="K24">
-        <f>I24/I23</f>
+        <f t="shared" si="1"/>
         <v>1.874806413398856</v>
       </c>
     </row>
@@ -12811,7 +12812,7 @@
         <v>430295.13333333336</v>
       </c>
       <c r="K25">
-        <f>I25/I24</f>
+        <f t="shared" si="1"/>
         <v>1.3553402678210758</v>
       </c>
     </row>
@@ -12842,7 +12843,7 @@
         <v>517040.93548387097</v>
       </c>
       <c r="K26">
-        <f>I26/I25</f>
+        <f t="shared" si="1"/>
         <v>1.2015960568239541</v>
       </c>
     </row>
@@ -12873,7 +12874,7 @@
         <v>735854.9</v>
       </c>
       <c r="K27">
-        <f>I27/I26</f>
+        <f t="shared" si="1"/>
         <v>1.4232043335434412</v>
       </c>
     </row>
@@ -12904,7 +12905,7 @@
         <v>1029113.7096774194</v>
       </c>
       <c r="K28">
-        <f>I28/I27</f>
+        <f t="shared" si="1"/>
         <v>1.3985280381735847</v>
       </c>
     </row>
@@ -12935,7 +12936,7 @@
         <v>1670967.7419354839</v>
       </c>
       <c r="K29">
-        <f>I29/I28</f>
+        <f t="shared" si="1"/>
         <v>1.6236959300243476</v>
       </c>
     </row>
@@ -12966,7 +12967,7 @@
         <v>2563333.3333333335</v>
       </c>
       <c r="K30">
-        <f>I30/I29</f>
+        <f t="shared" si="1"/>
         <v>1.5340411840411841</v>
       </c>
     </row>
@@ -12997,7 +12998,7 @@
         <v>4016129.0322580645</v>
       </c>
       <c r="K31">
-        <f>I31/I30</f>
+        <f t="shared" si="1"/>
         <v>1.5667603506858507</v>
       </c>
     </row>
@@ -13028,7 +13029,7 @@
         <v>5640000</v>
       </c>
       <c r="K32">
-        <f>I32/I31</f>
+        <f t="shared" si="1"/>
         <v>1.4043373493975904</v>
       </c>
     </row>
@@ -13059,7 +13060,7 @@
         <v>8009677.4193548383</v>
       </c>
       <c r="K33">
-        <f>I33/I32</f>
+        <f t="shared" si="1"/>
         <v>1.4201555708075955</v>
       </c>
     </row>
@@ -13804,7 +13805,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
-        <f t="shared" ref="A67:A130" si="1">DATE(D67,C67,B67)</f>
+        <f t="shared" ref="A67:A130" si="2">DATE(D67,C67,B67)</f>
         <v>42912</v>
       </c>
       <c r="B67">
@@ -13825,7 +13826,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42913</v>
       </c>
       <c r="B68">
@@ -13846,7 +13847,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42914</v>
       </c>
       <c r="B69">
@@ -13867,7 +13868,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42915</v>
       </c>
       <c r="B70">
@@ -13888,7 +13889,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42916</v>
       </c>
       <c r="B71">
@@ -13909,7 +13910,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42917</v>
       </c>
       <c r="B72">
@@ -13930,7 +13931,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42918</v>
       </c>
       <c r="B73">
@@ -13951,7 +13952,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42919</v>
       </c>
       <c r="B74">
@@ -13972,7 +13973,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42920</v>
       </c>
       <c r="B75">
@@ -13993,7 +13994,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42921</v>
       </c>
       <c r="B76">
@@ -14014,7 +14015,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42922</v>
       </c>
       <c r="B77">
@@ -14035,7 +14036,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42923</v>
       </c>
       <c r="B78">
@@ -14056,7 +14057,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42924</v>
       </c>
       <c r="B79">
@@ -14077,7 +14078,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42925</v>
       </c>
       <c r="B80">
@@ -14098,7 +14099,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42926</v>
       </c>
       <c r="B81">
@@ -14119,7 +14120,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42927</v>
       </c>
       <c r="B82">
@@ -14140,7 +14141,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42928</v>
       </c>
       <c r="B83">
@@ -14161,7 +14162,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42929</v>
       </c>
       <c r="B84">
@@ -14182,7 +14183,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42930</v>
       </c>
       <c r="B85">
@@ -14203,7 +14204,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42931</v>
       </c>
       <c r="B86">
@@ -14224,7 +14225,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42932</v>
       </c>
       <c r="B87">
@@ -14245,7 +14246,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42933</v>
       </c>
       <c r="B88">
@@ -14266,7 +14267,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42934</v>
       </c>
       <c r="B89">
@@ -14287,7 +14288,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42935</v>
       </c>
       <c r="B90">
@@ -14308,7 +14309,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42936</v>
       </c>
       <c r="B91">
@@ -14329,7 +14330,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42937</v>
       </c>
       <c r="B92">
@@ -14350,7 +14351,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42938</v>
       </c>
       <c r="B93">
@@ -14371,7 +14372,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42939</v>
       </c>
       <c r="B94">
@@ -14392,7 +14393,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42940</v>
       </c>
       <c r="B95">
@@ -14413,7 +14414,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42941</v>
       </c>
       <c r="B96">
@@ -14434,7 +14435,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42942</v>
       </c>
       <c r="B97">
@@ -14455,7 +14456,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42943</v>
       </c>
       <c r="B98">
@@ -14476,7 +14477,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42944</v>
       </c>
       <c r="B99">
@@ -14497,7 +14498,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42945</v>
       </c>
       <c r="B100">
@@ -14518,7 +14519,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42946</v>
       </c>
       <c r="B101">
@@ -14539,7 +14540,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42947</v>
       </c>
       <c r="B102">
@@ -14560,7 +14561,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42948</v>
       </c>
       <c r="B103">
@@ -14581,7 +14582,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42949</v>
       </c>
       <c r="B104">
@@ -14602,7 +14603,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42950</v>
       </c>
       <c r="B105">
@@ -14623,7 +14624,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42951</v>
       </c>
       <c r="B106">
@@ -14644,7 +14645,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42952</v>
       </c>
       <c r="B107">
@@ -14665,7 +14666,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42953</v>
       </c>
       <c r="B108">
@@ -14686,7 +14687,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42954</v>
       </c>
       <c r="B109">
@@ -14707,7 +14708,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42955</v>
       </c>
       <c r="B110">
@@ -14728,7 +14729,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42956</v>
       </c>
       <c r="B111">
@@ -14749,7 +14750,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42957</v>
       </c>
       <c r="B112">
@@ -14770,7 +14771,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42958</v>
       </c>
       <c r="B113">
@@ -14791,7 +14792,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42959</v>
       </c>
       <c r="B114">
@@ -14812,7 +14813,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42960</v>
       </c>
       <c r="B115">
@@ -14833,7 +14834,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42961</v>
       </c>
       <c r="B116">
@@ -14854,7 +14855,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42962</v>
       </c>
       <c r="B117">
@@ -14875,7 +14876,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42963</v>
       </c>
       <c r="B118">
@@ -14896,7 +14897,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42964</v>
       </c>
       <c r="B119">
@@ -14917,7 +14918,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42965</v>
       </c>
       <c r="B120">
@@ -14938,7 +14939,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42966</v>
       </c>
       <c r="B121">
@@ -14959,7 +14960,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42967</v>
       </c>
       <c r="B122">
@@ -14980,7 +14981,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42968</v>
       </c>
       <c r="B123">
@@ -15001,7 +15002,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42969</v>
       </c>
       <c r="B124">
@@ -15022,7 +15023,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42970</v>
       </c>
       <c r="B125">
@@ -15043,7 +15044,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42971</v>
       </c>
       <c r="B126">
@@ -15064,7 +15065,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42972</v>
       </c>
       <c r="B127">
@@ -15085,7 +15086,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42973</v>
       </c>
       <c r="B128">
@@ -15106,7 +15107,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42974</v>
       </c>
       <c r="B129">
@@ -15127,7 +15128,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42975</v>
       </c>
       <c r="B130">
@@ -15148,7 +15149,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
-        <f t="shared" ref="A131:A194" si="2">DATE(D131,C131,B131)</f>
+        <f t="shared" ref="A131:A194" si="3">DATE(D131,C131,B131)</f>
         <v>42976</v>
       </c>
       <c r="B131">
@@ -15169,7 +15170,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42977</v>
       </c>
       <c r="B132">
@@ -15190,7 +15191,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42978</v>
       </c>
       <c r="B133">
@@ -15211,7 +15212,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42979</v>
       </c>
       <c r="B134">
@@ -15232,7 +15233,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42980</v>
       </c>
       <c r="B135">
@@ -15253,7 +15254,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42981</v>
       </c>
       <c r="B136">
@@ -15274,7 +15275,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42982</v>
       </c>
       <c r="B137">
@@ -15295,7 +15296,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42983</v>
       </c>
       <c r="B138">
@@ -15316,7 +15317,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42984</v>
       </c>
       <c r="B139">
@@ -15337,7 +15338,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42985</v>
       </c>
       <c r="B140">
@@ -15358,7 +15359,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42986</v>
       </c>
       <c r="B141">
@@ -15379,7 +15380,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42987</v>
       </c>
       <c r="B142">
@@ -15400,7 +15401,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42988</v>
       </c>
       <c r="B143">
@@ -15421,7 +15422,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42989</v>
       </c>
       <c r="B144">
@@ -15442,7 +15443,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42990</v>
       </c>
       <c r="B145">
@@ -15463,7 +15464,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42991</v>
       </c>
       <c r="B146">
@@ -15484,7 +15485,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42992</v>
       </c>
       <c r="B147">
@@ -15505,7 +15506,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42993</v>
       </c>
       <c r="B148">
@@ -15526,7 +15527,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42994</v>
       </c>
       <c r="B149">
@@ -15547,7 +15548,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42995</v>
       </c>
       <c r="B150">
@@ -15568,7 +15569,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42996</v>
       </c>
       <c r="B151">
@@ -15589,7 +15590,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42997</v>
       </c>
       <c r="B152">
@@ -15610,7 +15611,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42998</v>
       </c>
       <c r="B153">
@@ -15631,7 +15632,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42999</v>
       </c>
       <c r="B154">
@@ -15652,7 +15653,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43000</v>
       </c>
       <c r="B155">
@@ -15673,7 +15674,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43001</v>
       </c>
       <c r="B156">
@@ -15694,7 +15695,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43002</v>
       </c>
       <c r="B157">
@@ -15715,7 +15716,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43003</v>
       </c>
       <c r="B158">
@@ -15736,7 +15737,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43004</v>
       </c>
       <c r="B159">
@@ -15757,7 +15758,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43005</v>
       </c>
       <c r="B160">
@@ -15778,7 +15779,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43006</v>
       </c>
       <c r="B161">
@@ -15799,7 +15800,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43007</v>
       </c>
       <c r="B162">
@@ -15820,7 +15821,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43008</v>
       </c>
       <c r="B163">
@@ -15841,7 +15842,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43009</v>
       </c>
       <c r="B164">
@@ -15862,7 +15863,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43010</v>
       </c>
       <c r="B165">
@@ -15883,7 +15884,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43011</v>
       </c>
       <c r="B166">
@@ -15904,7 +15905,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43012</v>
       </c>
       <c r="B167">
@@ -15925,7 +15926,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43013</v>
       </c>
       <c r="B168">
@@ -15946,7 +15947,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43014</v>
       </c>
       <c r="B169">
@@ -15967,7 +15968,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43015</v>
       </c>
       <c r="B170">
@@ -15988,7 +15989,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43016</v>
       </c>
       <c r="B171">
@@ -16009,7 +16010,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43017</v>
       </c>
       <c r="B172">
@@ -16030,7 +16031,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43018</v>
       </c>
       <c r="B173">
@@ -16051,7 +16052,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43019</v>
       </c>
       <c r="B174">
@@ -16072,7 +16073,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43020</v>
       </c>
       <c r="B175">
@@ -16093,7 +16094,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43021</v>
       </c>
       <c r="B176">
@@ -16114,7 +16115,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43022</v>
       </c>
       <c r="B177">
@@ -16135,7 +16136,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43023</v>
       </c>
       <c r="B178">
@@ -16156,7 +16157,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43024</v>
       </c>
       <c r="B179">
@@ -16177,7 +16178,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43025</v>
       </c>
       <c r="B180">
@@ -16198,7 +16199,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43026</v>
       </c>
       <c r="B181">
@@ -16219,7 +16220,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43027</v>
       </c>
       <c r="B182">
@@ -16240,7 +16241,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43028</v>
       </c>
       <c r="B183">
@@ -16261,7 +16262,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43029</v>
       </c>
       <c r="B184">
@@ -16282,7 +16283,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43030</v>
       </c>
       <c r="B185">
@@ -16303,7 +16304,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43031</v>
       </c>
       <c r="B186">
@@ -16324,7 +16325,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43032</v>
       </c>
       <c r="B187">
@@ -16345,7 +16346,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43033</v>
       </c>
       <c r="B188">
@@ -16366,7 +16367,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43034</v>
       </c>
       <c r="B189">
@@ -16387,7 +16388,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43035</v>
       </c>
       <c r="B190">
@@ -16408,7 +16409,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43036</v>
       </c>
       <c r="B191">
@@ -16429,7 +16430,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43037</v>
       </c>
       <c r="B192">
@@ -16450,7 +16451,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43038</v>
       </c>
       <c r="B193">
@@ -16471,7 +16472,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43039</v>
       </c>
       <c r="B194">
@@ -16492,7 +16493,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="3">
-        <f t="shared" ref="A195:A258" si="3">DATE(D195,C195,B195)</f>
+        <f t="shared" ref="A195:A258" si="4">DATE(D195,C195,B195)</f>
         <v>43040</v>
       </c>
       <c r="B195">
@@ -16513,7 +16514,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43041</v>
       </c>
       <c r="B196">
@@ -16534,7 +16535,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43042</v>
       </c>
       <c r="B197">
@@ -16555,7 +16556,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43043</v>
       </c>
       <c r="B198">
@@ -16576,7 +16577,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43044</v>
       </c>
       <c r="B199">
@@ -16597,7 +16598,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43045</v>
       </c>
       <c r="B200">
@@ -16618,7 +16619,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43046</v>
       </c>
       <c r="B201">
@@ -16639,7 +16640,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43047</v>
       </c>
       <c r="B202">
@@ -16660,7 +16661,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43048</v>
       </c>
       <c r="B203">
@@ -16681,7 +16682,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43049</v>
       </c>
       <c r="B204">
@@ -16702,7 +16703,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43050</v>
       </c>
       <c r="B205">
@@ -16723,7 +16724,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43051</v>
       </c>
       <c r="B206">
@@ -16744,7 +16745,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43052</v>
       </c>
       <c r="B207">
@@ -16765,7 +16766,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43053</v>
       </c>
       <c r="B208">
@@ -16786,7 +16787,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43054</v>
       </c>
       <c r="B209">
@@ -16807,7 +16808,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43055</v>
       </c>
       <c r="B210">
@@ -16828,7 +16829,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43056</v>
       </c>
       <c r="B211">
@@ -16849,7 +16850,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43057</v>
       </c>
       <c r="B212">
@@ -16870,7 +16871,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43058</v>
       </c>
       <c r="B213">
@@ -16891,7 +16892,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43059</v>
       </c>
       <c r="B214">
@@ -16912,7 +16913,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43060</v>
       </c>
       <c r="B215">
@@ -16933,7 +16934,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43061</v>
       </c>
       <c r="B216">
@@ -16954,7 +16955,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43062</v>
       </c>
       <c r="B217">
@@ -16975,7 +16976,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43063</v>
       </c>
       <c r="B218">
@@ -16996,7 +16997,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43064</v>
       </c>
       <c r="B219">
@@ -17017,7 +17018,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43065</v>
       </c>
       <c r="B220">
@@ -17038,7 +17039,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43066</v>
       </c>
       <c r="B221">
@@ -17059,7 +17060,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43067</v>
       </c>
       <c r="B222">
@@ -17080,7 +17081,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43068</v>
       </c>
       <c r="B223">
@@ -17101,7 +17102,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43069</v>
       </c>
       <c r="B224">
@@ -17122,7 +17123,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43070</v>
       </c>
       <c r="B225">
@@ -17143,7 +17144,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43071</v>
       </c>
       <c r="B226">
@@ -17164,7 +17165,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43072</v>
       </c>
       <c r="B227">
@@ -17185,7 +17186,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43073</v>
       </c>
       <c r="B228">
@@ -17206,7 +17207,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43074</v>
       </c>
       <c r="B229">
@@ -17227,7 +17228,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43075</v>
       </c>
       <c r="B230">
@@ -17248,7 +17249,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43076</v>
       </c>
       <c r="B231">
@@ -17269,7 +17270,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43077</v>
       </c>
       <c r="B232">
@@ -17290,7 +17291,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43078</v>
       </c>
       <c r="B233">
@@ -17311,7 +17312,7 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43079</v>
       </c>
       <c r="B234">
@@ -17332,7 +17333,7 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43080</v>
       </c>
       <c r="B235">
@@ -17353,7 +17354,7 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43081</v>
       </c>
       <c r="B236">
@@ -17374,7 +17375,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43082</v>
       </c>
       <c r="B237">
@@ -17395,7 +17396,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43083</v>
       </c>
       <c r="B238">
@@ -17416,7 +17417,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43084</v>
       </c>
       <c r="B239">
@@ -17437,7 +17438,7 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43085</v>
       </c>
       <c r="B240">
@@ -17458,7 +17459,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43086</v>
       </c>
       <c r="B241">
@@ -17479,7 +17480,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43087</v>
       </c>
       <c r="B242">
@@ -17500,7 +17501,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43088</v>
       </c>
       <c r="B243">
@@ -17521,7 +17522,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43089</v>
       </c>
       <c r="B244">
@@ -17542,7 +17543,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43090</v>
       </c>
       <c r="B245">
@@ -17563,7 +17564,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43091</v>
       </c>
       <c r="B246">
@@ -17584,7 +17585,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43092</v>
       </c>
       <c r="B247">
@@ -17605,7 +17606,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43093</v>
       </c>
       <c r="B248">
@@ -17626,7 +17627,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43094</v>
       </c>
       <c r="B249">
@@ -17647,7 +17648,7 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43095</v>
       </c>
       <c r="B250">
@@ -17668,7 +17669,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43096</v>
       </c>
       <c r="B251">
@@ -17689,7 +17690,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43097</v>
       </c>
       <c r="B252">
@@ -17710,7 +17711,7 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43098</v>
       </c>
       <c r="B253">
@@ -17731,7 +17732,7 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43099</v>
       </c>
       <c r="B254">
@@ -17752,7 +17753,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43100</v>
       </c>
       <c r="B255">
@@ -17773,7 +17774,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43101</v>
       </c>
       <c r="B256">
@@ -17794,7 +17795,7 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43102</v>
       </c>
       <c r="B257">
@@ -17815,7 +17816,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43103</v>
       </c>
       <c r="B258">
@@ -17836,7 +17837,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" s="3">
-        <f t="shared" ref="A259:A322" si="4">DATE(D259,C259,B259)</f>
+        <f t="shared" ref="A259:A322" si="5">DATE(D259,C259,B259)</f>
         <v>43104</v>
       </c>
       <c r="B259">
@@ -17857,7 +17858,7 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43105</v>
       </c>
       <c r="B260">
@@ -17878,7 +17879,7 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43106</v>
       </c>
       <c r="B261">
@@ -17899,7 +17900,7 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43107</v>
       </c>
       <c r="B262">
@@ -17920,7 +17921,7 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43108</v>
       </c>
       <c r="B263">
@@ -17941,7 +17942,7 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43109</v>
       </c>
       <c r="B264">
@@ -17962,7 +17963,7 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43110</v>
       </c>
       <c r="B265">
@@ -17983,7 +17984,7 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43111</v>
       </c>
       <c r="B266">
@@ -18004,7 +18005,7 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43112</v>
       </c>
       <c r="B267">
@@ -18025,7 +18026,7 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43113</v>
       </c>
       <c r="B268">
@@ -18046,7 +18047,7 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43114</v>
       </c>
       <c r="B269">
@@ -18067,7 +18068,7 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43115</v>
       </c>
       <c r="B270">
@@ -18088,7 +18089,7 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43116</v>
       </c>
       <c r="B271">
@@ -18109,7 +18110,7 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43117</v>
       </c>
       <c r="B272">
@@ -18130,7 +18131,7 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43118</v>
       </c>
       <c r="B273">
@@ -18151,7 +18152,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43119</v>
       </c>
       <c r="B274">
@@ -18172,7 +18173,7 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43120</v>
       </c>
       <c r="B275">
@@ -18193,7 +18194,7 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43121</v>
       </c>
       <c r="B276">
@@ -18214,7 +18215,7 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43122</v>
       </c>
       <c r="B277">
@@ -18235,7 +18236,7 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43123</v>
       </c>
       <c r="B278">
@@ -18256,7 +18257,7 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43124</v>
       </c>
       <c r="B279">
@@ -18277,7 +18278,7 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43125</v>
       </c>
       <c r="B280">
@@ -18298,7 +18299,7 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43126</v>
       </c>
       <c r="B281">
@@ -18319,7 +18320,7 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43127</v>
       </c>
       <c r="B282">
@@ -18340,7 +18341,7 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43128</v>
       </c>
       <c r="B283">
@@ -18361,7 +18362,7 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43129</v>
       </c>
       <c r="B284">
@@ -18382,7 +18383,7 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43130</v>
       </c>
       <c r="B285">
@@ -18403,7 +18404,7 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43131</v>
       </c>
       <c r="B286">
@@ -18424,7 +18425,7 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43132</v>
       </c>
       <c r="B287">
@@ -18445,7 +18446,7 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43133</v>
       </c>
       <c r="B288">
@@ -18466,7 +18467,7 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43134</v>
       </c>
       <c r="B289">
@@ -18487,7 +18488,7 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43135</v>
       </c>
       <c r="B290">
@@ -18508,7 +18509,7 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43136</v>
       </c>
       <c r="B291">
@@ -18529,7 +18530,7 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43137</v>
       </c>
       <c r="B292">
@@ -18550,7 +18551,7 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43138</v>
       </c>
       <c r="B293">
@@ -18571,7 +18572,7 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43139</v>
       </c>
       <c r="B294">
@@ -18592,7 +18593,7 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43140</v>
       </c>
       <c r="B295">
@@ -18613,7 +18614,7 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43141</v>
       </c>
       <c r="B296">
@@ -18634,7 +18635,7 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43142</v>
       </c>
       <c r="B297">
@@ -18655,7 +18656,7 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43143</v>
       </c>
       <c r="B298">
@@ -18676,7 +18677,7 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43144</v>
       </c>
       <c r="B299">
@@ -18697,7 +18698,7 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43145</v>
       </c>
       <c r="B300">
@@ -18718,7 +18719,7 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43146</v>
       </c>
       <c r="B301">
@@ -18739,7 +18740,7 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43147</v>
       </c>
       <c r="B302">
@@ -18760,7 +18761,7 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43148</v>
       </c>
       <c r="B303">
@@ -18781,7 +18782,7 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43149</v>
       </c>
       <c r="B304">
@@ -18802,7 +18803,7 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43150</v>
       </c>
       <c r="B305">
@@ -18823,7 +18824,7 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43151</v>
       </c>
       <c r="B306">
@@ -18844,7 +18845,7 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43152</v>
       </c>
       <c r="B307">
@@ -18865,7 +18866,7 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43153</v>
       </c>
       <c r="B308">
@@ -18886,7 +18887,7 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43154</v>
       </c>
       <c r="B309">
@@ -18907,7 +18908,7 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43155</v>
       </c>
       <c r="B310">
@@ -18928,7 +18929,7 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43156</v>
       </c>
       <c r="B311">
@@ -18949,7 +18950,7 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43157</v>
       </c>
       <c r="B312">
@@ -18970,7 +18971,7 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43158</v>
       </c>
       <c r="B313">
@@ -18991,7 +18992,7 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43159</v>
       </c>
       <c r="B314">
@@ -19012,7 +19013,7 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43160</v>
       </c>
       <c r="B315">
@@ -19033,7 +19034,7 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43161</v>
       </c>
       <c r="B316">
@@ -19054,7 +19055,7 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43162</v>
       </c>
       <c r="B317">
@@ -19075,7 +19076,7 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43163</v>
       </c>
       <c r="B318">
@@ -19096,7 +19097,7 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43164</v>
       </c>
       <c r="B319">
@@ -19117,7 +19118,7 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43165</v>
       </c>
       <c r="B320">
@@ -19138,7 +19139,7 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43166</v>
       </c>
       <c r="B321">
@@ -19159,7 +19160,7 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43167</v>
       </c>
       <c r="B322">
@@ -19180,7 +19181,7 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" s="3">
-        <f t="shared" ref="A323:A386" si="5">DATE(D323,C323,B323)</f>
+        <f t="shared" ref="A323:A386" si="6">DATE(D323,C323,B323)</f>
         <v>43168</v>
       </c>
       <c r="B323">
@@ -19201,7 +19202,7 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43169</v>
       </c>
       <c r="B324">
@@ -19222,7 +19223,7 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43170</v>
       </c>
       <c r="B325">
@@ -19243,7 +19244,7 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43171</v>
       </c>
       <c r="B326">
@@ -19264,7 +19265,7 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43172</v>
       </c>
       <c r="B327">
@@ -19285,7 +19286,7 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43173</v>
       </c>
       <c r="B328">
@@ -19306,7 +19307,7 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43174</v>
       </c>
       <c r="B329">
@@ -19327,7 +19328,7 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43175</v>
       </c>
       <c r="B330">
@@ -19348,7 +19349,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43176</v>
       </c>
       <c r="B331">
@@ -19369,7 +19370,7 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43177</v>
       </c>
       <c r="B332">
@@ -19390,7 +19391,7 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43178</v>
       </c>
       <c r="B333">
@@ -19411,7 +19412,7 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43179</v>
       </c>
       <c r="B334">
@@ -19432,7 +19433,7 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43180</v>
       </c>
       <c r="B335">
@@ -19453,7 +19454,7 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43181</v>
       </c>
       <c r="B336">
@@ -19474,7 +19475,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43182</v>
       </c>
       <c r="B337">
@@ -19495,7 +19496,7 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43183</v>
       </c>
       <c r="B338">
@@ -19516,7 +19517,7 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43184</v>
       </c>
       <c r="B339">
@@ -19537,7 +19538,7 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43185</v>
       </c>
       <c r="B340">
@@ -19558,7 +19559,7 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43186</v>
       </c>
       <c r="B341">
@@ -19579,7 +19580,7 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43187</v>
       </c>
       <c r="B342">
@@ -19600,7 +19601,7 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43188</v>
       </c>
       <c r="B343">
@@ -19621,7 +19622,7 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43189</v>
       </c>
       <c r="B344">
@@ -19642,7 +19643,7 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43190</v>
       </c>
       <c r="B345">
@@ -19663,7 +19664,7 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43191</v>
       </c>
       <c r="B346">
@@ -19684,7 +19685,7 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43192</v>
       </c>
       <c r="B347">
@@ -19705,7 +19706,7 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43193</v>
       </c>
       <c r="B348">
@@ -19726,7 +19727,7 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43194</v>
       </c>
       <c r="B349">
@@ -19747,7 +19748,7 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43195</v>
       </c>
       <c r="B350">
@@ -19768,7 +19769,7 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43196</v>
       </c>
       <c r="B351">
@@ -19789,7 +19790,7 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43197</v>
       </c>
       <c r="B352">
@@ -19810,7 +19811,7 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43198</v>
       </c>
       <c r="B353">
@@ -19831,7 +19832,7 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43199</v>
       </c>
       <c r="B354">
@@ -19852,7 +19853,7 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43200</v>
       </c>
       <c r="B355">
@@ -19873,7 +19874,7 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43201</v>
       </c>
       <c r="B356">
@@ -19894,7 +19895,7 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43202</v>
       </c>
       <c r="B357">
@@ -19915,7 +19916,7 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A358" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43203</v>
       </c>
       <c r="B358">
@@ -19936,7 +19937,7 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A359" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43204</v>
       </c>
       <c r="B359">
@@ -19957,7 +19958,7 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A360" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43205</v>
       </c>
       <c r="B360">
@@ -19978,7 +19979,7 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A361" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43206</v>
       </c>
       <c r="B361">
@@ -19999,7 +20000,7 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A362" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43207</v>
       </c>
       <c r="B362">
@@ -20020,7 +20021,7 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A363" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43208</v>
       </c>
       <c r="B363">
@@ -20041,7 +20042,7 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A364" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43209</v>
       </c>
       <c r="B364">
@@ -20062,7 +20063,7 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A365" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43210</v>
       </c>
       <c r="B365">
@@ -20083,7 +20084,7 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A366" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43211</v>
       </c>
       <c r="B366">
@@ -20104,7 +20105,7 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A367" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43212</v>
       </c>
       <c r="B367">
@@ -20125,7 +20126,7 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A368" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43213</v>
       </c>
       <c r="B368">
@@ -20146,7 +20147,7 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A369" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43214</v>
       </c>
       <c r="B369">
@@ -20167,7 +20168,7 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43215</v>
       </c>
       <c r="B370">
@@ -20188,7 +20189,7 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43216</v>
       </c>
       <c r="B371">
@@ -20209,7 +20210,7 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A372" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43217</v>
       </c>
       <c r="B372">
@@ -20230,7 +20231,7 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43218</v>
       </c>
       <c r="B373">
@@ -20251,7 +20252,7 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43219</v>
       </c>
       <c r="B374">
@@ -20272,7 +20273,7 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43220</v>
       </c>
       <c r="B375">
@@ -20293,7 +20294,7 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A376" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43221</v>
       </c>
       <c r="B376">
@@ -20314,7 +20315,7 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43222</v>
       </c>
       <c r="B377">
@@ -20335,7 +20336,7 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43223</v>
       </c>
       <c r="B378">
@@ -20356,7 +20357,7 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43224</v>
       </c>
       <c r="B379">
@@ -20377,7 +20378,7 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43225</v>
       </c>
       <c r="B380">
@@ -20398,7 +20399,7 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A381" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43226</v>
       </c>
       <c r="B381">
@@ -20419,7 +20420,7 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A382" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43227</v>
       </c>
       <c r="B382">
@@ -20440,7 +20441,7 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A383" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43228</v>
       </c>
       <c r="B383">
@@ -20461,7 +20462,7 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A384" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43229</v>
       </c>
       <c r="B384">
@@ -20482,7 +20483,7 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A385" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43230</v>
       </c>
       <c r="B385">
@@ -20503,7 +20504,7 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A386" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43231</v>
       </c>
       <c r="B386">
@@ -20524,7 +20525,7 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A387" s="3">
-        <f t="shared" ref="A387:A450" si="6">DATE(D387,C387,B387)</f>
+        <f t="shared" ref="A387:A450" si="7">DATE(D387,C387,B387)</f>
         <v>43232</v>
       </c>
       <c r="B387">
@@ -20545,7 +20546,7 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A388" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43233</v>
       </c>
       <c r="B388">
@@ -20566,7 +20567,7 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A389" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43234</v>
       </c>
       <c r="B389">
@@ -20587,7 +20588,7 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A390" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43235</v>
       </c>
       <c r="B390">
@@ -20608,7 +20609,7 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A391" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43236</v>
       </c>
       <c r="B391">
@@ -20629,7 +20630,7 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A392" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43237</v>
       </c>
       <c r="B392">
@@ -20650,7 +20651,7 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A393" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43238</v>
       </c>
       <c r="B393">
@@ -20671,7 +20672,7 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A394" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43239</v>
       </c>
       <c r="B394">
@@ -20692,7 +20693,7 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A395" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43240</v>
       </c>
       <c r="B395">
@@ -20713,7 +20714,7 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A396" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43241</v>
       </c>
       <c r="B396">
@@ -20734,7 +20735,7 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A397" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43242</v>
       </c>
       <c r="B397">
@@ -20755,7 +20756,7 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A398" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43243</v>
       </c>
       <c r="B398">
@@ -20776,7 +20777,7 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A399" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43244</v>
       </c>
       <c r="B399">
@@ -20797,7 +20798,7 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A400" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43245</v>
       </c>
       <c r="B400">
@@ -20818,7 +20819,7 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A401" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43246</v>
       </c>
       <c r="B401">
@@ -20839,7 +20840,7 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A402" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43247</v>
       </c>
       <c r="B402">
@@ -20860,7 +20861,7 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A403" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43248</v>
       </c>
       <c r="B403">
@@ -20881,7 +20882,7 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A404" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43249</v>
       </c>
       <c r="B404">
@@ -20902,7 +20903,7 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A405" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43250</v>
       </c>
       <c r="B405">
@@ -20923,7 +20924,7 @@
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A406" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43251</v>
       </c>
       <c r="B406">
@@ -20944,7 +20945,7 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A407" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43252</v>
       </c>
       <c r="B407">
@@ -20965,7 +20966,7 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A408" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43253</v>
       </c>
       <c r="B408">
@@ -20986,7 +20987,7 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A409" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43254</v>
       </c>
       <c r="B409">
@@ -21007,7 +21008,7 @@
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A410" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43255</v>
       </c>
       <c r="B410">
@@ -21028,7 +21029,7 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A411" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43256</v>
       </c>
       <c r="B411">
@@ -21049,7 +21050,7 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A412" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43257</v>
       </c>
       <c r="B412">
@@ -21070,7 +21071,7 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A413" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43258</v>
       </c>
       <c r="B413">
@@ -21091,7 +21092,7 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A414" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43259</v>
       </c>
       <c r="B414">
@@ -21112,7 +21113,7 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A415" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43260</v>
       </c>
       <c r="B415">
@@ -21133,7 +21134,7 @@
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A416" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43261</v>
       </c>
       <c r="B416">
@@ -21154,7 +21155,7 @@
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A417" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43262</v>
       </c>
       <c r="B417">
@@ -21175,7 +21176,7 @@
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A418" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43263</v>
       </c>
       <c r="B418">
@@ -21196,7 +21197,7 @@
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A419" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43264</v>
       </c>
       <c r="B419">
@@ -21217,7 +21218,7 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A420" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43265</v>
       </c>
       <c r="B420">
@@ -21238,7 +21239,7 @@
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A421" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43266</v>
       </c>
       <c r="B421">
@@ -21259,7 +21260,7 @@
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A422" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43267</v>
       </c>
       <c r="B422">
@@ -21280,7 +21281,7 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A423" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43268</v>
       </c>
       <c r="B423">
@@ -21301,7 +21302,7 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A424" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43269</v>
       </c>
       <c r="B424">
@@ -21322,7 +21323,7 @@
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A425" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43270</v>
       </c>
       <c r="B425">
@@ -21343,7 +21344,7 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A426" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43271</v>
       </c>
       <c r="B426">
@@ -21364,7 +21365,7 @@
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A427" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43272</v>
       </c>
       <c r="B427">
@@ -21385,7 +21386,7 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A428" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43273</v>
       </c>
       <c r="B428">
@@ -21406,7 +21407,7 @@
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A429" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43274</v>
       </c>
       <c r="B429">
@@ -21427,7 +21428,7 @@
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A430" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43275</v>
       </c>
       <c r="B430">
@@ -21448,7 +21449,7 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A431" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43276</v>
       </c>
       <c r="B431">
@@ -21469,7 +21470,7 @@
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A432" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43277</v>
       </c>
       <c r="B432">
@@ -21490,7 +21491,7 @@
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A433" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43278</v>
       </c>
       <c r="B433">
@@ -21511,7 +21512,7 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A434" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43279</v>
       </c>
       <c r="B434">
@@ -21532,7 +21533,7 @@
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A435" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43280</v>
       </c>
       <c r="B435">
@@ -21553,7 +21554,7 @@
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A436" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43281</v>
       </c>
       <c r="B436">
@@ -21574,7 +21575,7 @@
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A437" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43282</v>
       </c>
       <c r="B437">
@@ -21595,7 +21596,7 @@
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A438" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43283</v>
       </c>
       <c r="B438">
@@ -21616,7 +21617,7 @@
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A439" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43284</v>
       </c>
       <c r="B439">
@@ -21637,7 +21638,7 @@
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A440" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43285</v>
       </c>
       <c r="B440">
@@ -21658,7 +21659,7 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A441" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43286</v>
       </c>
       <c r="B441">
@@ -21679,7 +21680,7 @@
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A442" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43287</v>
       </c>
       <c r="B442">
@@ -21700,7 +21701,7 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A443" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43288</v>
       </c>
       <c r="B443">
@@ -21721,7 +21722,7 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A444" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43289</v>
       </c>
       <c r="B444">
@@ -21742,7 +21743,7 @@
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A445" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43290</v>
       </c>
       <c r="B445">
@@ -21763,7 +21764,7 @@
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A446" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43291</v>
       </c>
       <c r="B446">
@@ -21784,7 +21785,7 @@
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A447" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43292</v>
       </c>
       <c r="B447">
@@ -21805,7 +21806,7 @@
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A448" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43293</v>
       </c>
       <c r="B448">
@@ -21826,7 +21827,7 @@
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A449" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43294</v>
       </c>
       <c r="B449">
@@ -21847,7 +21848,7 @@
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A450" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43295</v>
       </c>
       <c r="B450">
@@ -21868,7 +21869,7 @@
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A451" s="3">
-        <f t="shared" ref="A451:A514" si="7">DATE(D451,C451,B451)</f>
+        <f t="shared" ref="A451:A514" si="8">DATE(D451,C451,B451)</f>
         <v>43296</v>
       </c>
       <c r="B451">
@@ -21889,7 +21890,7 @@
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A452" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43297</v>
       </c>
       <c r="B452">
@@ -21910,7 +21911,7 @@
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A453" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43298</v>
       </c>
       <c r="B453">
@@ -21931,7 +21932,7 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A454" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43299</v>
       </c>
       <c r="B454">
@@ -21952,7 +21953,7 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A455" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43300</v>
       </c>
       <c r="B455">
@@ -21973,7 +21974,7 @@
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A456" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43301</v>
       </c>
       <c r="B456">
@@ -21994,7 +21995,7 @@
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A457" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43302</v>
       </c>
       <c r="B457">
@@ -22015,7 +22016,7 @@
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A458" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43303</v>
       </c>
       <c r="B458">
@@ -22036,7 +22037,7 @@
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A459" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43304</v>
       </c>
       <c r="B459">
@@ -22057,7 +22058,7 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A460" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43305</v>
       </c>
       <c r="B460">
@@ -22078,7 +22079,7 @@
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A461" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43306</v>
       </c>
       <c r="B461">
@@ -22099,7 +22100,7 @@
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A462" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43307</v>
       </c>
       <c r="B462">
@@ -22120,7 +22121,7 @@
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A463" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43308</v>
       </c>
       <c r="B463">
@@ -22141,7 +22142,7 @@
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A464" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43309</v>
       </c>
       <c r="B464">
@@ -22162,7 +22163,7 @@
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A465" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43310</v>
       </c>
       <c r="B465">
@@ -22183,7 +22184,7 @@
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A466" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43311</v>
       </c>
       <c r="B466">
@@ -22204,7 +22205,7 @@
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A467" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43312</v>
       </c>
       <c r="B467">
@@ -22225,7 +22226,7 @@
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A468" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43313</v>
       </c>
       <c r="B468">
@@ -22246,7 +22247,7 @@
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A469" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43314</v>
       </c>
       <c r="B469">
@@ -22267,7 +22268,7 @@
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A470" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43315</v>
       </c>
       <c r="B470">
@@ -22288,7 +22289,7 @@
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A471" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43316</v>
       </c>
       <c r="B471">
@@ -22309,7 +22310,7 @@
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A472" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43317</v>
       </c>
       <c r="B472">
@@ -22330,7 +22331,7 @@
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A473" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43318</v>
       </c>
       <c r="B473">
@@ -22351,7 +22352,7 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A474" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43319</v>
       </c>
       <c r="B474">
@@ -22372,7 +22373,7 @@
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A475" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43320</v>
       </c>
       <c r="B475">
@@ -22393,7 +22394,7 @@
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A476" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43321</v>
       </c>
       <c r="B476">
@@ -22414,7 +22415,7 @@
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A477" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43322</v>
       </c>
       <c r="B477">
@@ -22435,7 +22436,7 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A478" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43323</v>
       </c>
       <c r="B478">
@@ -22456,7 +22457,7 @@
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A479" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43324</v>
       </c>
       <c r="B479">
@@ -22477,7 +22478,7 @@
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A480" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43325</v>
       </c>
       <c r="B480">
@@ -22498,7 +22499,7 @@
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A481" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43326</v>
       </c>
       <c r="B481">
@@ -22519,7 +22520,7 @@
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A482" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43327</v>
       </c>
       <c r="B482">
@@ -22540,7 +22541,7 @@
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A483" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43328</v>
       </c>
       <c r="B483">
@@ -22561,7 +22562,7 @@
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A484" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43329</v>
       </c>
       <c r="B484">
@@ -22582,7 +22583,7 @@
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A485" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43330</v>
       </c>
       <c r="B485">
@@ -22603,7 +22604,7 @@
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A486" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43331</v>
       </c>
       <c r="B486">
@@ -22624,7 +22625,7 @@
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A487" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43332</v>
       </c>
       <c r="B487">
@@ -22645,7 +22646,7 @@
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A488" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43333</v>
       </c>
       <c r="B488">
@@ -22666,7 +22667,7 @@
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A489" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43334</v>
       </c>
       <c r="B489">
@@ -22687,7 +22688,7 @@
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A490" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43335</v>
       </c>
       <c r="B490">
@@ -22708,7 +22709,7 @@
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A491" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43336</v>
       </c>
       <c r="B491">
@@ -22729,7 +22730,7 @@
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A492" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43337</v>
       </c>
       <c r="B492">
@@ -22750,7 +22751,7 @@
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A493" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43338</v>
       </c>
       <c r="B493">
@@ -22771,7 +22772,7 @@
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A494" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43339</v>
       </c>
       <c r="B494">
@@ -22792,7 +22793,7 @@
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A495" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43340</v>
       </c>
       <c r="B495">
@@ -22813,7 +22814,7 @@
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A496" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43341</v>
       </c>
       <c r="B496">
@@ -22834,7 +22835,7 @@
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A497" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43342</v>
       </c>
       <c r="B497">
@@ -22855,7 +22856,7 @@
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A498" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43343</v>
       </c>
       <c r="B498">
@@ -22876,7 +22877,7 @@
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A499" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43344</v>
       </c>
       <c r="B499">
@@ -22897,7 +22898,7 @@
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A500" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43345</v>
       </c>
       <c r="B500">
@@ -22918,7 +22919,7 @@
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A501" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43346</v>
       </c>
       <c r="B501">
@@ -22939,7 +22940,7 @@
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A502" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43347</v>
       </c>
       <c r="B502">
@@ -22960,7 +22961,7 @@
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A503" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43348</v>
       </c>
       <c r="B503">
@@ -22981,7 +22982,7 @@
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A504" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43349</v>
       </c>
       <c r="B504">
@@ -23002,7 +23003,7 @@
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A505" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43350</v>
       </c>
       <c r="B505">
@@ -23023,7 +23024,7 @@
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A506" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43351</v>
       </c>
       <c r="B506">
@@ -23044,7 +23045,7 @@
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A507" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43352</v>
       </c>
       <c r="B507">
@@ -23065,7 +23066,7 @@
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A508" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43353</v>
       </c>
       <c r="B508">
@@ -23086,7 +23087,7 @@
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A509" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43354</v>
       </c>
       <c r="B509">
@@ -23107,7 +23108,7 @@
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A510" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43355</v>
       </c>
       <c r="B510">
@@ -23128,7 +23129,7 @@
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A511" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43356</v>
       </c>
       <c r="B511">
@@ -23149,7 +23150,7 @@
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A512" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43357</v>
       </c>
       <c r="B512">
@@ -23170,7 +23171,7 @@
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A513" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43358</v>
       </c>
       <c r="B513">
@@ -23191,7 +23192,7 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A514" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43359</v>
       </c>
       <c r="B514">
@@ -23212,7 +23213,7 @@
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A515" s="3">
-        <f t="shared" ref="A515:A578" si="8">DATE(D515,C515,B515)</f>
+        <f t="shared" ref="A515:A578" si="9">DATE(D515,C515,B515)</f>
         <v>43360</v>
       </c>
       <c r="B515">
@@ -23233,7 +23234,7 @@
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A516" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43361</v>
       </c>
       <c r="B516">
@@ -23254,7 +23255,7 @@
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A517" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43362</v>
       </c>
       <c r="B517">
@@ -23275,7 +23276,7 @@
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A518" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43363</v>
       </c>
       <c r="B518">
@@ -23296,7 +23297,7 @@
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A519" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43364</v>
       </c>
       <c r="B519">
@@ -23317,7 +23318,7 @@
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A520" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43365</v>
       </c>
       <c r="B520">
@@ -23338,7 +23339,7 @@
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A521" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43366</v>
       </c>
       <c r="B521">
@@ -23359,7 +23360,7 @@
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A522" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43367</v>
       </c>
       <c r="B522">
@@ -23380,7 +23381,7 @@
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A523" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43368</v>
       </c>
       <c r="B523">
@@ -23401,7 +23402,7 @@
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A524" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43369</v>
       </c>
       <c r="B524">
@@ -23422,7 +23423,7 @@
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A525" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43370</v>
       </c>
       <c r="B525">
@@ -23443,7 +23444,7 @@
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A526" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43371</v>
       </c>
       <c r="B526">
@@ -23464,7 +23465,7 @@
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A527" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43372</v>
       </c>
       <c r="B527">
@@ -23485,7 +23486,7 @@
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A528" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43373</v>
       </c>
       <c r="B528">
@@ -23506,7 +23507,7 @@
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A529" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43374</v>
       </c>
       <c r="B529">
@@ -23527,7 +23528,7 @@
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A530" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43375</v>
       </c>
       <c r="B530">
@@ -23548,7 +23549,7 @@
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A531" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43376</v>
       </c>
       <c r="B531">
@@ -23569,7 +23570,7 @@
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A532" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43377</v>
       </c>
       <c r="B532">
@@ -23590,7 +23591,7 @@
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A533" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43378</v>
       </c>
       <c r="B533">
@@ -23611,7 +23612,7 @@
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A534" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43379</v>
       </c>
       <c r="B534">
@@ -23632,7 +23633,7 @@
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A535" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43380</v>
       </c>
       <c r="B535">
@@ -23653,7 +23654,7 @@
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A536" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43381</v>
       </c>
       <c r="B536">
@@ -23674,7 +23675,7 @@
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A537" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43382</v>
       </c>
       <c r="B537">
@@ -23695,7 +23696,7 @@
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A538" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43383</v>
       </c>
       <c r="B538">
@@ -23716,7 +23717,7 @@
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A539" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43384</v>
       </c>
       <c r="B539">
@@ -23737,7 +23738,7 @@
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A540" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43385</v>
       </c>
       <c r="B540">
@@ -23758,7 +23759,7 @@
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A541" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43386</v>
       </c>
       <c r="B541">
@@ -23779,7 +23780,7 @@
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A542" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43387</v>
       </c>
       <c r="B542">
@@ -23800,7 +23801,7 @@
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A543" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43388</v>
       </c>
       <c r="B543">
@@ -23821,7 +23822,7 @@
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A544" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43389</v>
       </c>
       <c r="B544">
@@ -23842,7 +23843,7 @@
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A545" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43390</v>
       </c>
       <c r="B545">
@@ -23863,7 +23864,7 @@
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A546" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43391</v>
       </c>
       <c r="B546">
@@ -23884,7 +23885,7 @@
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A547" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43392</v>
       </c>
       <c r="B547">
@@ -23905,7 +23906,7 @@
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A548" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43393</v>
       </c>
       <c r="B548">
@@ -23926,7 +23927,7 @@
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A549" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43394</v>
       </c>
       <c r="B549">
@@ -23947,7 +23948,7 @@
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A550" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43395</v>
       </c>
       <c r="B550">
@@ -23968,7 +23969,7 @@
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A551" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43396</v>
       </c>
       <c r="B551">
@@ -23989,7 +23990,7 @@
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A552" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43397</v>
       </c>
       <c r="B552">
@@ -24010,7 +24011,7 @@
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A553" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43398</v>
       </c>
       <c r="B553">
@@ -24031,7 +24032,7 @@
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A554" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43399</v>
       </c>
       <c r="B554">
@@ -24052,7 +24053,7 @@
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A555" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43400</v>
       </c>
       <c r="B555">
@@ -24073,7 +24074,7 @@
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A556" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43401</v>
       </c>
       <c r="B556">
@@ -24094,7 +24095,7 @@
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A557" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43402</v>
       </c>
       <c r="B557">
@@ -24115,7 +24116,7 @@
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A558" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43403</v>
       </c>
       <c r="B558">
@@ -24136,7 +24137,7 @@
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A559" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43404</v>
       </c>
       <c r="B559">
@@ -24157,7 +24158,7 @@
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A560" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43405</v>
       </c>
       <c r="B560">
@@ -24178,7 +24179,7 @@
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A561" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43406</v>
       </c>
       <c r="B561">
@@ -24199,7 +24200,7 @@
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A562" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43407</v>
       </c>
       <c r="B562">
@@ -24220,7 +24221,7 @@
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A563" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43408</v>
       </c>
       <c r="B563">
@@ -24241,7 +24242,7 @@
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A564" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43409</v>
       </c>
       <c r="B564">
@@ -24262,7 +24263,7 @@
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A565" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43410</v>
       </c>
       <c r="B565">
@@ -24283,7 +24284,7 @@
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A566" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43411</v>
       </c>
       <c r="B566">
@@ -24304,7 +24305,7 @@
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A567" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43412</v>
       </c>
       <c r="B567">
@@ -24325,7 +24326,7 @@
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A568" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43413</v>
       </c>
       <c r="B568">
@@ -24346,7 +24347,7 @@
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A569" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43414</v>
       </c>
       <c r="B569">
@@ -24367,7 +24368,7 @@
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A570" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43415</v>
       </c>
       <c r="B570">
@@ -24388,7 +24389,7 @@
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A571" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43416</v>
       </c>
       <c r="B571">
@@ -24409,7 +24410,7 @@
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A572" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43417</v>
       </c>
       <c r="B572">
@@ -24430,7 +24431,7 @@
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A573" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43418</v>
       </c>
       <c r="B573">
@@ -24451,7 +24452,7 @@
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A574" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43419</v>
       </c>
       <c r="B574">
@@ -24472,7 +24473,7 @@
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A575" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43420</v>
       </c>
       <c r="B575">
@@ -24493,7 +24494,7 @@
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A576" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43421</v>
       </c>
       <c r="B576">
@@ -24514,7 +24515,7 @@
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A577" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43422</v>
       </c>
       <c r="B577">
@@ -24535,7 +24536,7 @@
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A578" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43423</v>
       </c>
       <c r="B578">
@@ -24556,7 +24557,7 @@
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A579" s="3">
-        <f t="shared" ref="A579:A642" si="9">DATE(D579,C579,B579)</f>
+        <f t="shared" ref="A579:A642" si="10">DATE(D579,C579,B579)</f>
         <v>43424</v>
       </c>
       <c r="B579">
@@ -24577,7 +24578,7 @@
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A580" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43425</v>
       </c>
       <c r="B580">
@@ -24598,7 +24599,7 @@
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A581" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43426</v>
       </c>
       <c r="B581">
@@ -24619,7 +24620,7 @@
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A582" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43427</v>
       </c>
       <c r="B582">
@@ -24640,7 +24641,7 @@
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A583" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43428</v>
       </c>
       <c r="B583">
@@ -24661,7 +24662,7 @@
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A584" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43429</v>
       </c>
       <c r="B584">
@@ -24682,7 +24683,7 @@
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A585" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43430</v>
       </c>
       <c r="B585">
@@ -24703,7 +24704,7 @@
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A586" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43431</v>
       </c>
       <c r="B586">
@@ -24724,7 +24725,7 @@
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A587" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43432</v>
       </c>
       <c r="B587">
@@ -24745,7 +24746,7 @@
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A588" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43433</v>
       </c>
       <c r="B588">
@@ -24766,7 +24767,7 @@
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A589" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43434</v>
       </c>
       <c r="B589">
@@ -24787,7 +24788,7 @@
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A590" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43435</v>
       </c>
       <c r="B590">
@@ -24808,7 +24809,7 @@
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A591" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43436</v>
       </c>
       <c r="B591">
@@ -24829,7 +24830,7 @@
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A592" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43437</v>
       </c>
       <c r="B592">
@@ -24850,7 +24851,7 @@
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A593" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43438</v>
       </c>
       <c r="B593">
@@ -24871,7 +24872,7 @@
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A594" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43439</v>
       </c>
       <c r="B594">
@@ -24892,7 +24893,7 @@
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A595" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43440</v>
       </c>
       <c r="B595">
@@ -24913,7 +24914,7 @@
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A596" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43441</v>
       </c>
       <c r="B596">
@@ -24934,7 +24935,7 @@
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A597" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43442</v>
       </c>
       <c r="B597">
@@ -24955,7 +24956,7 @@
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A598" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43443</v>
       </c>
       <c r="B598">
@@ -24976,7 +24977,7 @@
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A599" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43444</v>
       </c>
       <c r="B599">
@@ -24997,7 +24998,7 @@
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A600" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43445</v>
       </c>
       <c r="B600">
@@ -25018,7 +25019,7 @@
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A601" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43446</v>
       </c>
       <c r="B601">
@@ -25039,7 +25040,7 @@
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A602" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43447</v>
       </c>
       <c r="B602">
@@ -25060,7 +25061,7 @@
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A603" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43448</v>
       </c>
       <c r="B603">
@@ -25081,7 +25082,7 @@
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A604" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43449</v>
       </c>
       <c r="B604">
@@ -25102,7 +25103,7 @@
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A605" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43450</v>
       </c>
       <c r="B605">
@@ -25123,7 +25124,7 @@
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A606" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43451</v>
       </c>
       <c r="B606">
@@ -25144,7 +25145,7 @@
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A607" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43452</v>
       </c>
       <c r="B607">
@@ -25165,7 +25166,7 @@
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A608" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43453</v>
       </c>
       <c r="B608">
@@ -25186,7 +25187,7 @@
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A609" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43454</v>
       </c>
       <c r="B609">
@@ -25207,7 +25208,7 @@
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A610" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43455</v>
       </c>
       <c r="B610">
@@ -25228,7 +25229,7 @@
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A611" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43456</v>
       </c>
       <c r="B611">
@@ -25249,7 +25250,7 @@
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A612" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43457</v>
       </c>
       <c r="B612">
@@ -25270,7 +25271,7 @@
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A613" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43458</v>
       </c>
       <c r="B613">
@@ -25291,7 +25292,7 @@
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A614" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43459</v>
       </c>
       <c r="B614">
@@ -25312,7 +25313,7 @@
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A615" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43460</v>
       </c>
       <c r="B615">
@@ -25333,7 +25334,7 @@
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A616" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43461</v>
       </c>
       <c r="B616">
@@ -25354,7 +25355,7 @@
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A617" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43462</v>
       </c>
       <c r="B617">
@@ -25375,7 +25376,7 @@
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A618" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43463</v>
       </c>
       <c r="B618">
@@ -25396,7 +25397,7 @@
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A619" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43464</v>
       </c>
       <c r="B619">
@@ -25417,7 +25418,7 @@
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A620" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43465</v>
       </c>
       <c r="B620">
@@ -25438,7 +25439,7 @@
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A621" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43466</v>
       </c>
       <c r="B621">
@@ -25459,7 +25460,7 @@
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A622" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43467</v>
       </c>
       <c r="B622">
@@ -25480,7 +25481,7 @@
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A623" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43468</v>
       </c>
       <c r="B623">
@@ -25501,7 +25502,7 @@
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A624" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43469</v>
       </c>
       <c r="B624">
@@ -25522,7 +25523,7 @@
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A625" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43470</v>
       </c>
       <c r="B625">
@@ -25543,7 +25544,7 @@
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A626" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43471</v>
       </c>
       <c r="B626">
@@ -25564,7 +25565,7 @@
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A627" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43472</v>
       </c>
       <c r="B627">
@@ -25585,7 +25586,7 @@
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A628" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43473</v>
       </c>
       <c r="B628">
@@ -25606,7 +25607,7 @@
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A629" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43474</v>
       </c>
       <c r="B629">
@@ -25627,7 +25628,7 @@
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A630" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43475</v>
       </c>
       <c r="B630">
@@ -25648,7 +25649,7 @@
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A631" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43476</v>
       </c>
       <c r="B631">
@@ -25669,7 +25670,7 @@
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A632" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43477</v>
       </c>
       <c r="B632">
@@ -25690,7 +25691,7 @@
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A633" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43478</v>
       </c>
       <c r="B633">
@@ -25711,7 +25712,7 @@
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A634" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43479</v>
       </c>
       <c r="B634">
@@ -25732,7 +25733,7 @@
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A635" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43480</v>
       </c>
       <c r="B635">
@@ -25753,7 +25754,7 @@
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A636" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43481</v>
       </c>
       <c r="B636">
@@ -25774,7 +25775,7 @@
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A637" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43482</v>
       </c>
       <c r="B637">
@@ -25795,7 +25796,7 @@
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A638" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43483</v>
       </c>
       <c r="B638">
@@ -25816,7 +25817,7 @@
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A639" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43484</v>
       </c>
       <c r="B639">
@@ -25837,7 +25838,7 @@
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A640" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43485</v>
       </c>
       <c r="B640">
@@ -25858,7 +25859,7 @@
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A641" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43486</v>
       </c>
       <c r="B641">
@@ -25879,7 +25880,7 @@
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A642" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43487</v>
       </c>
       <c r="B642">
@@ -25900,7 +25901,7 @@
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A643" s="3">
-        <f t="shared" ref="A643:A706" si="10">DATE(D643,C643,B643)</f>
+        <f t="shared" ref="A643:A706" si="11">DATE(D643,C643,B643)</f>
         <v>43488</v>
       </c>
       <c r="B643">
@@ -25921,7 +25922,7 @@
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A644" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43489</v>
       </c>
       <c r="B644">
@@ -25942,7 +25943,7 @@
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A645" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43490</v>
       </c>
       <c r="B645">
@@ -25963,7 +25964,7 @@
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A646" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43491</v>
       </c>
       <c r="B646">
@@ -25984,7 +25985,7 @@
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A647" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43492</v>
       </c>
       <c r="B647">
@@ -26005,7 +26006,7 @@
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A648" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43493</v>
       </c>
       <c r="B648">
@@ -26026,7 +26027,7 @@
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A649" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43494</v>
       </c>
       <c r="B649">
@@ -26047,7 +26048,7 @@
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A650" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43495</v>
       </c>
       <c r="B650">
@@ -26068,7 +26069,7 @@
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A651" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43496</v>
       </c>
       <c r="B651">
@@ -26089,7 +26090,7 @@
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A652" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43497</v>
       </c>
       <c r="B652">
@@ -26110,7 +26111,7 @@
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A653" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43498</v>
       </c>
       <c r="B653">
@@ -26131,7 +26132,7 @@
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A654" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43499</v>
       </c>
       <c r="B654">
@@ -26152,7 +26153,7 @@
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A655" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43500</v>
       </c>
       <c r="B655">
@@ -26173,7 +26174,7 @@
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A656" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43501</v>
       </c>
       <c r="B656">
@@ -26194,7 +26195,7 @@
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A657" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43502</v>
       </c>
       <c r="B657">
@@ -26215,7 +26216,7 @@
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A658" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43503</v>
       </c>
       <c r="B658">
@@ -26236,7 +26237,7 @@
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A659" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43504</v>
       </c>
       <c r="B659">
@@ -26257,7 +26258,7 @@
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A660" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43505</v>
       </c>
       <c r="B660">
@@ -26278,7 +26279,7 @@
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A661" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43506</v>
       </c>
       <c r="B661">
@@ -26299,7 +26300,7 @@
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A662" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43507</v>
       </c>
       <c r="B662">
@@ -26320,7 +26321,7 @@
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A663" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43508</v>
       </c>
       <c r="B663">
@@ -26341,7 +26342,7 @@
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A664" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43509</v>
       </c>
       <c r="B664">
@@ -26362,7 +26363,7 @@
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A665" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43510</v>
       </c>
       <c r="B665">
@@ -26383,7 +26384,7 @@
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A666" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43511</v>
       </c>
       <c r="B666">
@@ -26404,7 +26405,7 @@
     </row>
     <row r="667" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A667" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43512</v>
       </c>
       <c r="B667">
@@ -26425,7 +26426,7 @@
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A668" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43513</v>
       </c>
       <c r="B668">
@@ -26446,7 +26447,7 @@
     </row>
     <row r="669" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A669" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43514</v>
       </c>
       <c r="B669">
@@ -26467,7 +26468,7 @@
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A670" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43515</v>
       </c>
       <c r="B670">
@@ -26488,7 +26489,7 @@
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A671" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43516</v>
       </c>
       <c r="B671">
@@ -26509,7 +26510,7 @@
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A672" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43517</v>
       </c>
       <c r="B672">
@@ -26530,7 +26531,7 @@
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A673" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43518</v>
       </c>
       <c r="B673">
@@ -26551,7 +26552,7 @@
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A674" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43519</v>
       </c>
       <c r="B674">
@@ -26572,7 +26573,7 @@
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A675" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43520</v>
       </c>
       <c r="B675">
@@ -26593,7 +26594,7 @@
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A676" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43521</v>
       </c>
       <c r="B676">
@@ -26614,7 +26615,7 @@
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A677" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43522</v>
       </c>
       <c r="B677">
@@ -26635,7 +26636,7 @@
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A678" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43523</v>
       </c>
       <c r="B678">
@@ -26656,7 +26657,7 @@
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A679" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43524</v>
       </c>
       <c r="B679">
@@ -26677,7 +26678,7 @@
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A680" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43525</v>
       </c>
       <c r="B680">
@@ -26698,7 +26699,7 @@
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A681" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43526</v>
       </c>
       <c r="B681">
@@ -26719,7 +26720,7 @@
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A682" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43527</v>
       </c>
       <c r="B682">
@@ -26740,7 +26741,7 @@
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A683" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43528</v>
       </c>
       <c r="B683">
@@ -26761,7 +26762,7 @@
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A684" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43529</v>
       </c>
       <c r="B684">
@@ -26782,7 +26783,7 @@
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A685" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43530</v>
       </c>
       <c r="B685">
@@ -26803,7 +26804,7 @@
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A686" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43531</v>
       </c>
       <c r="B686">
@@ -26824,7 +26825,7 @@
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A687" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43532</v>
       </c>
       <c r="B687">
@@ -26845,7 +26846,7 @@
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A688" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43533</v>
       </c>
       <c r="B688">
@@ -26866,7 +26867,7 @@
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A689" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43534</v>
       </c>
       <c r="B689">
@@ -26887,7 +26888,7 @@
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A690" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43535</v>
       </c>
       <c r="B690">
@@ -26908,7 +26909,7 @@
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A691" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43536</v>
       </c>
       <c r="B691">
@@ -26929,7 +26930,7 @@
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A692" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43537</v>
       </c>
       <c r="B692">
@@ -26950,7 +26951,7 @@
     </row>
     <row r="693" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A693" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43538</v>
       </c>
       <c r="B693">
@@ -26971,7 +26972,7 @@
     </row>
     <row r="694" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A694" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43539</v>
       </c>
       <c r="B694">
@@ -26992,7 +26993,7 @@
     </row>
     <row r="695" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A695" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43540</v>
       </c>
       <c r="B695">
@@ -27013,7 +27014,7 @@
     </row>
     <row r="696" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A696" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43541</v>
       </c>
       <c r="B696">
@@ -27034,7 +27035,7 @@
     </row>
     <row r="697" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A697" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43542</v>
       </c>
       <c r="B697">
@@ -27055,7 +27056,7 @@
     </row>
     <row r="698" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A698" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43543</v>
       </c>
       <c r="B698">
@@ -27076,7 +27077,7 @@
     </row>
     <row r="699" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A699" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43544</v>
       </c>
       <c r="B699">
@@ -27097,7 +27098,7 @@
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A700" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43545</v>
       </c>
       <c r="B700">
@@ -27118,7 +27119,7 @@
     </row>
     <row r="701" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A701" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43546</v>
       </c>
       <c r="B701">
@@ -27139,7 +27140,7 @@
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A702" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43547</v>
       </c>
       <c r="B702">
@@ -27160,7 +27161,7 @@
     </row>
     <row r="703" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A703" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43548</v>
       </c>
       <c r="B703">
@@ -27181,7 +27182,7 @@
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A704" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43549</v>
       </c>
       <c r="B704">
@@ -27202,7 +27203,7 @@
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A705" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43550</v>
       </c>
       <c r="B705">
@@ -27223,7 +27224,7 @@
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A706" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43551</v>
       </c>
       <c r="B706">
@@ -27244,7 +27245,7 @@
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A707" s="3">
-        <f t="shared" ref="A707:A770" si="11">DATE(D707,C707,B707)</f>
+        <f t="shared" ref="A707:A770" si="12">DATE(D707,C707,B707)</f>
         <v>43552</v>
       </c>
       <c r="B707">
@@ -27265,7 +27266,7 @@
     </row>
     <row r="708" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A708" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43553</v>
       </c>
       <c r="B708">
@@ -27286,7 +27287,7 @@
     </row>
     <row r="709" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A709" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43554</v>
       </c>
       <c r="B709">
@@ -27307,7 +27308,7 @@
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A710" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43555</v>
       </c>
       <c r="B710">
@@ -27328,7 +27329,7 @@
     </row>
     <row r="711" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A711" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43556</v>
       </c>
       <c r="B711">
@@ -27349,7 +27350,7 @@
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A712" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43557</v>
       </c>
       <c r="B712">
@@ -27370,7 +27371,7 @@
     </row>
     <row r="713" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A713" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43558</v>
       </c>
       <c r="B713">
@@ -27391,7 +27392,7 @@
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A714" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43559</v>
       </c>
       <c r="B714">
@@ -27412,7 +27413,7 @@
     </row>
     <row r="715" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A715" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43560</v>
       </c>
       <c r="B715">
@@ -27433,7 +27434,7 @@
     </row>
     <row r="716" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A716" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43561</v>
       </c>
       <c r="B716">
@@ -27454,7 +27455,7 @@
     </row>
     <row r="717" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A717" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43562</v>
       </c>
       <c r="B717">
@@ -27475,7 +27476,7 @@
     </row>
     <row r="718" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A718" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43563</v>
       </c>
       <c r="B718">
@@ -27496,7 +27497,7 @@
     </row>
     <row r="719" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A719" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43564</v>
       </c>
       <c r="B719">
@@ -27517,7 +27518,7 @@
     </row>
     <row r="720" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A720" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43565</v>
       </c>
       <c r="B720">
@@ -27538,7 +27539,7 @@
     </row>
     <row r="721" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A721" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43566</v>
       </c>
       <c r="B721">
@@ -27559,7 +27560,7 @@
     </row>
     <row r="722" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A722" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43567</v>
       </c>
       <c r="B722">
@@ -27580,7 +27581,7 @@
     </row>
     <row r="723" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A723" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43568</v>
       </c>
       <c r="B723">
@@ -27601,7 +27602,7 @@
     </row>
     <row r="724" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A724" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43569</v>
       </c>
       <c r="B724">
@@ -27622,7 +27623,7 @@
     </row>
     <row r="725" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A725" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43570</v>
       </c>
       <c r="B725">
@@ -27643,7 +27644,7 @@
     </row>
     <row r="726" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A726" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43571</v>
       </c>
       <c r="B726">
@@ -27664,7 +27665,7 @@
     </row>
     <row r="727" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A727" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43572</v>
       </c>
       <c r="B727">
@@ -27685,7 +27686,7 @@
     </row>
     <row r="728" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A728" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43573</v>
       </c>
       <c r="B728">
@@ -27706,7 +27707,7 @@
     </row>
     <row r="729" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A729" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43574</v>
       </c>
       <c r="B729">
@@ -27727,7 +27728,7 @@
     </row>
     <row r="730" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A730" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43575</v>
       </c>
       <c r="B730">
@@ -27748,7 +27749,7 @@
     </row>
     <row r="731" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A731" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43576</v>
       </c>
       <c r="B731">
@@ -27769,7 +27770,7 @@
     </row>
     <row r="732" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A732" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43577</v>
       </c>
       <c r="B732">
@@ -27790,7 +27791,7 @@
     </row>
     <row r="733" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A733" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43578</v>
       </c>
       <c r="B733">
@@ -27811,7 +27812,7 @@
     </row>
     <row r="734" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A734" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43579</v>
       </c>
       <c r="B734">
@@ -27832,7 +27833,7 @@
     </row>
     <row r="735" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A735" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43580</v>
       </c>
       <c r="B735">
@@ -27853,7 +27854,7 @@
     </row>
     <row r="736" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A736" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43581</v>
       </c>
       <c r="B736">
@@ -27874,7 +27875,7 @@
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A737" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43582</v>
       </c>
       <c r="B737">
@@ -27895,7 +27896,7 @@
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A738" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43583</v>
       </c>
       <c r="B738">
@@ -27916,7 +27917,7 @@
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A739" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43584</v>
       </c>
       <c r="B739">
@@ -27937,7 +27938,7 @@
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A740" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43585</v>
       </c>
       <c r="B740">
@@ -27958,7 +27959,7 @@
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A741" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43586</v>
       </c>
       <c r="B741">
@@ -27979,7 +27980,7 @@
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A742" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43587</v>
       </c>
       <c r="B742">
@@ -28000,7 +28001,7 @@
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A743" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43588</v>
       </c>
       <c r="B743">
@@ -28021,7 +28022,7 @@
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A744" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43589</v>
       </c>
       <c r="B744">
@@ -28042,7 +28043,7 @@
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A745" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43590</v>
       </c>
       <c r="B745">
@@ -28063,7 +28064,7 @@
     </row>
     <row r="746" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A746" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43591</v>
       </c>
       <c r="B746">
@@ -28084,7 +28085,7 @@
     </row>
     <row r="747" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A747" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43592</v>
       </c>
       <c r="B747">
@@ -28105,7 +28106,7 @@
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A748" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43593</v>
       </c>
       <c r="B748">
@@ -28126,7 +28127,7 @@
     </row>
     <row r="749" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A749" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43594</v>
       </c>
       <c r="B749">
@@ -28147,7 +28148,7 @@
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A750" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43595</v>
       </c>
       <c r="B750">
@@ -28168,7 +28169,7 @@
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A751" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43596</v>
       </c>
       <c r="B751">
@@ -28189,7 +28190,7 @@
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A752" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43597</v>
       </c>
       <c r="B752">
@@ -28210,7 +28211,7 @@
     </row>
     <row r="753" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A753" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43598</v>
       </c>
       <c r="B753">
@@ -28231,7 +28232,7 @@
     </row>
     <row r="754" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A754" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43599</v>
       </c>
       <c r="B754">
@@ -28252,7 +28253,7 @@
     </row>
     <row r="755" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A755" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43600</v>
       </c>
       <c r="B755">
@@ -28273,7 +28274,7 @@
     </row>
     <row r="756" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A756" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43601</v>
       </c>
       <c r="B756">
@@ -28294,7 +28295,7 @@
     </row>
     <row r="757" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A757" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43602</v>
       </c>
       <c r="B757">
@@ -28315,7 +28316,7 @@
     </row>
     <row r="758" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A758" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43603</v>
       </c>
       <c r="B758">
@@ -28336,7 +28337,7 @@
     </row>
     <row r="759" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A759" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43604</v>
       </c>
       <c r="B759">
@@ -28357,7 +28358,7 @@
     </row>
     <row r="760" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A760" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43605</v>
       </c>
       <c r="B760">
@@ -28378,7 +28379,7 @@
     </row>
     <row r="761" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A761" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43606</v>
       </c>
       <c r="B761">
@@ -28399,7 +28400,7 @@
     </row>
     <row r="762" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A762" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43607</v>
       </c>
       <c r="B762">
@@ -28420,7 +28421,7 @@
     </row>
     <row r="763" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A763" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43608</v>
       </c>
       <c r="B763">
@@ -28441,7 +28442,7 @@
     </row>
     <row r="764" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A764" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43609</v>
       </c>
       <c r="B764">
@@ -28462,7 +28463,7 @@
     </row>
     <row r="765" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A765" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43610</v>
       </c>
       <c r="B765">
@@ -28483,7 +28484,7 @@
     </row>
     <row r="766" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A766" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43611</v>
       </c>
       <c r="B766">
@@ -28504,7 +28505,7 @@
     </row>
     <row r="767" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A767" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43612</v>
       </c>
       <c r="B767">
@@ -28525,7 +28526,7 @@
     </row>
     <row r="768" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A768" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43613</v>
       </c>
       <c r="B768">
@@ -28546,7 +28547,7 @@
     </row>
     <row r="769" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A769" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43614</v>
       </c>
       <c r="B769">
@@ -28567,7 +28568,7 @@
     </row>
     <row r="770" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A770" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43615</v>
       </c>
       <c r="B770">
@@ -28588,7 +28589,7 @@
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A771" s="3">
-        <f t="shared" ref="A771:A834" si="12">DATE(D771,C771,B771)</f>
+        <f t="shared" ref="A771:A834" si="13">DATE(D771,C771,B771)</f>
         <v>43616</v>
       </c>
       <c r="B771">
@@ -28609,7 +28610,7 @@
     </row>
     <row r="772" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A772" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43617</v>
       </c>
       <c r="B772">
@@ -28630,7 +28631,7 @@
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A773" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43618</v>
       </c>
       <c r="B773">
@@ -28651,7 +28652,7 @@
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A774" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43619</v>
       </c>
       <c r="B774">
@@ -28672,7 +28673,7 @@
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A775" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43620</v>
       </c>
       <c r="B775">
@@ -28693,7 +28694,7 @@
     </row>
     <row r="776" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A776" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43621</v>
       </c>
       <c r="B776">
@@ -28714,7 +28715,7 @@
     </row>
     <row r="777" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A777" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43622</v>
       </c>
       <c r="B777">
@@ -28735,7 +28736,7 @@
     </row>
     <row r="778" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A778" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43623</v>
       </c>
       <c r="B778">
@@ -28756,7 +28757,7 @@
     </row>
     <row r="779" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A779" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43624</v>
       </c>
       <c r="B779">
@@ -28777,7 +28778,7 @@
     </row>
     <row r="780" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A780" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43625</v>
       </c>
       <c r="B780">
@@ -28798,7 +28799,7 @@
     </row>
     <row r="781" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A781" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43626</v>
       </c>
       <c r="B781">
@@ -28819,7 +28820,7 @@
     </row>
     <row r="782" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A782" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43627</v>
       </c>
       <c r="B782">
@@ -28840,7 +28841,7 @@
     </row>
     <row r="783" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A783" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43628</v>
       </c>
       <c r="B783">
@@ -28861,7 +28862,7 @@
     </row>
     <row r="784" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A784" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43629</v>
       </c>
       <c r="B784">
@@ -28882,7 +28883,7 @@
     </row>
     <row r="785" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A785" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43630</v>
       </c>
       <c r="B785">
@@ -28903,7 +28904,7 @@
     </row>
     <row r="786" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A786" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43631</v>
       </c>
       <c r="B786">
@@ -28924,7 +28925,7 @@
     </row>
     <row r="787" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A787" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43632</v>
       </c>
       <c r="B787">
@@ -28945,7 +28946,7 @@
     </row>
     <row r="788" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A788" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43633</v>
       </c>
       <c r="B788">
@@ -28966,7 +28967,7 @@
     </row>
     <row r="789" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A789" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43634</v>
       </c>
       <c r="B789">
@@ -28987,7 +28988,7 @@
     </row>
     <row r="790" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A790" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43635</v>
       </c>
       <c r="B790">
@@ -29008,7 +29009,7 @@
     </row>
     <row r="791" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A791" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43636</v>
       </c>
       <c r="B791">
@@ -29029,7 +29030,7 @@
     </row>
     <row r="792" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A792" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43637</v>
       </c>
       <c r="B792">
@@ -29050,7 +29051,7 @@
     </row>
     <row r="793" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A793" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43638</v>
       </c>
       <c r="B793">
@@ -29071,7 +29072,7 @@
     </row>
     <row r="794" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A794" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43639</v>
       </c>
       <c r="B794">
@@ -29092,7 +29093,7 @@
     </row>
     <row r="795" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A795" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43640</v>
       </c>
       <c r="B795">
@@ -29113,7 +29114,7 @@
     </row>
     <row r="796" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A796" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43641</v>
       </c>
       <c r="B796">
@@ -29134,7 +29135,7 @@
     </row>
     <row r="797" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A797" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43642</v>
       </c>
       <c r="B797">
@@ -29155,7 +29156,7 @@
     </row>
     <row r="798" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A798" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43643</v>
       </c>
       <c r="B798">
@@ -29176,7 +29177,7 @@
     </row>
     <row r="799" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A799" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43644</v>
       </c>
       <c r="B799">
@@ -29197,7 +29198,7 @@
     </row>
     <row r="800" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A800" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43645</v>
       </c>
       <c r="B800">
@@ -29218,7 +29219,7 @@
     </row>
     <row r="801" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A801" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43646</v>
       </c>
       <c r="B801">
@@ -29239,7 +29240,7 @@
     </row>
     <row r="802" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A802" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43647</v>
       </c>
       <c r="B802">
@@ -29260,7 +29261,7 @@
     </row>
     <row r="803" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A803" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43648</v>
       </c>
       <c r="B803">
@@ -29281,7 +29282,7 @@
     </row>
     <row r="804" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A804" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43649</v>
       </c>
       <c r="B804">
@@ -29302,7 +29303,7 @@
     </row>
     <row r="805" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A805" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43650</v>
       </c>
       <c r="B805">
@@ -29323,7 +29324,7 @@
     </row>
     <row r="806" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A806" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43651</v>
       </c>
       <c r="B806">
@@ -29344,7 +29345,7 @@
     </row>
     <row r="807" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A807" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43652</v>
       </c>
       <c r="B807">
@@ -29365,7 +29366,7 @@
     </row>
     <row r="808" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A808" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43653</v>
       </c>
       <c r="B808">
@@ -29386,7 +29387,7 @@
     </row>
     <row r="809" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A809" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43654</v>
       </c>
       <c r="B809">
@@ -29407,7 +29408,7 @@
     </row>
     <row r="810" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A810" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43655</v>
       </c>
       <c r="B810">
@@ -29428,7 +29429,7 @@
     </row>
     <row r="811" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A811" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43656</v>
       </c>
       <c r="B811">
@@ -29449,7 +29450,7 @@
     </row>
     <row r="812" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A812" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43657</v>
       </c>
       <c r="B812">
@@ -29470,7 +29471,7 @@
     </row>
     <row r="813" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A813" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43658</v>
       </c>
       <c r="B813">
@@ -29491,7 +29492,7 @@
     </row>
     <row r="814" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A814" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43659</v>
       </c>
       <c r="B814">
@@ -29512,7 +29513,7 @@
     </row>
     <row r="815" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A815" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43660</v>
       </c>
       <c r="B815">
@@ -29533,7 +29534,7 @@
     </row>
     <row r="816" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A816" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43661</v>
       </c>
       <c r="B816">
@@ -29554,7 +29555,7 @@
     </row>
     <row r="817" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A817" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43662</v>
       </c>
       <c r="B817">
@@ -29575,7 +29576,7 @@
     </row>
     <row r="818" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A818" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43663</v>
       </c>
       <c r="B818">
@@ -29596,7 +29597,7 @@
     </row>
     <row r="819" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A819" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43664</v>
       </c>
       <c r="B819">
@@ -29617,7 +29618,7 @@
     </row>
     <row r="820" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A820" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43665</v>
       </c>
       <c r="B820">
@@ -29638,7 +29639,7 @@
     </row>
     <row r="821" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A821" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43666</v>
       </c>
       <c r="B821">
@@ -29659,7 +29660,7 @@
     </row>
     <row r="822" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A822" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43667</v>
       </c>
       <c r="B822">
@@ -29680,7 +29681,7 @@
     </row>
     <row r="823" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A823" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43668</v>
       </c>
       <c r="B823">
@@ -29701,7 +29702,7 @@
     </row>
     <row r="824" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A824" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43669</v>
       </c>
       <c r="B824">
@@ -29722,7 +29723,7 @@
     </row>
     <row r="825" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A825" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43670</v>
       </c>
       <c r="B825">
@@ -29743,7 +29744,7 @@
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A826" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43671</v>
       </c>
       <c r="B826">
@@ -29764,7 +29765,7 @@
     </row>
     <row r="827" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A827" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43672</v>
       </c>
       <c r="B827">
@@ -29785,7 +29786,7 @@
     </row>
     <row r="828" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A828" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43673</v>
       </c>
       <c r="B828">
@@ -29806,7 +29807,7 @@
     </row>
     <row r="829" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A829" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43674</v>
       </c>
       <c r="B829">
@@ -29827,7 +29828,7 @@
     </row>
     <row r="830" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A830" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43675</v>
       </c>
       <c r="B830">
@@ -29848,7 +29849,7 @@
     </row>
     <row r="831" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A831" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43676</v>
       </c>
       <c r="B831">
@@ -29869,7 +29870,7 @@
     </row>
     <row r="832" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A832" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43677</v>
       </c>
       <c r="B832">
@@ -29890,7 +29891,7 @@
     </row>
     <row r="833" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A833" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43678</v>
       </c>
       <c r="B833">
@@ -29911,7 +29912,7 @@
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A834" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43679</v>
       </c>
       <c r="B834">
@@ -29932,7 +29933,7 @@
     </row>
     <row r="835" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A835" s="3">
-        <f t="shared" ref="A835:A898" si="13">DATE(D835,C835,B835)</f>
+        <f t="shared" ref="A835:A898" si="14">DATE(D835,C835,B835)</f>
         <v>43680</v>
       </c>
       <c r="B835">
@@ -29953,7 +29954,7 @@
     </row>
     <row r="836" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A836" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43681</v>
       </c>
       <c r="B836">
@@ -29974,7 +29975,7 @@
     </row>
     <row r="837" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A837" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43682</v>
       </c>
       <c r="B837">
@@ -29995,7 +29996,7 @@
     </row>
     <row r="838" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A838" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43683</v>
       </c>
       <c r="B838">
@@ -30016,7 +30017,7 @@
     </row>
     <row r="839" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A839" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43684</v>
       </c>
       <c r="B839">
@@ -30037,7 +30038,7 @@
     </row>
     <row r="840" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A840" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43685</v>
       </c>
       <c r="B840">
@@ -30058,7 +30059,7 @@
     </row>
     <row r="841" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A841" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43686</v>
       </c>
       <c r="B841">
@@ -30079,7 +30080,7 @@
     </row>
     <row r="842" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A842" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43687</v>
       </c>
       <c r="B842">
@@ -30100,7 +30101,7 @@
     </row>
     <row r="843" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A843" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43688</v>
       </c>
       <c r="B843">
@@ -30121,7 +30122,7 @@
     </row>
     <row r="844" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A844" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43689</v>
       </c>
       <c r="B844">
@@ -30142,7 +30143,7 @@
     </row>
     <row r="845" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A845" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43690</v>
       </c>
       <c r="B845">
@@ -30163,7 +30164,7 @@
     </row>
     <row r="846" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A846" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43691</v>
       </c>
       <c r="B846">
@@ -30184,7 +30185,7 @@
     </row>
     <row r="847" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A847" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43692</v>
       </c>
       <c r="B847">
@@ -30205,7 +30206,7 @@
     </row>
     <row r="848" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A848" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43693</v>
       </c>
       <c r="B848">
@@ -30226,7 +30227,7 @@
     </row>
     <row r="849" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A849" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43694</v>
       </c>
       <c r="B849">
@@ -30247,7 +30248,7 @@
     </row>
     <row r="850" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A850" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43695</v>
       </c>
       <c r="B850">
@@ -30268,7 +30269,7 @@
     </row>
     <row r="851" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A851" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43696</v>
       </c>
       <c r="B851">
@@ -30289,7 +30290,7 @@
     </row>
     <row r="852" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A852" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43697</v>
       </c>
       <c r="B852">
@@ -30310,7 +30311,7 @@
     </row>
     <row r="853" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A853" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43698</v>
       </c>
       <c r="B853">
@@ -30331,7 +30332,7 @@
     </row>
     <row r="854" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A854" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43699</v>
       </c>
       <c r="B854">
@@ -30352,7 +30353,7 @@
     </row>
     <row r="855" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A855" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43700</v>
       </c>
       <c r="B855">
@@ -30373,7 +30374,7 @@
     </row>
     <row r="856" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A856" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43701</v>
       </c>
       <c r="B856">
@@ -30394,7 +30395,7 @@
     </row>
     <row r="857" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A857" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43702</v>
       </c>
       <c r="B857">
@@ -30415,7 +30416,7 @@
     </row>
     <row r="858" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A858" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43703</v>
       </c>
       <c r="B858">
@@ -30436,7 +30437,7 @@
     </row>
     <row r="859" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A859" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43704</v>
       </c>
       <c r="B859">
@@ -30457,7 +30458,7 @@
     </row>
     <row r="860" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A860" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43705</v>
       </c>
       <c r="B860">
@@ -30478,7 +30479,7 @@
     </row>
     <row r="861" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A861" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43706</v>
       </c>
       <c r="B861">
@@ -30499,7 +30500,7 @@
     </row>
     <row r="862" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A862" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43707</v>
       </c>
       <c r="B862">
@@ -30520,7 +30521,7 @@
     </row>
     <row r="863" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A863" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43708</v>
       </c>
       <c r="B863">
@@ -30541,7 +30542,7 @@
     </row>
     <row r="864" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A864" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43709</v>
       </c>
       <c r="B864">
@@ -30562,7 +30563,7 @@
     </row>
     <row r="865" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A865" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43710</v>
       </c>
       <c r="B865">
@@ -30583,7 +30584,7 @@
     </row>
     <row r="866" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A866" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43711</v>
       </c>
       <c r="B866">
@@ -30604,7 +30605,7 @@
     </row>
     <row r="867" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A867" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43712</v>
       </c>
       <c r="B867">
@@ -30625,7 +30626,7 @@
     </row>
     <row r="868" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A868" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43713</v>
       </c>
       <c r="B868">
@@ -30646,7 +30647,7 @@
     </row>
     <row r="869" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A869" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43714</v>
       </c>
       <c r="B869">
@@ -30667,7 +30668,7 @@
     </row>
     <row r="870" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A870" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43715</v>
       </c>
       <c r="B870">
@@ -30688,7 +30689,7 @@
     </row>
     <row r="871" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A871" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43716</v>
       </c>
       <c r="B871">
@@ -30709,7 +30710,7 @@
     </row>
     <row r="872" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A872" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43717</v>
       </c>
       <c r="B872">
@@ -30730,7 +30731,7 @@
     </row>
     <row r="873" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A873" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43718</v>
       </c>
       <c r="B873">
@@ -30751,7 +30752,7 @@
     </row>
     <row r="874" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A874" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43719</v>
       </c>
       <c r="B874">
@@ -30772,7 +30773,7 @@
     </row>
     <row r="875" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A875" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43720</v>
       </c>
       <c r="B875">
@@ -30793,7 +30794,7 @@
     </row>
     <row r="876" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A876" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43721</v>
       </c>
       <c r="B876">
@@ -30814,7 +30815,7 @@
     </row>
     <row r="877" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A877" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43722</v>
       </c>
       <c r="B877">
@@ -30835,7 +30836,7 @@
     </row>
     <row r="878" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A878" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43723</v>
       </c>
       <c r="B878">
@@ -30856,7 +30857,7 @@
     </row>
     <row r="879" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A879" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43724</v>
       </c>
       <c r="B879">
@@ -30877,7 +30878,7 @@
     </row>
     <row r="880" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A880" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43725</v>
       </c>
       <c r="B880">
@@ -30898,7 +30899,7 @@
     </row>
     <row r="881" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A881" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43726</v>
       </c>
       <c r="B881">
@@ -30919,7 +30920,7 @@
     </row>
     <row r="882" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A882" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43727</v>
       </c>
       <c r="B882">
@@ -30940,7 +30941,7 @@
     </row>
     <row r="883" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A883" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43728</v>
       </c>
       <c r="B883">
@@ -30961,7 +30962,7 @@
     </row>
     <row r="884" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A884" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43729</v>
       </c>
       <c r="B884">
@@ -30982,7 +30983,7 @@
     </row>
     <row r="885" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A885" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43730</v>
       </c>
       <c r="B885">
@@ -31003,7 +31004,7 @@
     </row>
     <row r="886" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A886" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43731</v>
       </c>
       <c r="B886">
@@ -31024,7 +31025,7 @@
     </row>
     <row r="887" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A887" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43732</v>
       </c>
       <c r="B887">
@@ -31045,7 +31046,7 @@
     </row>
     <row r="888" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A888" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43733</v>
       </c>
       <c r="B888">
@@ -31066,7 +31067,7 @@
     </row>
     <row r="889" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A889" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43734</v>
       </c>
       <c r="B889">
@@ -31087,7 +31088,7 @@
     </row>
     <row r="890" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A890" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43735</v>
       </c>
       <c r="B890">
@@ -31108,7 +31109,7 @@
     </row>
     <row r="891" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A891" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43736</v>
       </c>
       <c r="B891">
@@ -31129,7 +31130,7 @@
     </row>
     <row r="892" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A892" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43737</v>
       </c>
       <c r="B892">
@@ -31150,7 +31151,7 @@
     </row>
     <row r="893" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A893" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43738</v>
       </c>
       <c r="B893">
@@ -31171,7 +31172,7 @@
     </row>
     <row r="894" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A894" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43739</v>
       </c>
       <c r="B894">
@@ -31192,7 +31193,7 @@
     </row>
     <row r="895" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A895" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43740</v>
       </c>
       <c r="B895">
@@ -31213,7 +31214,7 @@
     </row>
     <row r="896" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A896" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43741</v>
       </c>
       <c r="B896">
@@ -31234,7 +31235,7 @@
     </row>
     <row r="897" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A897" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43742</v>
       </c>
       <c r="B897">
@@ -31255,7 +31256,7 @@
     </row>
     <row r="898" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A898" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43743</v>
       </c>
       <c r="B898">
@@ -31276,7 +31277,7 @@
     </row>
     <row r="899" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A899" s="3">
-        <f t="shared" ref="A899:A962" si="14">DATE(D899,C899,B899)</f>
+        <f t="shared" ref="A899:A962" si="15">DATE(D899,C899,B899)</f>
         <v>43744</v>
       </c>
       <c r="B899">
@@ -31297,7 +31298,7 @@
     </row>
     <row r="900" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A900" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43745</v>
       </c>
       <c r="B900">
@@ -31318,7 +31319,7 @@
     </row>
     <row r="901" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A901" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43746</v>
       </c>
       <c r="B901">
@@ -31339,7 +31340,7 @@
     </row>
     <row r="902" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A902" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43747</v>
       </c>
       <c r="B902">
@@ -31360,7 +31361,7 @@
     </row>
     <row r="903" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A903" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43748</v>
       </c>
       <c r="B903">
@@ -31381,7 +31382,7 @@
     </row>
     <row r="904" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A904" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43749</v>
       </c>
       <c r="B904">
@@ -31402,7 +31403,7 @@
     </row>
     <row r="905" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A905" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43750</v>
       </c>
       <c r="B905">
@@ -31423,7 +31424,7 @@
     </row>
     <row r="906" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A906" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43751</v>
       </c>
       <c r="B906">
@@ -31444,7 +31445,7 @@
     </row>
     <row r="907" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A907" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43752</v>
       </c>
       <c r="B907">
@@ -31465,7 +31466,7 @@
     </row>
     <row r="908" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A908" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43753</v>
       </c>
       <c r="B908">
@@ -31486,7 +31487,7 @@
     </row>
     <row r="909" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A909" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43754</v>
       </c>
       <c r="B909">
@@ -31507,7 +31508,7 @@
     </row>
     <row r="910" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A910" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43755</v>
       </c>
       <c r="B910">
@@ -31528,7 +31529,7 @@
     </row>
     <row r="911" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A911" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43756</v>
       </c>
       <c r="B911">
@@ -31549,7 +31550,7 @@
     </row>
     <row r="912" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A912" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43757</v>
       </c>
       <c r="B912">
@@ -31570,7 +31571,7 @@
     </row>
     <row r="913" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A913" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43758</v>
       </c>
       <c r="B913">
@@ -31591,7 +31592,7 @@
     </row>
     <row r="914" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A914" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43759</v>
       </c>
       <c r="B914">
@@ -31612,7 +31613,7 @@
     </row>
     <row r="915" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A915" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43760</v>
       </c>
       <c r="B915">
@@ -31633,7 +31634,7 @@
     </row>
     <row r="916" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A916" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43761</v>
       </c>
       <c r="B916">
@@ -31654,7 +31655,7 @@
     </row>
     <row r="917" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A917" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43762</v>
       </c>
       <c r="B917">
@@ -31675,7 +31676,7 @@
     </row>
     <row r="918" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A918" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43763</v>
       </c>
       <c r="B918">
@@ -31696,7 +31697,7 @@
     </row>
     <row r="919" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A919" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43764</v>
       </c>
       <c r="B919">
@@ -31717,7 +31718,7 @@
     </row>
     <row r="920" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A920" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43765</v>
       </c>
       <c r="B920">
@@ -31738,7 +31739,7 @@
     </row>
     <row r="921" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A921" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43766</v>
       </c>
       <c r="B921">
@@ -31759,7 +31760,7 @@
     </row>
     <row r="922" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A922" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43767</v>
       </c>
       <c r="B922">
@@ -31780,7 +31781,7 @@
     </row>
     <row r="923" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A923" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43768</v>
       </c>
       <c r="B923">
@@ -31801,7 +31802,7 @@
     </row>
     <row r="924" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A924" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43769</v>
       </c>
       <c r="B924">
@@ -31822,7 +31823,7 @@
     </row>
     <row r="925" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A925" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43770</v>
       </c>
       <c r="B925">
@@ -31843,7 +31844,7 @@
     </row>
     <row r="926" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A926" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43771</v>
       </c>
       <c r="B926">
@@ -31864,7 +31865,7 @@
     </row>
     <row r="927" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A927" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43772</v>
       </c>
       <c r="B927">
@@ -31885,7 +31886,7 @@
     </row>
     <row r="928" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A928" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43773</v>
       </c>
       <c r="B928">
@@ -31906,7 +31907,7 @@
     </row>
     <row r="929" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A929" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43774</v>
       </c>
       <c r="B929">
@@ -31927,7 +31928,7 @@
     </row>
     <row r="930" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A930" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43775</v>
       </c>
       <c r="B930">
@@ -31948,7 +31949,7 @@
     </row>
     <row r="931" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A931" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43776</v>
       </c>
       <c r="B931">
@@ -31969,7 +31970,7 @@
     </row>
     <row r="932" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A932" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43777</v>
       </c>
       <c r="B932">
@@ -31990,7 +31991,7 @@
     </row>
     <row r="933" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A933" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43778</v>
       </c>
       <c r="B933">
@@ -32011,7 +32012,7 @@
     </row>
     <row r="934" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A934" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43779</v>
       </c>
       <c r="B934">
@@ -32032,7 +32033,7 @@
     </row>
     <row r="935" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A935" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43780</v>
       </c>
       <c r="B935">
@@ -32053,7 +32054,7 @@
     </row>
     <row r="936" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A936" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43781</v>
       </c>
       <c r="B936">
@@ -32074,7 +32075,7 @@
     </row>
     <row r="937" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A937" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43782</v>
       </c>
       <c r="B937">
@@ -32095,7 +32096,7 @@
     </row>
     <row r="938" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A938" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43783</v>
       </c>
       <c r="B938">
@@ -32116,7 +32117,7 @@
     </row>
     <row r="939" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A939" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43784</v>
       </c>
       <c r="B939">
@@ -32137,7 +32138,7 @@
     </row>
     <row r="940" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A940" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43785</v>
       </c>
       <c r="B940">
@@ -32158,7 +32159,7 @@
     </row>
     <row r="941" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A941" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43786</v>
       </c>
       <c r="B941">
@@ -32179,7 +32180,7 @@
     </row>
     <row r="942" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A942" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43787</v>
       </c>
       <c r="B942">
@@ -32200,7 +32201,7 @@
     </row>
     <row r="943" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A943" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43788</v>
       </c>
       <c r="B943">
@@ -32221,7 +32222,7 @@
     </row>
     <row r="944" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A944" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43789</v>
       </c>
       <c r="B944">
@@ -32242,7 +32243,7 @@
     </row>
     <row r="945" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A945" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43790</v>
       </c>
       <c r="B945">
@@ -32263,7 +32264,7 @@
     </row>
     <row r="946" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A946" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43791</v>
       </c>
       <c r="B946">
@@ -32284,7 +32285,7 @@
     </row>
     <row r="947" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A947" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43792</v>
       </c>
       <c r="B947">
@@ -32305,7 +32306,7 @@
     </row>
     <row r="948" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A948" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43793</v>
       </c>
       <c r="B948">
@@ -32326,7 +32327,7 @@
     </row>
     <row r="949" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A949" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43794</v>
       </c>
       <c r="B949">
@@ -32347,7 +32348,7 @@
     </row>
     <row r="950" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A950" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43795</v>
       </c>
       <c r="B950">
@@ -32368,7 +32369,7 @@
     </row>
     <row r="951" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A951" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43796</v>
       </c>
       <c r="B951">
@@ -32389,7 +32390,7 @@
     </row>
     <row r="952" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A952" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43797</v>
       </c>
       <c r="B952">
@@ -32410,7 +32411,7 @@
     </row>
     <row r="953" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A953" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43798</v>
       </c>
       <c r="B953">
@@ -32431,7 +32432,7 @@
     </row>
     <row r="954" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A954" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43799</v>
       </c>
       <c r="B954">
@@ -32452,7 +32453,7 @@
     </row>
     <row r="955" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A955" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43800</v>
       </c>
       <c r="B955">
@@ -32473,7 +32474,7 @@
     </row>
     <row r="956" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A956" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43801</v>
       </c>
       <c r="B956">
@@ -32494,7 +32495,7 @@
     </row>
     <row r="957" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A957" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43802</v>
       </c>
       <c r="B957">
@@ -32515,7 +32516,7 @@
     </row>
     <row r="958" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A958" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43803</v>
       </c>
       <c r="B958">
@@ -32536,7 +32537,7 @@
     </row>
     <row r="959" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A959" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43804</v>
       </c>
       <c r="B959">
@@ -32557,7 +32558,7 @@
     </row>
     <row r="960" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A960" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43805</v>
       </c>
       <c r="B960">
@@ -32578,7 +32579,7 @@
     </row>
     <row r="961" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A961" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43806</v>
       </c>
       <c r="B961">
@@ -32599,7 +32600,7 @@
     </row>
     <row r="962" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A962" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43807</v>
       </c>
       <c r="B962">
@@ -32620,7 +32621,7 @@
     </row>
     <row r="963" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A963" s="3">
-        <f t="shared" ref="A963:A1026" si="15">DATE(D963,C963,B963)</f>
+        <f t="shared" ref="A963:A1026" si="16">DATE(D963,C963,B963)</f>
         <v>43808</v>
       </c>
       <c r="B963">
@@ -32641,7 +32642,7 @@
     </row>
     <row r="964" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A964" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43809</v>
       </c>
       <c r="B964">
@@ -32662,7 +32663,7 @@
     </row>
     <row r="965" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A965" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43810</v>
       </c>
       <c r="B965">
@@ -32683,7 +32684,7 @@
     </row>
     <row r="966" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A966" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43811</v>
       </c>
       <c r="B966">
@@ -32704,7 +32705,7 @@
     </row>
     <row r="967" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A967" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43812</v>
       </c>
       <c r="B967">
@@ -32725,7 +32726,7 @@
     </row>
     <row r="968" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A968" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43813</v>
       </c>
       <c r="B968">
@@ -32746,7 +32747,7 @@
     </row>
     <row r="969" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A969" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43814</v>
       </c>
       <c r="B969">
@@ -32767,7 +32768,7 @@
     </row>
     <row r="970" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A970" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43815</v>
       </c>
       <c r="B970">
@@ -32788,7 +32789,7 @@
     </row>
     <row r="971" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A971" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43816</v>
       </c>
       <c r="B971">
@@ -32809,7 +32810,7 @@
     </row>
     <row r="972" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A972" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43817</v>
       </c>
       <c r="B972">
@@ -32830,7 +32831,7 @@
     </row>
     <row r="973" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A973" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43818</v>
       </c>
       <c r="B973">
@@ -32851,7 +32852,7 @@
     </row>
     <row r="974" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A974" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43819</v>
       </c>
       <c r="B974">
@@ -32872,7 +32873,7 @@
     </row>
     <row r="975" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A975" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43820</v>
       </c>
       <c r="B975">
@@ -32893,7 +32894,7 @@
     </row>
     <row r="976" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A976" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43821</v>
       </c>
       <c r="B976">
@@ -32914,7 +32915,7 @@
     </row>
     <row r="977" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A977" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43822</v>
       </c>
       <c r="B977">
@@ -32935,7 +32936,7 @@
     </row>
     <row r="978" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A978" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43823</v>
       </c>
       <c r="B978">
@@ -32956,7 +32957,7 @@
     </row>
     <row r="979" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A979" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43824</v>
       </c>
       <c r="B979">
@@ -32977,7 +32978,7 @@
     </row>
     <row r="980" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A980" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43825</v>
       </c>
       <c r="B980">
@@ -32998,7 +32999,7 @@
     </row>
     <row r="981" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A981" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43826</v>
       </c>
       <c r="B981">
@@ -33019,7 +33020,7 @@
     </row>
     <row r="982" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A982" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43827</v>
       </c>
       <c r="B982">
@@ -33040,7 +33041,7 @@
     </row>
     <row r="983" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A983" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43828</v>
       </c>
       <c r="B983">
@@ -33061,7 +33062,7 @@
     </row>
     <row r="984" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A984" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43829</v>
       </c>
       <c r="B984">
@@ -33082,7 +33083,7 @@
     </row>
     <row r="985" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A985" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43830</v>
       </c>
       <c r="B985">
@@ -33103,7 +33104,7 @@
     </row>
     <row r="986" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A986" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43831</v>
       </c>
       <c r="B986">
@@ -33124,7 +33125,7 @@
     </row>
     <row r="987" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A987" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43832</v>
       </c>
       <c r="B987">
@@ -33145,7 +33146,7 @@
     </row>
     <row r="988" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A988" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43833</v>
       </c>
       <c r="B988">
@@ -33166,7 +33167,7 @@
     </row>
     <row r="989" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A989" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43834</v>
       </c>
       <c r="B989">
@@ -33187,7 +33188,7 @@
     </row>
     <row r="990" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A990" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43835</v>
       </c>
       <c r="B990">
@@ -33208,7 +33209,7 @@
     </row>
     <row r="991" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A991" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43836</v>
       </c>
       <c r="B991">
@@ -33229,7 +33230,7 @@
     </row>
     <row r="992" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A992" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43837</v>
       </c>
       <c r="B992">
@@ -33250,7 +33251,7 @@
     </row>
     <row r="993" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A993" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43838</v>
       </c>
       <c r="B993">
@@ -33271,7 +33272,7 @@
     </row>
     <row r="994" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A994" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43839</v>
       </c>
       <c r="B994">
@@ -33292,7 +33293,7 @@
     </row>
     <row r="995" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A995" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43840</v>
       </c>
       <c r="B995">
@@ -33313,7 +33314,7 @@
     </row>
     <row r="996" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A996" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43841</v>
       </c>
       <c r="B996">
@@ -33334,7 +33335,7 @@
     </row>
     <row r="997" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A997" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43842</v>
       </c>
       <c r="B997">
@@ -33355,7 +33356,7 @@
     </row>
     <row r="998" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A998" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43843</v>
       </c>
       <c r="B998">
@@ -33376,7 +33377,7 @@
     </row>
     <row r="999" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A999" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43844</v>
       </c>
       <c r="B999">
@@ -33397,7 +33398,7 @@
     </row>
     <row r="1000" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1000" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43845</v>
       </c>
       <c r="B1000">
@@ -33418,7 +33419,7 @@
     </row>
     <row r="1001" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1001" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43846</v>
       </c>
       <c r="B1001">
@@ -33439,7 +33440,7 @@
     </row>
     <row r="1002" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1002" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43847</v>
       </c>
       <c r="B1002">
@@ -33460,7 +33461,7 @@
     </row>
     <row r="1003" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1003" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43848</v>
       </c>
       <c r="B1003">
@@ -33481,7 +33482,7 @@
     </row>
     <row r="1004" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1004" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43849</v>
       </c>
       <c r="B1004">
@@ -33502,7 +33503,7 @@
     </row>
     <row r="1005" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1005" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43850</v>
       </c>
       <c r="B1005">
@@ -33523,7 +33524,7 @@
     </row>
     <row r="1006" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1006" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43851</v>
       </c>
       <c r="B1006">
@@ -33544,7 +33545,7 @@
     </row>
     <row r="1007" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1007" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43852</v>
       </c>
       <c r="B1007">
@@ -33565,7 +33566,7 @@
     </row>
     <row r="1008" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1008" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43853</v>
       </c>
       <c r="B1008">
@@ -33586,7 +33587,7 @@
     </row>
     <row r="1009" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1009" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43854</v>
       </c>
       <c r="B1009">
@@ -33607,7 +33608,7 @@
     </row>
     <row r="1010" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1010" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43855</v>
       </c>
       <c r="B1010">
@@ -33628,7 +33629,7 @@
     </row>
     <row r="1011" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1011" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43856</v>
       </c>
       <c r="B1011">
@@ -33649,7 +33650,7 @@
     </row>
     <row r="1012" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1012" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43857</v>
       </c>
       <c r="B1012">
@@ -33670,7 +33671,7 @@
     </row>
     <row r="1013" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1013" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43858</v>
       </c>
       <c r="B1013">
@@ -33691,7 +33692,7 @@
     </row>
     <row r="1014" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1014" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43859</v>
       </c>
       <c r="B1014">
@@ -33712,7 +33713,7 @@
     </row>
     <row r="1015" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1015" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43860</v>
       </c>
       <c r="B1015">
@@ -33733,7 +33734,7 @@
     </row>
     <row r="1016" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1016" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43861</v>
       </c>
       <c r="B1016">
@@ -33754,7 +33755,7 @@
     </row>
     <row r="1017" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1017" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43862</v>
       </c>
       <c r="B1017">
@@ -33775,7 +33776,7 @@
     </row>
     <row r="1018" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1018" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43863</v>
       </c>
       <c r="B1018">
@@ -33796,7 +33797,7 @@
     </row>
     <row r="1019" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1019" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43864</v>
       </c>
       <c r="B1019">
@@ -33817,7 +33818,7 @@
     </row>
     <row r="1020" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1020" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43865</v>
       </c>
       <c r="B1020">
@@ -33838,7 +33839,7 @@
     </row>
     <row r="1021" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1021" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43866</v>
       </c>
       <c r="B1021">
@@ -33859,7 +33860,7 @@
     </row>
     <row r="1022" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1022" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43867</v>
       </c>
       <c r="B1022">
@@ -33880,7 +33881,7 @@
     </row>
     <row r="1023" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1023" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43868</v>
       </c>
       <c r="B1023">
@@ -33901,7 +33902,7 @@
     </row>
     <row r="1024" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1024" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43869</v>
       </c>
       <c r="B1024">
@@ -33922,7 +33923,7 @@
     </row>
     <row r="1025" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1025" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43870</v>
       </c>
       <c r="B1025">
@@ -33943,7 +33944,7 @@
     </row>
     <row r="1026" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1026" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43871</v>
       </c>
       <c r="B1026">
@@ -33964,7 +33965,7 @@
     </row>
     <row r="1027" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1027" s="3">
-        <f t="shared" ref="A1027:A1054" si="16">DATE(D1027,C1027,B1027)</f>
+        <f t="shared" ref="A1027:A1054" si="17">DATE(D1027,C1027,B1027)</f>
         <v>43872</v>
       </c>
       <c r="B1027">
@@ -33985,7 +33986,7 @@
     </row>
     <row r="1028" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1028" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43873</v>
       </c>
       <c r="B1028">
@@ -34006,7 +34007,7 @@
     </row>
     <row r="1029" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1029" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43874</v>
       </c>
       <c r="B1029">
@@ -34027,7 +34028,7 @@
     </row>
     <row r="1030" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1030" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43875</v>
       </c>
       <c r="B1030">
@@ -34048,7 +34049,7 @@
     </row>
     <row r="1031" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1031" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43876</v>
       </c>
       <c r="B1031">
@@ -34069,7 +34070,7 @@
     </row>
     <row r="1032" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1032" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43877</v>
       </c>
       <c r="B1032">
@@ -34090,7 +34091,7 @@
     </row>
     <row r="1033" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1033" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43878</v>
       </c>
       <c r="B1033">
@@ -34111,7 +34112,7 @@
     </row>
     <row r="1034" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1034" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43879</v>
       </c>
       <c r="B1034">
@@ -34132,7 +34133,7 @@
     </row>
     <row r="1035" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1035" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43880</v>
       </c>
       <c r="B1035">
@@ -34153,7 +34154,7 @@
     </row>
     <row r="1036" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1036" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43881</v>
       </c>
       <c r="B1036">
@@ -34174,7 +34175,7 @@
     </row>
     <row r="1037" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1037" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43882</v>
       </c>
       <c r="B1037">
@@ -34195,7 +34196,7 @@
     </row>
     <row r="1038" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1038" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43883</v>
       </c>
       <c r="B1038">
@@ -34216,7 +34217,7 @@
     </row>
     <row r="1039" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1039" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43884</v>
       </c>
       <c r="B1039">
@@ -34237,7 +34238,7 @@
     </row>
     <row r="1040" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1040" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43885</v>
       </c>
       <c r="B1040">
@@ -34258,7 +34259,7 @@
     </row>
     <row r="1041" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1041" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43886</v>
       </c>
       <c r="B1041">
@@ -34279,7 +34280,7 @@
     </row>
     <row r="1042" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1042" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43887</v>
       </c>
       <c r="B1042">
@@ -34300,7 +34301,7 @@
     </row>
     <row r="1043" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1043" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43888</v>
       </c>
       <c r="B1043">
@@ -34321,7 +34322,7 @@
     </row>
     <row r="1044" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1044" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43889</v>
       </c>
       <c r="B1044">
@@ -34342,7 +34343,7 @@
     </row>
     <row r="1045" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1045" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43890</v>
       </c>
       <c r="B1045">
@@ -34363,7 +34364,7 @@
     </row>
     <row r="1046" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1046" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43891</v>
       </c>
       <c r="B1046">
@@ -34384,7 +34385,7 @@
     </row>
     <row r="1047" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1047" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43892</v>
       </c>
       <c r="B1047">
@@ -34405,7 +34406,7 @@
     </row>
     <row r="1048" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1048" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43893</v>
       </c>
       <c r="B1048">
@@ -34426,7 +34427,7 @@
     </row>
     <row r="1049" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1049" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43894</v>
       </c>
       <c r="B1049">
@@ -34447,7 +34448,7 @@
     </row>
     <row r="1050" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1050" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43895</v>
       </c>
       <c r="B1050">
@@ -34468,7 +34469,7 @@
     </row>
     <row r="1051" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1051" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43896</v>
       </c>
       <c r="B1051">
@@ -34489,7 +34490,7 @@
     </row>
     <row r="1052" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1052" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43897</v>
       </c>
       <c r="B1052">
@@ -34510,7 +34511,7 @@
     </row>
     <row r="1053" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1053" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43898</v>
       </c>
       <c r="B1053">
@@ -34531,7 +34532,7 @@
     </row>
     <row r="1054" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1054" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43899</v>
       </c>
       <c r="B1054">
@@ -34626,7 +34627,7 @@
         <v>121.10000000000001</v>
       </c>
       <c r="F4" s="10">
-        <f t="shared" ref="F4:G10" si="0">C4/C3*F3</f>
+        <f t="shared" ref="F4:F10" si="0">C4/C3*F3</f>
         <v>121.0689956331878</v>
       </c>
       <c r="G4" s="10">
